--- a/Stundenprotokoll_Prochoc.xlsx
+++ b/Stundenprotokoll_Prochoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FabioLehner/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Desktop\HTL-Leonding\Prochoc-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5C9168-FA9C-B44D-9EE9-544F254E60FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54731FFF-73E2-4BE5-8FA4-5FE0177E9A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="4040" windowWidth="21600" windowHeight="11380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -60,46 +60,16 @@
     <t>Bastian</t>
   </si>
   <si>
-    <t>Worked on Azure Deployment</t>
+    <t>Bugs in Deployment (refresh)</t>
   </si>
   <si>
-    <t>bugfixes in Basket</t>
+    <t>PayPal Sandbox auskunft</t>
   </si>
   <si>
-    <t>finished Deployment</t>
+    <t>Basket Id in Mail, Routing, OrderDate</t>
   </si>
   <si>
-    <t>looking for SMTP for sending Email</t>
-  </si>
-  <si>
-    <t>User verification with Mail</t>
-  </si>
-  <si>
-    <t>View Order in Checkoutpage</t>
-  </si>
-  <si>
-    <t>User in Navbar and Basket updates</t>
-  </si>
-  <si>
-    <t>Basket Email</t>
-  </si>
-  <si>
-    <t>Fabio Lehner</t>
-  </si>
-  <si>
-    <t>Fixed Bug in Checkout Page</t>
-  </si>
-  <si>
-    <t>Changed Settings and Bugs in Azure</t>
-  </si>
-  <si>
-    <t>Implemented Order in Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imlemented Email to be sent </t>
-  </si>
-  <si>
-    <t>finalization and last bug fixes for Sprint</t>
+    <t>Paypal API</t>
   </si>
 </sst>
 </file>
@@ -467,16 +437,16 @@
   <dimension ref="A1:H1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="22.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="98.83203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="1" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="98.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
@@ -502,13 +472,13 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="6">
-        <v>44566</v>
+        <v>44587</v>
       </c>
       <c r="B2" s="7">
-        <v>0.55555555555555558</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C2" s="7">
-        <v>0.625</v>
+        <v>0.6875</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>6</v>
@@ -518,19 +488,19 @@
       </c>
       <c r="F2" s="15">
         <f t="shared" ref="F2:F41" si="0">$C2-$B2</f>
-        <v>6.944444444444442E-2</v>
+        <v>0.14583333333333337</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="11">
-        <v>44568</v>
+        <v>44591</v>
       </c>
       <c r="B3" s="12">
-        <v>0.80208333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="C3" s="12">
-        <v>0.93055555555555547</v>
+        <v>0.875</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>6</v>
@@ -540,19 +510,19 @@
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
-        <v>0.1284722222222221</v>
+        <v>0.125</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="6">
-        <v>44573</v>
+        <v>44592</v>
       </c>
       <c r="B4" s="7">
-        <v>0.84027777777777779</v>
+        <v>0.88194444444444453</v>
       </c>
       <c r="C4" s="16">
-        <v>0.96875</v>
+        <v>0.99305555555555547</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>6</v>
@@ -562,19 +532,19 @@
       </c>
       <c r="F4" s="15">
         <f t="shared" si="0"/>
-        <v>0.12847222222222221</v>
+        <v>0.11111111111111094</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="11">
-        <v>44574</v>
+        <v>44593</v>
       </c>
       <c r="B5" s="12">
-        <v>0.74305555555555547</v>
+        <v>0.84375</v>
       </c>
       <c r="C5" s="12">
-        <v>0.85416666666666663</v>
+        <v>0.98611111111111116</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>6</v>
@@ -584,220 +554,120 @@
       </c>
       <c r="F5" s="15">
         <f t="shared" si="0"/>
-        <v>0.11111111111111116</v>
+        <v>0.14236111111111116</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="6">
-        <v>44574</v>
-      </c>
-      <c r="B6" s="7">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0.99305555555555547</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="15">
         <f t="shared" si="0"/>
-        <v>9.7222222222222099E-2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="11">
-        <v>44575</v>
-      </c>
-      <c r="B7" s="12">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>0.10416666666666674</v>
+        <v>0</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="6">
-        <v>44576</v>
-      </c>
-      <c r="B8" s="7">
-        <v>0.80902777777777779</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0.90972222222222221</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="15">
         <f t="shared" si="0"/>
-        <v>0.10069444444444442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="11">
-        <v>44577</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0.89930555555555547</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0.99652777777777779</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>9.7222222222222321E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="6">
-        <v>44578</v>
-      </c>
-      <c r="B10" s="7">
-        <v>0.86805555555555547</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="15">
         <f t="shared" si="0"/>
-        <v>4.861111111111116E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="11">
-        <v>44564</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>18</v>
-      </c>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="15">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="6">
-        <v>44574</v>
-      </c>
-      <c r="B12" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.875</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>19</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="15">
         <f>$C12-$B12</f>
-        <v>8.333333333333337E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="11">
-        <v>44576</v>
-      </c>
-      <c r="B13" s="12">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
       <c r="F13" s="15">
         <f>$C13-$B13</f>
-        <v>0.16666666666666663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="6">
-        <v>44578</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>21</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="15">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="11">
-        <v>44579</v>
-      </c>
-      <c r="B15" s="22">
-        <v>0.75</v>
-      </c>
-      <c r="C15" s="12">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>22</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
       <c r="F15" s="15">
         <f t="shared" si="0"/>
-        <v>0.20833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
@@ -826,7 +696,7 @@
       </c>
       <c r="H17" s="5">
         <f>SUMIF($D2:$D1003,"Bastian Haider",$F2:$F1003)</f>
-        <v>0.88541666666666663</v>
+        <v>0.52430555555555547</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
@@ -855,7 +725,7 @@
       </c>
       <c r="H19" s="5">
         <f>SUMIF($D2:$D1003,"Fabio Lehner",$F2:$F1003)</f>
-        <v>0.70833333333333337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
@@ -990,7 +860,7 @@
       </c>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:8" ht="13">
+    <row r="31" spans="1:8" ht="12.75">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1002,7 +872,7 @@
       </c>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:8" ht="13">
+    <row r="32" spans="1:8" ht="12.75">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1014,7 +884,7 @@
       </c>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="1:8" ht="13">
+    <row r="33" spans="1:8" ht="12.75">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1026,7 +896,7 @@
       </c>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="1:8" ht="13">
+    <row r="34" spans="1:8" ht="12.75">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="18"/>
@@ -1038,7 +908,7 @@
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="1:8" ht="13">
+    <row r="35" spans="1:8" ht="12.75">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="18"/>
@@ -1050,7 +920,7 @@
       </c>
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="1:8" ht="13">
+    <row r="36" spans="1:8" ht="12.75">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1062,7 +932,7 @@
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" spans="1:8" ht="13">
+    <row r="37" spans="1:8" ht="12.75">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1074,7 +944,7 @@
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" spans="1:8" ht="13">
+    <row r="38" spans="1:8" ht="12.75">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1086,7 +956,7 @@
       </c>
       <c r="H38" s="5"/>
     </row>
-    <row r="39" spans="1:8" ht="13">
+    <row r="39" spans="1:8" ht="12.75">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1098,7 +968,7 @@
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" spans="1:8" ht="13">
+    <row r="40" spans="1:8" ht="12.75">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -1110,7 +980,7 @@
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" ht="13">
+    <row r="41" spans="1:8" ht="12.75">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1122,7 +992,7 @@
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" ht="13">
+    <row r="42" spans="1:8" ht="12.75">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -1134,7 +1004,7 @@
       </c>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" ht="13">
+    <row r="43" spans="1:8" ht="12.75">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1146,7 +1016,7 @@
       </c>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" ht="13">
+    <row r="44" spans="1:8" ht="12.75">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -1158,7 +1028,7 @@
       </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" ht="13">
+    <row r="45" spans="1:8" ht="12.75">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1170,7 +1040,7 @@
       </c>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" ht="13">
+    <row r="46" spans="1:8" ht="12.75">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -1182,7 +1052,7 @@
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" ht="13">
+    <row r="47" spans="1:8" ht="12.75">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1194,7 +1064,7 @@
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" ht="13">
+    <row r="48" spans="1:8" ht="12.75">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -1206,7 +1076,7 @@
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" ht="13">
+    <row r="49" spans="1:8" ht="12.75">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1218,7 +1088,7 @@
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" ht="13">
+    <row r="50" spans="1:8" ht="12.75">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -1230,7 +1100,7 @@
       </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" ht="13">
+    <row r="51" spans="1:8" ht="12.75">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1242,7 +1112,7 @@
       </c>
       <c r="H51" s="5"/>
     </row>
-    <row r="52" spans="1:8" ht="13">
+    <row r="52" spans="1:8" ht="12.75">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -1254,7 +1124,7 @@
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" spans="1:8" ht="13">
+    <row r="53" spans="1:8" ht="12.75">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1266,7 +1136,7 @@
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" spans="1:8" ht="13">
+    <row r="54" spans="1:8" ht="12.75">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -1278,7 +1148,7 @@
       </c>
       <c r="H54" s="5"/>
     </row>
-    <row r="55" spans="1:8" ht="13">
+    <row r="55" spans="1:8" ht="12.75">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1290,7 +1160,7 @@
       </c>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="1:8" ht="13">
+    <row r="56" spans="1:8" ht="12.75">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -1302,7 +1172,7 @@
       </c>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="1:8" ht="13">
+    <row r="57" spans="1:8" ht="12.75">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1314,7 +1184,7 @@
       </c>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="1:8" ht="13">
+    <row r="58" spans="1:8" ht="12.75">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -1326,7 +1196,7 @@
       </c>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="1:8" ht="13">
+    <row r="59" spans="1:8" ht="12.75">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1338,7 +1208,7 @@
       </c>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="1:8" ht="13">
+    <row r="60" spans="1:8" ht="12.75">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -1350,7 +1220,7 @@
       </c>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="1:8" ht="13">
+    <row r="61" spans="1:8" ht="12.75">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1362,7 +1232,7 @@
       </c>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="1:8" ht="13">
+    <row r="62" spans="1:8" ht="12.75">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -1374,7 +1244,7 @@
       </c>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="1:8" ht="13">
+    <row r="63" spans="1:8" ht="12.75">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1386,7 +1256,7 @@
       </c>
       <c r="H63" s="5"/>
     </row>
-    <row r="64" spans="1:8" ht="13">
+    <row r="64" spans="1:8" ht="12.75">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -1398,7 +1268,7 @@
       </c>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" spans="1:8" ht="13">
+    <row r="65" spans="1:8" ht="12.75">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -1410,7 +1280,7 @@
       </c>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" spans="1:8" ht="13">
+    <row r="66" spans="1:8" ht="12.75">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -1422,7 +1292,7 @@
       </c>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" spans="1:8" ht="13">
+    <row r="67" spans="1:8" ht="12.75">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -1434,7 +1304,7 @@
       </c>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" spans="1:8" ht="13">
+    <row r="68" spans="1:8" ht="12.75">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -1446,7 +1316,7 @@
       </c>
       <c r="H68" s="5"/>
     </row>
-    <row r="69" spans="1:8" ht="13">
+    <row r="69" spans="1:8" ht="12.75">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1458,7 +1328,7 @@
       </c>
       <c r="H69" s="5"/>
     </row>
-    <row r="70" spans="1:8" ht="13">
+    <row r="70" spans="1:8" ht="12.75">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -1470,7 +1340,7 @@
       </c>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" spans="1:8" ht="13">
+    <row r="71" spans="1:8" ht="12.75">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -1482,7 +1352,7 @@
       </c>
       <c r="H71" s="5"/>
     </row>
-    <row r="72" spans="1:8" ht="13">
+    <row r="72" spans="1:8" ht="12.75">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -1494,7 +1364,7 @@
       </c>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" spans="1:8" ht="13">
+    <row r="73" spans="1:8" ht="12.75">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1506,7 +1376,7 @@
       </c>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" spans="1:8" ht="13">
+    <row r="74" spans="1:8" ht="12.75">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -1518,7 +1388,7 @@
       </c>
       <c r="H74" s="5"/>
     </row>
-    <row r="75" spans="1:8" ht="13">
+    <row r="75" spans="1:8" ht="12.75">
       <c r="A75" s="20"/>
       <c r="B75" s="21"/>
       <c r="C75" s="21"/>
@@ -1527,7 +1397,7 @@
       <c r="F75" s="21"/>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" spans="1:8" ht="13">
+    <row r="76" spans="1:8" ht="12.75">
       <c r="A76" s="20"/>
       <c r="B76" s="21"/>
       <c r="C76" s="21"/>
@@ -1536,7 +1406,7 @@
       <c r="F76" s="21"/>
       <c r="H76" s="5"/>
     </row>
-    <row r="77" spans="1:8" ht="13">
+    <row r="77" spans="1:8" ht="12.75">
       <c r="A77" s="20"/>
       <c r="B77" s="21"/>
       <c r="C77" s="21"/>
@@ -1545,7 +1415,7 @@
       <c r="F77" s="21"/>
       <c r="H77" s="5"/>
     </row>
-    <row r="78" spans="1:8" ht="13">
+    <row r="78" spans="1:8" ht="12.75">
       <c r="A78" s="20"/>
       <c r="B78" s="21"/>
       <c r="C78" s="21"/>
@@ -1554,7 +1424,7 @@
       <c r="F78" s="21"/>
       <c r="H78" s="5"/>
     </row>
-    <row r="79" spans="1:8" ht="13">
+    <row r="79" spans="1:8" ht="12.75">
       <c r="A79" s="20"/>
       <c r="B79" s="21"/>
       <c r="C79" s="21"/>
@@ -1563,7 +1433,7 @@
       <c r="F79" s="21"/>
       <c r="H79" s="5"/>
     </row>
-    <row r="80" spans="1:8" ht="13">
+    <row r="80" spans="1:8" ht="12.75">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
       <c r="C80" s="21"/>
@@ -1572,7 +1442,7 @@
       <c r="F80" s="21"/>
       <c r="H80" s="5"/>
     </row>
-    <row r="81" spans="1:8" ht="13">
+    <row r="81" spans="1:8" ht="12.75">
       <c r="A81" s="20"/>
       <c r="B81" s="21"/>
       <c r="C81" s="21"/>
@@ -1581,7 +1451,7 @@
       <c r="F81" s="21"/>
       <c r="H81" s="5"/>
     </row>
-    <row r="82" spans="1:8" ht="13">
+    <row r="82" spans="1:8" ht="12.75">
       <c r="A82" s="20"/>
       <c r="B82" s="21"/>
       <c r="C82" s="21"/>
@@ -1590,7 +1460,7 @@
       <c r="F82" s="21"/>
       <c r="H82" s="5"/>
     </row>
-    <row r="83" spans="1:8" ht="13">
+    <row r="83" spans="1:8" ht="12.75">
       <c r="A83" s="20"/>
       <c r="B83" s="21"/>
       <c r="C83" s="21"/>
@@ -1599,7 +1469,7 @@
       <c r="F83" s="21"/>
       <c r="H83" s="5"/>
     </row>
-    <row r="84" spans="1:8" ht="13">
+    <row r="84" spans="1:8" ht="12.75">
       <c r="A84" s="20"/>
       <c r="B84" s="21"/>
       <c r="C84" s="21"/>
@@ -1608,7 +1478,7 @@
       <c r="F84" s="21"/>
       <c r="H84" s="5"/>
     </row>
-    <row r="85" spans="1:8" ht="13">
+    <row r="85" spans="1:8" ht="12.75">
       <c r="A85" s="20"/>
       <c r="B85" s="21"/>
       <c r="C85" s="21"/>
@@ -1617,7 +1487,7 @@
       <c r="F85" s="21"/>
       <c r="H85" s="5"/>
     </row>
-    <row r="86" spans="1:8" ht="13">
+    <row r="86" spans="1:8" ht="12.75">
       <c r="A86" s="20"/>
       <c r="B86" s="21"/>
       <c r="C86" s="21"/>
@@ -1626,7 +1496,7 @@
       <c r="F86" s="21"/>
       <c r="H86" s="5"/>
     </row>
-    <row r="87" spans="1:8" ht="13">
+    <row r="87" spans="1:8" ht="12.75">
       <c r="A87" s="20"/>
       <c r="B87" s="21"/>
       <c r="C87" s="21"/>
@@ -1635,7 +1505,7 @@
       <c r="F87" s="21"/>
       <c r="H87" s="5"/>
     </row>
-    <row r="88" spans="1:8" ht="13">
+    <row r="88" spans="1:8" ht="12.75">
       <c r="A88" s="20"/>
       <c r="B88" s="21"/>
       <c r="C88" s="21"/>
@@ -1644,7 +1514,7 @@
       <c r="F88" s="21"/>
       <c r="H88" s="5"/>
     </row>
-    <row r="89" spans="1:8" ht="13">
+    <row r="89" spans="1:8" ht="12.75">
       <c r="A89" s="20"/>
       <c r="B89" s="21"/>
       <c r="C89" s="21"/>
@@ -1653,7 +1523,7 @@
       <c r="F89" s="21"/>
       <c r="H89" s="5"/>
     </row>
-    <row r="90" spans="1:8" ht="13">
+    <row r="90" spans="1:8" ht="12.75">
       <c r="A90" s="20"/>
       <c r="B90" s="21"/>
       <c r="C90" s="21"/>
@@ -1662,7 +1532,7 @@
       <c r="F90" s="21"/>
       <c r="H90" s="5"/>
     </row>
-    <row r="91" spans="1:8" ht="13">
+    <row r="91" spans="1:8" ht="12.75">
       <c r="A91" s="20"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
@@ -1671,7 +1541,7 @@
       <c r="F91" s="21"/>
       <c r="H91" s="5"/>
     </row>
-    <row r="92" spans="1:8" ht="13">
+    <row r="92" spans="1:8" ht="12.75">
       <c r="A92" s="20"/>
       <c r="B92" s="21"/>
       <c r="C92" s="21"/>
@@ -1680,7 +1550,7 @@
       <c r="F92" s="21"/>
       <c r="H92" s="5"/>
     </row>
-    <row r="93" spans="1:8" ht="13">
+    <row r="93" spans="1:8" ht="12.75">
       <c r="A93" s="20"/>
       <c r="B93" s="21"/>
       <c r="C93" s="21"/>
@@ -1689,7 +1559,7 @@
       <c r="F93" s="21"/>
       <c r="H93" s="5"/>
     </row>
-    <row r="94" spans="1:8" ht="13">
+    <row r="94" spans="1:8" ht="12.75">
       <c r="A94" s="20"/>
       <c r="B94" s="21"/>
       <c r="C94" s="21"/>
@@ -1698,7 +1568,7 @@
       <c r="F94" s="21"/>
       <c r="H94" s="5"/>
     </row>
-    <row r="95" spans="1:8" ht="13">
+    <row r="95" spans="1:8" ht="12.75">
       <c r="A95" s="20"/>
       <c r="B95" s="21"/>
       <c r="C95" s="21"/>
@@ -1707,7 +1577,7 @@
       <c r="F95" s="21"/>
       <c r="H95" s="5"/>
     </row>
-    <row r="96" spans="1:8" ht="13">
+    <row r="96" spans="1:8" ht="12.75">
       <c r="A96" s="20"/>
       <c r="B96" s="21"/>
       <c r="C96" s="21"/>
@@ -1716,7 +1586,7 @@
       <c r="F96" s="21"/>
       <c r="H96" s="5"/>
     </row>
-    <row r="97" spans="1:8" ht="13">
+    <row r="97" spans="1:8" ht="12.75">
       <c r="A97" s="20"/>
       <c r="B97" s="21"/>
       <c r="C97" s="21"/>
@@ -1725,7 +1595,7 @@
       <c r="F97" s="21"/>
       <c r="H97" s="5"/>
     </row>
-    <row r="98" spans="1:8" ht="13">
+    <row r="98" spans="1:8" ht="12.75">
       <c r="A98" s="20"/>
       <c r="B98" s="21"/>
       <c r="C98" s="21"/>
@@ -1734,7 +1604,7 @@
       <c r="F98" s="21"/>
       <c r="H98" s="5"/>
     </row>
-    <row r="99" spans="1:8" ht="13">
+    <row r="99" spans="1:8" ht="12.75">
       <c r="A99" s="20"/>
       <c r="B99" s="21"/>
       <c r="C99" s="21"/>
@@ -1743,7 +1613,7 @@
       <c r="F99" s="21"/>
       <c r="H99" s="5"/>
     </row>
-    <row r="100" spans="1:8" ht="13">
+    <row r="100" spans="1:8" ht="12.75">
       <c r="A100" s="20"/>
       <c r="B100" s="21"/>
       <c r="C100" s="21"/>
@@ -1752,7 +1622,7 @@
       <c r="F100" s="21"/>
       <c r="H100" s="5"/>
     </row>
-    <row r="101" spans="1:8" ht="13">
+    <row r="101" spans="1:8" ht="12.75">
       <c r="A101" s="20"/>
       <c r="B101" s="21"/>
       <c r="C101" s="21"/>
@@ -1761,7 +1631,7 @@
       <c r="F101" s="21"/>
       <c r="H101" s="5"/>
     </row>
-    <row r="102" spans="1:8" ht="13">
+    <row r="102" spans="1:8" ht="12.75">
       <c r="A102" s="20"/>
       <c r="B102" s="21"/>
       <c r="C102" s="21"/>
@@ -1770,7 +1640,7 @@
       <c r="F102" s="21"/>
       <c r="H102" s="5"/>
     </row>
-    <row r="103" spans="1:8" ht="13">
+    <row r="103" spans="1:8" ht="12.75">
       <c r="A103" s="20"/>
       <c r="B103" s="21"/>
       <c r="C103" s="21"/>
@@ -1779,7 +1649,7 @@
       <c r="F103" s="21"/>
       <c r="H103" s="5"/>
     </row>
-    <row r="104" spans="1:8" ht="13">
+    <row r="104" spans="1:8" ht="12.75">
       <c r="A104" s="20"/>
       <c r="B104" s="21"/>
       <c r="C104" s="21"/>
@@ -1788,7 +1658,7 @@
       <c r="F104" s="21"/>
       <c r="H104" s="5"/>
     </row>
-    <row r="105" spans="1:8" ht="13">
+    <row r="105" spans="1:8" ht="12.75">
       <c r="A105" s="20"/>
       <c r="B105" s="21"/>
       <c r="C105" s="21"/>
@@ -1797,7 +1667,7 @@
       <c r="F105" s="21"/>
       <c r="H105" s="5"/>
     </row>
-    <row r="106" spans="1:8" ht="13">
+    <row r="106" spans="1:8" ht="12.75">
       <c r="A106" s="20"/>
       <c r="B106" s="21"/>
       <c r="C106" s="21"/>
@@ -1806,7 +1676,7 @@
       <c r="F106" s="21"/>
       <c r="H106" s="5"/>
     </row>
-    <row r="107" spans="1:8" ht="13">
+    <row r="107" spans="1:8" ht="12.75">
       <c r="A107" s="20"/>
       <c r="B107" s="21"/>
       <c r="C107" s="21"/>
@@ -1815,7 +1685,7 @@
       <c r="F107" s="21"/>
       <c r="H107" s="5"/>
     </row>
-    <row r="108" spans="1:8" ht="13">
+    <row r="108" spans="1:8" ht="12.75">
       <c r="A108" s="20"/>
       <c r="B108" s="21"/>
       <c r="C108" s="21"/>
@@ -1824,7 +1694,7 @@
       <c r="F108" s="21"/>
       <c r="H108" s="5"/>
     </row>
-    <row r="109" spans="1:8" ht="13">
+    <row r="109" spans="1:8" ht="12.75">
       <c r="A109" s="20"/>
       <c r="B109" s="21"/>
       <c r="C109" s="21"/>
@@ -1833,7 +1703,7 @@
       <c r="F109" s="21"/>
       <c r="H109" s="5"/>
     </row>
-    <row r="110" spans="1:8" ht="13">
+    <row r="110" spans="1:8" ht="12.75">
       <c r="A110" s="20"/>
       <c r="B110" s="21"/>
       <c r="C110" s="21"/>
@@ -1842,7 +1712,7 @@
       <c r="F110" s="21"/>
       <c r="H110" s="5"/>
     </row>
-    <row r="111" spans="1:8" ht="13">
+    <row r="111" spans="1:8" ht="12.75">
       <c r="A111" s="20"/>
       <c r="B111" s="21"/>
       <c r="C111" s="21"/>
@@ -1851,7 +1721,7 @@
       <c r="F111" s="21"/>
       <c r="H111" s="5"/>
     </row>
-    <row r="112" spans="1:8" ht="13">
+    <row r="112" spans="1:8" ht="12.75">
       <c r="A112" s="20"/>
       <c r="B112" s="21"/>
       <c r="C112" s="21"/>
@@ -1860,7 +1730,7 @@
       <c r="F112" s="21"/>
       <c r="H112" s="5"/>
     </row>
-    <row r="113" spans="1:8" ht="13">
+    <row r="113" spans="1:8" ht="12.75">
       <c r="A113" s="20"/>
       <c r="B113" s="21"/>
       <c r="C113" s="21"/>
@@ -1869,7 +1739,7 @@
       <c r="F113" s="21"/>
       <c r="H113" s="5"/>
     </row>
-    <row r="114" spans="1:8" ht="13">
+    <row r="114" spans="1:8" ht="12.75">
       <c r="A114" s="20"/>
       <c r="B114" s="21"/>
       <c r="C114" s="21"/>
@@ -1878,7 +1748,7 @@
       <c r="F114" s="21"/>
       <c r="H114" s="5"/>
     </row>
-    <row r="115" spans="1:8" ht="13">
+    <row r="115" spans="1:8" ht="12.75">
       <c r="A115" s="20"/>
       <c r="B115" s="21"/>
       <c r="C115" s="21"/>
@@ -1887,7 +1757,7 @@
       <c r="F115" s="21"/>
       <c r="H115" s="5"/>
     </row>
-    <row r="116" spans="1:8" ht="13">
+    <row r="116" spans="1:8" ht="12.75">
       <c r="A116" s="20"/>
       <c r="B116" s="21"/>
       <c r="C116" s="21"/>
@@ -1896,7 +1766,7 @@
       <c r="F116" s="21"/>
       <c r="H116" s="5"/>
     </row>
-    <row r="117" spans="1:8" ht="13">
+    <row r="117" spans="1:8" ht="12.75">
       <c r="A117" s="20"/>
       <c r="B117" s="21"/>
       <c r="C117" s="21"/>
@@ -1905,7 +1775,7 @@
       <c r="F117" s="21"/>
       <c r="H117" s="5"/>
     </row>
-    <row r="118" spans="1:8" ht="13">
+    <row r="118" spans="1:8" ht="12.75">
       <c r="A118" s="20"/>
       <c r="B118" s="21"/>
       <c r="C118" s="21"/>
@@ -1914,7 +1784,7 @@
       <c r="F118" s="21"/>
       <c r="H118" s="5"/>
     </row>
-    <row r="119" spans="1:8" ht="13">
+    <row r="119" spans="1:8" ht="12.75">
       <c r="A119" s="20"/>
       <c r="B119" s="21"/>
       <c r="C119" s="21"/>
@@ -1923,7 +1793,7 @@
       <c r="F119" s="21"/>
       <c r="H119" s="5"/>
     </row>
-    <row r="120" spans="1:8" ht="13">
+    <row r="120" spans="1:8" ht="12.75">
       <c r="A120" s="20"/>
       <c r="B120" s="21"/>
       <c r="C120" s="21"/>
@@ -1932,7 +1802,7 @@
       <c r="F120" s="21"/>
       <c r="H120" s="5"/>
     </row>
-    <row r="121" spans="1:8" ht="13">
+    <row r="121" spans="1:8" ht="12.75">
       <c r="A121" s="20"/>
       <c r="B121" s="21"/>
       <c r="C121" s="21"/>
@@ -1941,7 +1811,7 @@
       <c r="F121" s="21"/>
       <c r="H121" s="5"/>
     </row>
-    <row r="122" spans="1:8" ht="13">
+    <row r="122" spans="1:8" ht="12.75">
       <c r="A122" s="20"/>
       <c r="B122" s="21"/>
       <c r="C122" s="21"/>
@@ -1950,7 +1820,7 @@
       <c r="F122" s="21"/>
       <c r="H122" s="5"/>
     </row>
-    <row r="123" spans="1:8" ht="13">
+    <row r="123" spans="1:8" ht="12.75">
       <c r="A123" s="20"/>
       <c r="B123" s="21"/>
       <c r="C123" s="21"/>
@@ -1959,7 +1829,7 @@
       <c r="F123" s="21"/>
       <c r="H123" s="5"/>
     </row>
-    <row r="124" spans="1:8" ht="13">
+    <row r="124" spans="1:8" ht="12.75">
       <c r="A124" s="20"/>
       <c r="B124" s="21"/>
       <c r="C124" s="21"/>
@@ -1968,7 +1838,7 @@
       <c r="F124" s="21"/>
       <c r="H124" s="5"/>
     </row>
-    <row r="125" spans="1:8" ht="13">
+    <row r="125" spans="1:8" ht="12.75">
       <c r="A125" s="20"/>
       <c r="B125" s="21"/>
       <c r="C125" s="21"/>
@@ -1977,7 +1847,7 @@
       <c r="F125" s="21"/>
       <c r="H125" s="5"/>
     </row>
-    <row r="126" spans="1:8" ht="13">
+    <row r="126" spans="1:8" ht="12.75">
       <c r="A126" s="20"/>
       <c r="B126" s="21"/>
       <c r="C126" s="21"/>
@@ -1986,7 +1856,7 @@
       <c r="F126" s="21"/>
       <c r="H126" s="5"/>
     </row>
-    <row r="127" spans="1:8" ht="13">
+    <row r="127" spans="1:8" ht="12.75">
       <c r="A127" s="20"/>
       <c r="B127" s="21"/>
       <c r="C127" s="21"/>
@@ -1995,7 +1865,7 @@
       <c r="F127" s="21"/>
       <c r="H127" s="5"/>
     </row>
-    <row r="128" spans="1:8" ht="13">
+    <row r="128" spans="1:8" ht="12.75">
       <c r="A128" s="20"/>
       <c r="B128" s="21"/>
       <c r="C128" s="21"/>
@@ -2004,7 +1874,7 @@
       <c r="F128" s="21"/>
       <c r="H128" s="5"/>
     </row>
-    <row r="129" spans="1:8" ht="13">
+    <row r="129" spans="1:8" ht="12.75">
       <c r="A129" s="20"/>
       <c r="B129" s="21"/>
       <c r="C129" s="21"/>
@@ -2013,7 +1883,7 @@
       <c r="F129" s="21"/>
       <c r="H129" s="5"/>
     </row>
-    <row r="130" spans="1:8" ht="13">
+    <row r="130" spans="1:8" ht="12.75">
       <c r="A130" s="20"/>
       <c r="B130" s="21"/>
       <c r="C130" s="21"/>
@@ -2022,7 +1892,7 @@
       <c r="F130" s="21"/>
       <c r="H130" s="5"/>
     </row>
-    <row r="131" spans="1:8" ht="13">
+    <row r="131" spans="1:8" ht="12.75">
       <c r="A131" s="20"/>
       <c r="B131" s="21"/>
       <c r="C131" s="21"/>
@@ -2031,7 +1901,7 @@
       <c r="F131" s="21"/>
       <c r="H131" s="5"/>
     </row>
-    <row r="132" spans="1:8" ht="13">
+    <row r="132" spans="1:8" ht="12.75">
       <c r="A132" s="20"/>
       <c r="B132" s="21"/>
       <c r="C132" s="21"/>
@@ -2040,7 +1910,7 @@
       <c r="F132" s="21"/>
       <c r="H132" s="5"/>
     </row>
-    <row r="133" spans="1:8" ht="13">
+    <row r="133" spans="1:8" ht="12.75">
       <c r="A133" s="20"/>
       <c r="B133" s="21"/>
       <c r="C133" s="21"/>
@@ -2049,7 +1919,7 @@
       <c r="F133" s="21"/>
       <c r="H133" s="5"/>
     </row>
-    <row r="134" spans="1:8" ht="13">
+    <row r="134" spans="1:8" ht="12.75">
       <c r="A134" s="20"/>
       <c r="B134" s="21"/>
       <c r="C134" s="21"/>
@@ -2058,7 +1928,7 @@
       <c r="F134" s="21"/>
       <c r="H134" s="5"/>
     </row>
-    <row r="135" spans="1:8" ht="13">
+    <row r="135" spans="1:8" ht="12.75">
       <c r="A135" s="20"/>
       <c r="B135" s="21"/>
       <c r="C135" s="21"/>
@@ -2067,7 +1937,7 @@
       <c r="F135" s="21"/>
       <c r="H135" s="5"/>
     </row>
-    <row r="136" spans="1:8" ht="13">
+    <row r="136" spans="1:8" ht="12.75">
       <c r="A136" s="20"/>
       <c r="B136" s="21"/>
       <c r="C136" s="21"/>
@@ -2076,7 +1946,7 @@
       <c r="F136" s="21"/>
       <c r="H136" s="5"/>
     </row>
-    <row r="137" spans="1:8" ht="13">
+    <row r="137" spans="1:8" ht="12.75">
       <c r="A137" s="20"/>
       <c r="B137" s="21"/>
       <c r="C137" s="21"/>
@@ -2085,7 +1955,7 @@
       <c r="F137" s="21"/>
       <c r="H137" s="5"/>
     </row>
-    <row r="138" spans="1:8" ht="13">
+    <row r="138" spans="1:8" ht="12.75">
       <c r="A138" s="20"/>
       <c r="B138" s="21"/>
       <c r="C138" s="21"/>
@@ -2094,7 +1964,7 @@
       <c r="F138" s="21"/>
       <c r="H138" s="5"/>
     </row>
-    <row r="139" spans="1:8" ht="13">
+    <row r="139" spans="1:8" ht="12.75">
       <c r="A139" s="20"/>
       <c r="B139" s="21"/>
       <c r="C139" s="21"/>
@@ -2103,7 +1973,7 @@
       <c r="F139" s="21"/>
       <c r="H139" s="5"/>
     </row>
-    <row r="140" spans="1:8" ht="13">
+    <row r="140" spans="1:8" ht="12.75">
       <c r="A140" s="20"/>
       <c r="B140" s="21"/>
       <c r="C140" s="21"/>
@@ -2112,7 +1982,7 @@
       <c r="F140" s="21"/>
       <c r="H140" s="5"/>
     </row>
-    <row r="141" spans="1:8" ht="13">
+    <row r="141" spans="1:8" ht="12.75">
       <c r="A141" s="20"/>
       <c r="B141" s="21"/>
       <c r="C141" s="21"/>
@@ -2121,7 +1991,7 @@
       <c r="F141" s="21"/>
       <c r="H141" s="5"/>
     </row>
-    <row r="142" spans="1:8" ht="13">
+    <row r="142" spans="1:8" ht="12.75">
       <c r="A142" s="20"/>
       <c r="B142" s="21"/>
       <c r="C142" s="21"/>
@@ -2130,7 +2000,7 @@
       <c r="F142" s="21"/>
       <c r="H142" s="5"/>
     </row>
-    <row r="143" spans="1:8" ht="13">
+    <row r="143" spans="1:8" ht="12.75">
       <c r="A143" s="20"/>
       <c r="B143" s="21"/>
       <c r="C143" s="21"/>
@@ -2139,7 +2009,7 @@
       <c r="F143" s="21"/>
       <c r="H143" s="5"/>
     </row>
-    <row r="144" spans="1:8" ht="13">
+    <row r="144" spans="1:8" ht="12.75">
       <c r="A144" s="20"/>
       <c r="B144" s="21"/>
       <c r="C144" s="21"/>
@@ -2148,7 +2018,7 @@
       <c r="F144" s="21"/>
       <c r="H144" s="5"/>
     </row>
-    <row r="145" spans="1:8" ht="13">
+    <row r="145" spans="1:8" ht="12.75">
       <c r="A145" s="20"/>
       <c r="B145" s="21"/>
       <c r="C145" s="21"/>
@@ -2157,7 +2027,7 @@
       <c r="F145" s="21"/>
       <c r="H145" s="5"/>
     </row>
-    <row r="146" spans="1:8" ht="13">
+    <row r="146" spans="1:8" ht="12.75">
       <c r="A146" s="20"/>
       <c r="B146" s="21"/>
       <c r="C146" s="21"/>
@@ -2166,7 +2036,7 @@
       <c r="F146" s="21"/>
       <c r="H146" s="5"/>
     </row>
-    <row r="147" spans="1:8" ht="13">
+    <row r="147" spans="1:8" ht="12.75">
       <c r="A147" s="20"/>
       <c r="B147" s="21"/>
       <c r="C147" s="21"/>
@@ -2175,7 +2045,7 @@
       <c r="F147" s="21"/>
       <c r="H147" s="5"/>
     </row>
-    <row r="148" spans="1:8" ht="13">
+    <row r="148" spans="1:8" ht="12.75">
       <c r="A148" s="20"/>
       <c r="B148" s="21"/>
       <c r="C148" s="21"/>
@@ -2184,7 +2054,7 @@
       <c r="F148" s="21"/>
       <c r="H148" s="5"/>
     </row>
-    <row r="149" spans="1:8" ht="13">
+    <row r="149" spans="1:8" ht="12.75">
       <c r="A149" s="20"/>
       <c r="B149" s="21"/>
       <c r="C149" s="21"/>
@@ -2193,7 +2063,7 @@
       <c r="F149" s="21"/>
       <c r="H149" s="5"/>
     </row>
-    <row r="150" spans="1:8" ht="13">
+    <row r="150" spans="1:8" ht="12.75">
       <c r="A150" s="20"/>
       <c r="B150" s="21"/>
       <c r="C150" s="21"/>
@@ -2202,7 +2072,7 @@
       <c r="F150" s="21"/>
       <c r="H150" s="5"/>
     </row>
-    <row r="151" spans="1:8" ht="13">
+    <row r="151" spans="1:8" ht="12.75">
       <c r="A151" s="20"/>
       <c r="B151" s="21"/>
       <c r="C151" s="21"/>
@@ -2211,7 +2081,7 @@
       <c r="F151" s="21"/>
       <c r="H151" s="5"/>
     </row>
-    <row r="152" spans="1:8" ht="13">
+    <row r="152" spans="1:8" ht="12.75">
       <c r="A152" s="20"/>
       <c r="B152" s="21"/>
       <c r="C152" s="21"/>
@@ -2220,7 +2090,7 @@
       <c r="F152" s="21"/>
       <c r="H152" s="5"/>
     </row>
-    <row r="153" spans="1:8" ht="13">
+    <row r="153" spans="1:8" ht="12.75">
       <c r="A153" s="20"/>
       <c r="B153" s="21"/>
       <c r="C153" s="21"/>
@@ -2229,7 +2099,7 @@
       <c r="F153" s="21"/>
       <c r="H153" s="5"/>
     </row>
-    <row r="154" spans="1:8" ht="13">
+    <row r="154" spans="1:8" ht="12.75">
       <c r="A154" s="20"/>
       <c r="B154" s="21"/>
       <c r="C154" s="21"/>
@@ -2238,7 +2108,7 @@
       <c r="F154" s="21"/>
       <c r="H154" s="5"/>
     </row>
-    <row r="155" spans="1:8" ht="13">
+    <row r="155" spans="1:8" ht="12.75">
       <c r="A155" s="20"/>
       <c r="B155" s="21"/>
       <c r="C155" s="21"/>
@@ -2247,7 +2117,7 @@
       <c r="F155" s="21"/>
       <c r="H155" s="5"/>
     </row>
-    <row r="156" spans="1:8" ht="13">
+    <row r="156" spans="1:8" ht="12.75">
       <c r="A156" s="20"/>
       <c r="B156" s="21"/>
       <c r="C156" s="21"/>
@@ -2256,7 +2126,7 @@
       <c r="F156" s="21"/>
       <c r="H156" s="5"/>
     </row>
-    <row r="157" spans="1:8" ht="13">
+    <row r="157" spans="1:8" ht="12.75">
       <c r="A157" s="20"/>
       <c r="B157" s="21"/>
       <c r="C157" s="21"/>
@@ -2265,7 +2135,7 @@
       <c r="F157" s="21"/>
       <c r="H157" s="5"/>
     </row>
-    <row r="158" spans="1:8" ht="13">
+    <row r="158" spans="1:8" ht="12.75">
       <c r="A158" s="20"/>
       <c r="B158" s="21"/>
       <c r="C158" s="21"/>
@@ -2274,7 +2144,7 @@
       <c r="F158" s="21"/>
       <c r="H158" s="5"/>
     </row>
-    <row r="159" spans="1:8" ht="13">
+    <row r="159" spans="1:8" ht="12.75">
       <c r="A159" s="20"/>
       <c r="B159" s="21"/>
       <c r="C159" s="21"/>
@@ -2283,7 +2153,7 @@
       <c r="F159" s="21"/>
       <c r="H159" s="5"/>
     </row>
-    <row r="160" spans="1:8" ht="13">
+    <row r="160" spans="1:8" ht="12.75">
       <c r="A160" s="20"/>
       <c r="B160" s="21"/>
       <c r="C160" s="21"/>
@@ -2292,7 +2162,7 @@
       <c r="F160" s="21"/>
       <c r="H160" s="5"/>
     </row>
-    <row r="161" spans="1:8" ht="13">
+    <row r="161" spans="1:8" ht="12.75">
       <c r="A161" s="20"/>
       <c r="B161" s="21"/>
       <c r="C161" s="21"/>
@@ -2301,7 +2171,7 @@
       <c r="F161" s="21"/>
       <c r="H161" s="5"/>
     </row>
-    <row r="162" spans="1:8" ht="13">
+    <row r="162" spans="1:8" ht="12.75">
       <c r="A162" s="20"/>
       <c r="B162" s="21"/>
       <c r="C162" s="21"/>
@@ -2310,7 +2180,7 @@
       <c r="F162" s="21"/>
       <c r="H162" s="5"/>
     </row>
-    <row r="163" spans="1:8" ht="13">
+    <row r="163" spans="1:8" ht="12.75">
       <c r="A163" s="20"/>
       <c r="B163" s="21"/>
       <c r="C163" s="21"/>
@@ -2319,7 +2189,7 @@
       <c r="F163" s="21"/>
       <c r="H163" s="5"/>
     </row>
-    <row r="164" spans="1:8" ht="13">
+    <row r="164" spans="1:8" ht="12.75">
       <c r="A164" s="20"/>
       <c r="B164" s="21"/>
       <c r="C164" s="21"/>
@@ -2328,7 +2198,7 @@
       <c r="F164" s="21"/>
       <c r="H164" s="5"/>
     </row>
-    <row r="165" spans="1:8" ht="13">
+    <row r="165" spans="1:8" ht="12.75">
       <c r="A165" s="20"/>
       <c r="B165" s="21"/>
       <c r="C165" s="21"/>
@@ -2337,7 +2207,7 @@
       <c r="F165" s="21"/>
       <c r="H165" s="5"/>
     </row>
-    <row r="166" spans="1:8" ht="13">
+    <row r="166" spans="1:8" ht="12.75">
       <c r="A166" s="20"/>
       <c r="B166" s="21"/>
       <c r="C166" s="21"/>
@@ -2346,7 +2216,7 @@
       <c r="F166" s="21"/>
       <c r="H166" s="5"/>
     </row>
-    <row r="167" spans="1:8" ht="13">
+    <row r="167" spans="1:8" ht="12.75">
       <c r="A167" s="20"/>
       <c r="B167" s="21"/>
       <c r="C167" s="21"/>
@@ -2355,7 +2225,7 @@
       <c r="F167" s="21"/>
       <c r="H167" s="5"/>
     </row>
-    <row r="168" spans="1:8" ht="13">
+    <row r="168" spans="1:8" ht="12.75">
       <c r="A168" s="20"/>
       <c r="B168" s="21"/>
       <c r="C168" s="21"/>
@@ -2364,7 +2234,7 @@
       <c r="F168" s="21"/>
       <c r="H168" s="5"/>
     </row>
-    <row r="169" spans="1:8" ht="13">
+    <row r="169" spans="1:8" ht="12.75">
       <c r="A169" s="20"/>
       <c r="B169" s="21"/>
       <c r="C169" s="21"/>
@@ -2373,7 +2243,7 @@
       <c r="F169" s="21"/>
       <c r="H169" s="5"/>
     </row>
-    <row r="170" spans="1:8" ht="13">
+    <row r="170" spans="1:8" ht="12.75">
       <c r="A170" s="20"/>
       <c r="B170" s="21"/>
       <c r="C170" s="21"/>
@@ -2382,7 +2252,7 @@
       <c r="F170" s="21"/>
       <c r="H170" s="5"/>
     </row>
-    <row r="171" spans="1:8" ht="13">
+    <row r="171" spans="1:8" ht="12.75">
       <c r="A171" s="20"/>
       <c r="B171" s="21"/>
       <c r="C171" s="21"/>
@@ -2391,7 +2261,7 @@
       <c r="F171" s="21"/>
       <c r="H171" s="5"/>
     </row>
-    <row r="172" spans="1:8" ht="13">
+    <row r="172" spans="1:8" ht="12.75">
       <c r="A172" s="20"/>
       <c r="B172" s="21"/>
       <c r="C172" s="21"/>
@@ -2400,7 +2270,7 @@
       <c r="F172" s="21"/>
       <c r="H172" s="5"/>
     </row>
-    <row r="173" spans="1:8" ht="13">
+    <row r="173" spans="1:8" ht="12.75">
       <c r="A173" s="20"/>
       <c r="B173" s="21"/>
       <c r="C173" s="21"/>
@@ -2409,7 +2279,7 @@
       <c r="F173" s="21"/>
       <c r="H173" s="5"/>
     </row>
-    <row r="174" spans="1:8" ht="13">
+    <row r="174" spans="1:8" ht="12.75">
       <c r="A174" s="20"/>
       <c r="B174" s="21"/>
       <c r="C174" s="21"/>
@@ -2418,7 +2288,7 @@
       <c r="F174" s="21"/>
       <c r="H174" s="5"/>
     </row>
-    <row r="175" spans="1:8" ht="13">
+    <row r="175" spans="1:8" ht="12.75">
       <c r="A175" s="20"/>
       <c r="B175" s="21"/>
       <c r="C175" s="21"/>
@@ -2427,7 +2297,7 @@
       <c r="F175" s="21"/>
       <c r="H175" s="5"/>
     </row>
-    <row r="176" spans="1:8" ht="13">
+    <row r="176" spans="1:8" ht="12.75">
       <c r="A176" s="20"/>
       <c r="B176" s="21"/>
       <c r="C176" s="21"/>
@@ -2436,7 +2306,7 @@
       <c r="F176" s="21"/>
       <c r="H176" s="5"/>
     </row>
-    <row r="177" spans="1:8" ht="13">
+    <row r="177" spans="1:8" ht="12.75">
       <c r="A177" s="20"/>
       <c r="B177" s="21"/>
       <c r="C177" s="21"/>
@@ -2445,7 +2315,7 @@
       <c r="F177" s="21"/>
       <c r="H177" s="5"/>
     </row>
-    <row r="178" spans="1:8" ht="13">
+    <row r="178" spans="1:8" ht="12.75">
       <c r="A178" s="20"/>
       <c r="B178" s="21"/>
       <c r="C178" s="21"/>
@@ -2454,7 +2324,7 @@
       <c r="F178" s="21"/>
       <c r="H178" s="5"/>
     </row>
-    <row r="179" spans="1:8" ht="13">
+    <row r="179" spans="1:8" ht="12.75">
       <c r="A179" s="20"/>
       <c r="B179" s="21"/>
       <c r="C179" s="21"/>
@@ -2463,7 +2333,7 @@
       <c r="F179" s="21"/>
       <c r="H179" s="5"/>
     </row>
-    <row r="180" spans="1:8" ht="13">
+    <row r="180" spans="1:8" ht="12.75">
       <c r="A180" s="20"/>
       <c r="B180" s="21"/>
       <c r="C180" s="21"/>
@@ -2472,7 +2342,7 @@
       <c r="F180" s="21"/>
       <c r="H180" s="5"/>
     </row>
-    <row r="181" spans="1:8" ht="13">
+    <row r="181" spans="1:8" ht="12.75">
       <c r="A181" s="20"/>
       <c r="B181" s="21"/>
       <c r="C181" s="21"/>
@@ -2481,7 +2351,7 @@
       <c r="F181" s="21"/>
       <c r="H181" s="5"/>
     </row>
-    <row r="182" spans="1:8" ht="13">
+    <row r="182" spans="1:8" ht="12.75">
       <c r="A182" s="20"/>
       <c r="B182" s="21"/>
       <c r="C182" s="21"/>
@@ -2490,7 +2360,7 @@
       <c r="F182" s="21"/>
       <c r="H182" s="5"/>
     </row>
-    <row r="183" spans="1:8" ht="13">
+    <row r="183" spans="1:8" ht="12.75">
       <c r="A183" s="20"/>
       <c r="B183" s="21"/>
       <c r="C183" s="21"/>
@@ -2499,7 +2369,7 @@
       <c r="F183" s="21"/>
       <c r="H183" s="5"/>
     </row>
-    <row r="184" spans="1:8" ht="13">
+    <row r="184" spans="1:8" ht="12.75">
       <c r="A184" s="20"/>
       <c r="B184" s="21"/>
       <c r="C184" s="21"/>
@@ -2508,7 +2378,7 @@
       <c r="F184" s="21"/>
       <c r="H184" s="5"/>
     </row>
-    <row r="185" spans="1:8" ht="13">
+    <row r="185" spans="1:8" ht="12.75">
       <c r="A185" s="20"/>
       <c r="B185" s="21"/>
       <c r="C185" s="21"/>
@@ -2517,7 +2387,7 @@
       <c r="F185" s="21"/>
       <c r="H185" s="5"/>
     </row>
-    <row r="186" spans="1:8" ht="13">
+    <row r="186" spans="1:8" ht="12.75">
       <c r="A186" s="20"/>
       <c r="B186" s="21"/>
       <c r="C186" s="21"/>
@@ -2526,7 +2396,7 @@
       <c r="F186" s="21"/>
       <c r="H186" s="5"/>
     </row>
-    <row r="187" spans="1:8" ht="13">
+    <row r="187" spans="1:8" ht="12.75">
       <c r="A187" s="20"/>
       <c r="B187" s="21"/>
       <c r="C187" s="21"/>
@@ -2535,7 +2405,7 @@
       <c r="F187" s="21"/>
       <c r="H187" s="5"/>
     </row>
-    <row r="188" spans="1:8" ht="13">
+    <row r="188" spans="1:8" ht="12.75">
       <c r="A188" s="20"/>
       <c r="B188" s="21"/>
       <c r="C188" s="21"/>
@@ -2544,7 +2414,7 @@
       <c r="F188" s="21"/>
       <c r="H188" s="5"/>
     </row>
-    <row r="189" spans="1:8" ht="13">
+    <row r="189" spans="1:8" ht="12.75">
       <c r="A189" s="20"/>
       <c r="B189" s="21"/>
       <c r="C189" s="21"/>
@@ -2553,7 +2423,7 @@
       <c r="F189" s="21"/>
       <c r="H189" s="5"/>
     </row>
-    <row r="190" spans="1:8" ht="13">
+    <row r="190" spans="1:8" ht="12.75">
       <c r="A190" s="20"/>
       <c r="B190" s="21"/>
       <c r="C190" s="21"/>
@@ -2562,7 +2432,7 @@
       <c r="F190" s="21"/>
       <c r="H190" s="5"/>
     </row>
-    <row r="191" spans="1:8" ht="13">
+    <row r="191" spans="1:8" ht="12.75">
       <c r="A191" s="20"/>
       <c r="B191" s="21"/>
       <c r="C191" s="21"/>
@@ -2571,7 +2441,7 @@
       <c r="F191" s="21"/>
       <c r="H191" s="5"/>
     </row>
-    <row r="192" spans="1:8" ht="13">
+    <row r="192" spans="1:8" ht="12.75">
       <c r="A192" s="20"/>
       <c r="B192" s="21"/>
       <c r="C192" s="21"/>
@@ -2580,7 +2450,7 @@
       <c r="F192" s="21"/>
       <c r="H192" s="5"/>
     </row>
-    <row r="193" spans="1:8" ht="13">
+    <row r="193" spans="1:8" ht="12.75">
       <c r="A193" s="20"/>
       <c r="B193" s="21"/>
       <c r="C193" s="21"/>
@@ -2589,7 +2459,7 @@
       <c r="F193" s="21"/>
       <c r="H193" s="5"/>
     </row>
-    <row r="194" spans="1:8" ht="13">
+    <row r="194" spans="1:8" ht="12.75">
       <c r="A194" s="20"/>
       <c r="B194" s="21"/>
       <c r="C194" s="21"/>
@@ -2598,7 +2468,7 @@
       <c r="F194" s="21"/>
       <c r="H194" s="5"/>
     </row>
-    <row r="195" spans="1:8" ht="13">
+    <row r="195" spans="1:8" ht="12.75">
       <c r="A195" s="20"/>
       <c r="B195" s="21"/>
       <c r="C195" s="21"/>
@@ -2607,7 +2477,7 @@
       <c r="F195" s="21"/>
       <c r="H195" s="5"/>
     </row>
-    <row r="196" spans="1:8" ht="13">
+    <row r="196" spans="1:8" ht="12.75">
       <c r="A196" s="20"/>
       <c r="B196" s="21"/>
       <c r="C196" s="21"/>
@@ -2616,7 +2486,7 @@
       <c r="F196" s="21"/>
       <c r="H196" s="5"/>
     </row>
-    <row r="197" spans="1:8" ht="13">
+    <row r="197" spans="1:8" ht="12.75">
       <c r="A197" s="20"/>
       <c r="B197" s="21"/>
       <c r="C197" s="21"/>
@@ -2625,7 +2495,7 @@
       <c r="F197" s="21"/>
       <c r="H197" s="5"/>
     </row>
-    <row r="198" spans="1:8" ht="13">
+    <row r="198" spans="1:8" ht="12.75">
       <c r="A198" s="20"/>
       <c r="B198" s="21"/>
       <c r="C198" s="21"/>
@@ -2634,7 +2504,7 @@
       <c r="F198" s="21"/>
       <c r="H198" s="5"/>
     </row>
-    <row r="199" spans="1:8" ht="13">
+    <row r="199" spans="1:8" ht="12.75">
       <c r="A199" s="20"/>
       <c r="B199" s="21"/>
       <c r="C199" s="21"/>
@@ -2643,7 +2513,7 @@
       <c r="F199" s="21"/>
       <c r="H199" s="5"/>
     </row>
-    <row r="200" spans="1:8" ht="13">
+    <row r="200" spans="1:8" ht="12.75">
       <c r="A200" s="20"/>
       <c r="B200" s="21"/>
       <c r="C200" s="21"/>
@@ -2652,7 +2522,7 @@
       <c r="F200" s="21"/>
       <c r="H200" s="5"/>
     </row>
-    <row r="201" spans="1:8" ht="13">
+    <row r="201" spans="1:8" ht="12.75">
       <c r="A201" s="20"/>
       <c r="B201" s="21"/>
       <c r="C201" s="21"/>
@@ -2661,7 +2531,7 @@
       <c r="F201" s="21"/>
       <c r="H201" s="5"/>
     </row>
-    <row r="202" spans="1:8" ht="13">
+    <row r="202" spans="1:8" ht="12.75">
       <c r="A202" s="20"/>
       <c r="B202" s="21"/>
       <c r="C202" s="21"/>
@@ -2670,7 +2540,7 @@
       <c r="F202" s="21"/>
       <c r="H202" s="5"/>
     </row>
-    <row r="203" spans="1:8" ht="13">
+    <row r="203" spans="1:8" ht="12.75">
       <c r="A203" s="20"/>
       <c r="B203" s="21"/>
       <c r="C203" s="21"/>
@@ -2679,7 +2549,7 @@
       <c r="F203" s="21"/>
       <c r="H203" s="5"/>
     </row>
-    <row r="204" spans="1:8" ht="13">
+    <row r="204" spans="1:8" ht="12.75">
       <c r="A204" s="20"/>
       <c r="B204" s="21"/>
       <c r="C204" s="21"/>
@@ -2688,7 +2558,7 @@
       <c r="F204" s="21"/>
       <c r="H204" s="5"/>
     </row>
-    <row r="205" spans="1:8" ht="13">
+    <row r="205" spans="1:8" ht="12.75">
       <c r="A205" s="20"/>
       <c r="B205" s="21"/>
       <c r="C205" s="21"/>
@@ -2697,7 +2567,7 @@
       <c r="F205" s="21"/>
       <c r="H205" s="5"/>
     </row>
-    <row r="206" spans="1:8" ht="13">
+    <row r="206" spans="1:8" ht="12.75">
       <c r="A206" s="20"/>
       <c r="B206" s="21"/>
       <c r="C206" s="21"/>
@@ -2706,7 +2576,7 @@
       <c r="F206" s="21"/>
       <c r="H206" s="5"/>
     </row>
-    <row r="207" spans="1:8" ht="13">
+    <row r="207" spans="1:8" ht="12.75">
       <c r="A207" s="20"/>
       <c r="B207" s="21"/>
       <c r="C207" s="21"/>
@@ -2715,7 +2585,7 @@
       <c r="F207" s="21"/>
       <c r="H207" s="5"/>
     </row>
-    <row r="208" spans="1:8" ht="13">
+    <row r="208" spans="1:8" ht="12.75">
       <c r="A208" s="20"/>
       <c r="B208" s="21"/>
       <c r="C208" s="21"/>
@@ -2724,7 +2594,7 @@
       <c r="F208" s="21"/>
       <c r="H208" s="5"/>
     </row>
-    <row r="209" spans="1:8" ht="13">
+    <row r="209" spans="1:8" ht="12.75">
       <c r="A209" s="20"/>
       <c r="B209" s="21"/>
       <c r="C209" s="21"/>
@@ -2733,7 +2603,7 @@
       <c r="F209" s="21"/>
       <c r="H209" s="5"/>
     </row>
-    <row r="210" spans="1:8" ht="13">
+    <row r="210" spans="1:8" ht="12.75">
       <c r="A210" s="20"/>
       <c r="B210" s="21"/>
       <c r="C210" s="21"/>
@@ -2742,7 +2612,7 @@
       <c r="F210" s="21"/>
       <c r="H210" s="5"/>
     </row>
-    <row r="211" spans="1:8" ht="13">
+    <row r="211" spans="1:8" ht="12.75">
       <c r="A211" s="20"/>
       <c r="B211" s="21"/>
       <c r="C211" s="21"/>
@@ -2751,7 +2621,7 @@
       <c r="F211" s="21"/>
       <c r="H211" s="5"/>
     </row>
-    <row r="212" spans="1:8" ht="13">
+    <row r="212" spans="1:8" ht="12.75">
       <c r="A212" s="20"/>
       <c r="B212" s="21"/>
       <c r="C212" s="21"/>
@@ -2760,7 +2630,7 @@
       <c r="F212" s="21"/>
       <c r="H212" s="5"/>
     </row>
-    <row r="213" spans="1:8" ht="13">
+    <row r="213" spans="1:8" ht="12.75">
       <c r="A213" s="20"/>
       <c r="B213" s="21"/>
       <c r="C213" s="21"/>
@@ -2769,7 +2639,7 @@
       <c r="F213" s="21"/>
       <c r="H213" s="5"/>
     </row>
-    <row r="214" spans="1:8" ht="13">
+    <row r="214" spans="1:8" ht="12.75">
       <c r="A214" s="20"/>
       <c r="B214" s="21"/>
       <c r="C214" s="21"/>
@@ -2778,7 +2648,7 @@
       <c r="F214" s="21"/>
       <c r="H214" s="5"/>
     </row>
-    <row r="215" spans="1:8" ht="13">
+    <row r="215" spans="1:8" ht="12.75">
       <c r="A215" s="20"/>
       <c r="B215" s="21"/>
       <c r="C215" s="21"/>
@@ -2787,7 +2657,7 @@
       <c r="F215" s="21"/>
       <c r="H215" s="5"/>
     </row>
-    <row r="216" spans="1:8" ht="13">
+    <row r="216" spans="1:8" ht="12.75">
       <c r="A216" s="20"/>
       <c r="B216" s="21"/>
       <c r="C216" s="21"/>
@@ -2796,7 +2666,7 @@
       <c r="F216" s="21"/>
       <c r="H216" s="5"/>
     </row>
-    <row r="217" spans="1:8" ht="13">
+    <row r="217" spans="1:8" ht="12.75">
       <c r="A217" s="20"/>
       <c r="B217" s="21"/>
       <c r="C217" s="21"/>
@@ -2805,7 +2675,7 @@
       <c r="F217" s="21"/>
       <c r="H217" s="5"/>
     </row>
-    <row r="218" spans="1:8" ht="13">
+    <row r="218" spans="1:8" ht="12.75">
       <c r="A218" s="20"/>
       <c r="B218" s="21"/>
       <c r="C218" s="21"/>
@@ -2814,7 +2684,7 @@
       <c r="F218" s="21"/>
       <c r="H218" s="5"/>
     </row>
-    <row r="219" spans="1:8" ht="13">
+    <row r="219" spans="1:8" ht="12.75">
       <c r="A219" s="20"/>
       <c r="B219" s="21"/>
       <c r="C219" s="21"/>
@@ -2823,7 +2693,7 @@
       <c r="F219" s="21"/>
       <c r="H219" s="5"/>
     </row>
-    <row r="220" spans="1:8" ht="13">
+    <row r="220" spans="1:8" ht="12.75">
       <c r="A220" s="20"/>
       <c r="B220" s="21"/>
       <c r="C220" s="21"/>
@@ -2832,7 +2702,7 @@
       <c r="F220" s="21"/>
       <c r="H220" s="5"/>
     </row>
-    <row r="221" spans="1:8" ht="13">
+    <row r="221" spans="1:8" ht="12.75">
       <c r="A221" s="20"/>
       <c r="B221" s="21"/>
       <c r="C221" s="21"/>
@@ -2841,7 +2711,7 @@
       <c r="F221" s="21"/>
       <c r="H221" s="5"/>
     </row>
-    <row r="222" spans="1:8" ht="13">
+    <row r="222" spans="1:8" ht="12.75">
       <c r="A222" s="20"/>
       <c r="B222" s="21"/>
       <c r="C222" s="21"/>
@@ -2850,7 +2720,7 @@
       <c r="F222" s="21"/>
       <c r="H222" s="5"/>
     </row>
-    <row r="223" spans="1:8" ht="13">
+    <row r="223" spans="1:8" ht="12.75">
       <c r="A223" s="20"/>
       <c r="B223" s="21"/>
       <c r="C223" s="21"/>
@@ -2859,7 +2729,7 @@
       <c r="F223" s="21"/>
       <c r="H223" s="5"/>
     </row>
-    <row r="224" spans="1:8" ht="13">
+    <row r="224" spans="1:8" ht="12.75">
       <c r="A224" s="20"/>
       <c r="B224" s="21"/>
       <c r="C224" s="21"/>
@@ -2868,7 +2738,7 @@
       <c r="F224" s="21"/>
       <c r="H224" s="5"/>
     </row>
-    <row r="225" spans="1:8" ht="13">
+    <row r="225" spans="1:8" ht="12.75">
       <c r="A225" s="20"/>
       <c r="B225" s="21"/>
       <c r="C225" s="21"/>
@@ -2877,7 +2747,7 @@
       <c r="F225" s="21"/>
       <c r="H225" s="5"/>
     </row>
-    <row r="226" spans="1:8" ht="13">
+    <row r="226" spans="1:8" ht="12.75">
       <c r="A226" s="20"/>
       <c r="B226" s="21"/>
       <c r="C226" s="21"/>
@@ -2886,7 +2756,7 @@
       <c r="F226" s="21"/>
       <c r="H226" s="5"/>
     </row>
-    <row r="227" spans="1:8" ht="13">
+    <row r="227" spans="1:8" ht="12.75">
       <c r="A227" s="20"/>
       <c r="B227" s="21"/>
       <c r="C227" s="21"/>
@@ -2895,7 +2765,7 @@
       <c r="F227" s="21"/>
       <c r="H227" s="5"/>
     </row>
-    <row r="228" spans="1:8" ht="13">
+    <row r="228" spans="1:8" ht="12.75">
       <c r="A228" s="20"/>
       <c r="B228" s="21"/>
       <c r="C228" s="21"/>
@@ -2904,7 +2774,7 @@
       <c r="F228" s="21"/>
       <c r="H228" s="5"/>
     </row>
-    <row r="229" spans="1:8" ht="13">
+    <row r="229" spans="1:8" ht="12.75">
       <c r="A229" s="20"/>
       <c r="B229" s="21"/>
       <c r="C229" s="21"/>
@@ -2913,7 +2783,7 @@
       <c r="F229" s="21"/>
       <c r="H229" s="5"/>
     </row>
-    <row r="230" spans="1:8" ht="13">
+    <row r="230" spans="1:8" ht="12.75">
       <c r="A230" s="20"/>
       <c r="B230" s="21"/>
       <c r="C230" s="21"/>
@@ -2922,7 +2792,7 @@
       <c r="F230" s="21"/>
       <c r="H230" s="5"/>
     </row>
-    <row r="231" spans="1:8" ht="13">
+    <row r="231" spans="1:8" ht="12.75">
       <c r="A231" s="20"/>
       <c r="B231" s="21"/>
       <c r="C231" s="21"/>
@@ -2931,7 +2801,7 @@
       <c r="F231" s="21"/>
       <c r="H231" s="5"/>
     </row>
-    <row r="232" spans="1:8" ht="13">
+    <row r="232" spans="1:8" ht="12.75">
       <c r="A232" s="20"/>
       <c r="B232" s="21"/>
       <c r="C232" s="21"/>
@@ -2940,7 +2810,7 @@
       <c r="F232" s="21"/>
       <c r="H232" s="5"/>
     </row>
-    <row r="233" spans="1:8" ht="13">
+    <row r="233" spans="1:8" ht="12.75">
       <c r="A233" s="20"/>
       <c r="B233" s="21"/>
       <c r="C233" s="21"/>
@@ -2949,7 +2819,7 @@
       <c r="F233" s="21"/>
       <c r="H233" s="5"/>
     </row>
-    <row r="234" spans="1:8" ht="13">
+    <row r="234" spans="1:8" ht="12.75">
       <c r="A234" s="20"/>
       <c r="B234" s="21"/>
       <c r="C234" s="21"/>
@@ -2958,7 +2828,7 @@
       <c r="F234" s="21"/>
       <c r="H234" s="5"/>
     </row>
-    <row r="235" spans="1:8" ht="13">
+    <row r="235" spans="1:8" ht="12.75">
       <c r="A235" s="20"/>
       <c r="B235" s="21"/>
       <c r="C235" s="21"/>
@@ -2967,7 +2837,7 @@
       <c r="F235" s="21"/>
       <c r="H235" s="5"/>
     </row>
-    <row r="236" spans="1:8" ht="13">
+    <row r="236" spans="1:8" ht="12.75">
       <c r="A236" s="20"/>
       <c r="B236" s="21"/>
       <c r="C236" s="21"/>
@@ -2976,7 +2846,7 @@
       <c r="F236" s="21"/>
       <c r="H236" s="5"/>
     </row>
-    <row r="237" spans="1:8" ht="13">
+    <row r="237" spans="1:8" ht="12.75">
       <c r="A237" s="20"/>
       <c r="B237" s="21"/>
       <c r="C237" s="21"/>
@@ -2985,7 +2855,7 @@
       <c r="F237" s="21"/>
       <c r="H237" s="5"/>
     </row>
-    <row r="238" spans="1:8" ht="13">
+    <row r="238" spans="1:8" ht="12.75">
       <c r="A238" s="20"/>
       <c r="B238" s="21"/>
       <c r="C238" s="21"/>
@@ -2994,7 +2864,7 @@
       <c r="F238" s="21"/>
       <c r="H238" s="5"/>
     </row>
-    <row r="239" spans="1:8" ht="13">
+    <row r="239" spans="1:8" ht="12.75">
       <c r="A239" s="20"/>
       <c r="B239" s="21"/>
       <c r="C239" s="21"/>
@@ -3003,7 +2873,7 @@
       <c r="F239" s="21"/>
       <c r="H239" s="5"/>
     </row>
-    <row r="240" spans="1:8" ht="13">
+    <row r="240" spans="1:8" ht="12.75">
       <c r="A240" s="20"/>
       <c r="B240" s="21"/>
       <c r="C240" s="21"/>
@@ -3012,7 +2882,7 @@
       <c r="F240" s="21"/>
       <c r="H240" s="5"/>
     </row>
-    <row r="241" spans="1:8" ht="13">
+    <row r="241" spans="1:8" ht="12.75">
       <c r="A241" s="20"/>
       <c r="B241" s="21"/>
       <c r="C241" s="21"/>
@@ -3021,7 +2891,7 @@
       <c r="F241" s="21"/>
       <c r="H241" s="5"/>
     </row>
-    <row r="242" spans="1:8" ht="13">
+    <row r="242" spans="1:8" ht="12.75">
       <c r="A242" s="20"/>
       <c r="B242" s="21"/>
       <c r="C242" s="21"/>
@@ -3030,7 +2900,7 @@
       <c r="F242" s="21"/>
       <c r="H242" s="5"/>
     </row>
-    <row r="243" spans="1:8" ht="13">
+    <row r="243" spans="1:8" ht="12.75">
       <c r="A243" s="20"/>
       <c r="B243" s="21"/>
       <c r="C243" s="21"/>
@@ -3039,7 +2909,7 @@
       <c r="F243" s="21"/>
       <c r="H243" s="5"/>
     </row>
-    <row r="244" spans="1:8" ht="13">
+    <row r="244" spans="1:8" ht="12.75">
       <c r="A244" s="20"/>
       <c r="B244" s="21"/>
       <c r="C244" s="21"/>
@@ -3048,7 +2918,7 @@
       <c r="F244" s="21"/>
       <c r="H244" s="5"/>
     </row>
-    <row r="245" spans="1:8" ht="13">
+    <row r="245" spans="1:8" ht="12.75">
       <c r="A245" s="20"/>
       <c r="B245" s="21"/>
       <c r="C245" s="21"/>
@@ -3057,7 +2927,7 @@
       <c r="F245" s="21"/>
       <c r="H245" s="5"/>
     </row>
-    <row r="246" spans="1:8" ht="13">
+    <row r="246" spans="1:8" ht="12.75">
       <c r="A246" s="20"/>
       <c r="B246" s="21"/>
       <c r="C246" s="21"/>
@@ -3066,7 +2936,7 @@
       <c r="F246" s="21"/>
       <c r="H246" s="5"/>
     </row>
-    <row r="247" spans="1:8" ht="13">
+    <row r="247" spans="1:8" ht="12.75">
       <c r="A247" s="20"/>
       <c r="B247" s="21"/>
       <c r="C247" s="21"/>
@@ -3075,7 +2945,7 @@
       <c r="F247" s="21"/>
       <c r="H247" s="5"/>
     </row>
-    <row r="248" spans="1:8" ht="13">
+    <row r="248" spans="1:8" ht="12.75">
       <c r="A248" s="20"/>
       <c r="B248" s="21"/>
       <c r="C248" s="21"/>
@@ -3084,7 +2954,7 @@
       <c r="F248" s="21"/>
       <c r="H248" s="5"/>
     </row>
-    <row r="249" spans="1:8" ht="13">
+    <row r="249" spans="1:8" ht="12.75">
       <c r="A249" s="20"/>
       <c r="B249" s="21"/>
       <c r="C249" s="21"/>
@@ -3093,7 +2963,7 @@
       <c r="F249" s="21"/>
       <c r="H249" s="5"/>
     </row>
-    <row r="250" spans="1:8" ht="13">
+    <row r="250" spans="1:8" ht="12.75">
       <c r="A250" s="20"/>
       <c r="B250" s="21"/>
       <c r="C250" s="21"/>
@@ -3102,7 +2972,7 @@
       <c r="F250" s="21"/>
       <c r="H250" s="5"/>
     </row>
-    <row r="251" spans="1:8" ht="13">
+    <row r="251" spans="1:8" ht="12.75">
       <c r="A251" s="20"/>
       <c r="B251" s="21"/>
       <c r="C251" s="21"/>
@@ -3111,7 +2981,7 @@
       <c r="F251" s="21"/>
       <c r="H251" s="5"/>
     </row>
-    <row r="252" spans="1:8" ht="13">
+    <row r="252" spans="1:8" ht="12.75">
       <c r="A252" s="20"/>
       <c r="B252" s="21"/>
       <c r="C252" s="21"/>
@@ -3120,7 +2990,7 @@
       <c r="F252" s="21"/>
       <c r="H252" s="5"/>
     </row>
-    <row r="253" spans="1:8" ht="13">
+    <row r="253" spans="1:8" ht="12.75">
       <c r="A253" s="20"/>
       <c r="B253" s="21"/>
       <c r="C253" s="21"/>
@@ -3129,7 +2999,7 @@
       <c r="F253" s="21"/>
       <c r="H253" s="5"/>
     </row>
-    <row r="254" spans="1:8" ht="13">
+    <row r="254" spans="1:8" ht="12.75">
       <c r="A254" s="20"/>
       <c r="B254" s="21"/>
       <c r="C254" s="21"/>
@@ -3138,7 +3008,7 @@
       <c r="F254" s="21"/>
       <c r="H254" s="5"/>
     </row>
-    <row r="255" spans="1:8" ht="13">
+    <row r="255" spans="1:8" ht="12.75">
       <c r="A255" s="20"/>
       <c r="B255" s="21"/>
       <c r="C255" s="21"/>
@@ -3147,7 +3017,7 @@
       <c r="F255" s="21"/>
       <c r="H255" s="5"/>
     </row>
-    <row r="256" spans="1:8" ht="13">
+    <row r="256" spans="1:8" ht="12.75">
       <c r="A256" s="20"/>
       <c r="B256" s="21"/>
       <c r="C256" s="21"/>
@@ -3156,7 +3026,7 @@
       <c r="F256" s="21"/>
       <c r="H256" s="5"/>
     </row>
-    <row r="257" spans="1:8" ht="13">
+    <row r="257" spans="1:8" ht="12.75">
       <c r="A257" s="20"/>
       <c r="B257" s="21"/>
       <c r="C257" s="21"/>
@@ -3165,7 +3035,7 @@
       <c r="F257" s="21"/>
       <c r="H257" s="5"/>
     </row>
-    <row r="258" spans="1:8" ht="13">
+    <row r="258" spans="1:8" ht="12.75">
       <c r="A258" s="20"/>
       <c r="B258" s="21"/>
       <c r="C258" s="21"/>
@@ -3174,7 +3044,7 @@
       <c r="F258" s="21"/>
       <c r="H258" s="5"/>
     </row>
-    <row r="259" spans="1:8" ht="13">
+    <row r="259" spans="1:8" ht="12.75">
       <c r="A259" s="20"/>
       <c r="B259" s="21"/>
       <c r="C259" s="21"/>
@@ -3183,7 +3053,7 @@
       <c r="F259" s="21"/>
       <c r="H259" s="5"/>
     </row>
-    <row r="260" spans="1:8" ht="13">
+    <row r="260" spans="1:8" ht="12.75">
       <c r="A260" s="20"/>
       <c r="B260" s="21"/>
       <c r="C260" s="21"/>
@@ -3192,7 +3062,7 @@
       <c r="F260" s="21"/>
       <c r="H260" s="5"/>
     </row>
-    <row r="261" spans="1:8" ht="13">
+    <row r="261" spans="1:8" ht="12.75">
       <c r="A261" s="20"/>
       <c r="B261" s="21"/>
       <c r="C261" s="21"/>
@@ -3201,7 +3071,7 @@
       <c r="F261" s="21"/>
       <c r="H261" s="5"/>
     </row>
-    <row r="262" spans="1:8" ht="13">
+    <row r="262" spans="1:8" ht="12.75">
       <c r="A262" s="20"/>
       <c r="B262" s="21"/>
       <c r="C262" s="21"/>
@@ -3210,7 +3080,7 @@
       <c r="F262" s="21"/>
       <c r="H262" s="5"/>
     </row>
-    <row r="263" spans="1:8" ht="13">
+    <row r="263" spans="1:8" ht="12.75">
       <c r="A263" s="20"/>
       <c r="B263" s="21"/>
       <c r="C263" s="21"/>
@@ -3219,7 +3089,7 @@
       <c r="F263" s="21"/>
       <c r="H263" s="5"/>
     </row>
-    <row r="264" spans="1:8" ht="13">
+    <row r="264" spans="1:8" ht="12.75">
       <c r="A264" s="20"/>
       <c r="B264" s="21"/>
       <c r="C264" s="21"/>
@@ -3228,7 +3098,7 @@
       <c r="F264" s="21"/>
       <c r="H264" s="5"/>
     </row>
-    <row r="265" spans="1:8" ht="13">
+    <row r="265" spans="1:8" ht="12.75">
       <c r="A265" s="20"/>
       <c r="B265" s="21"/>
       <c r="C265" s="21"/>
@@ -3237,7 +3107,7 @@
       <c r="F265" s="21"/>
       <c r="H265" s="5"/>
     </row>
-    <row r="266" spans="1:8" ht="13">
+    <row r="266" spans="1:8" ht="12.75">
       <c r="A266" s="20"/>
       <c r="B266" s="21"/>
       <c r="C266" s="21"/>
@@ -3246,7 +3116,7 @@
       <c r="F266" s="21"/>
       <c r="H266" s="5"/>
     </row>
-    <row r="267" spans="1:8" ht="13">
+    <row r="267" spans="1:8" ht="12.75">
       <c r="A267" s="20"/>
       <c r="B267" s="21"/>
       <c r="C267" s="21"/>
@@ -3255,7 +3125,7 @@
       <c r="F267" s="21"/>
       <c r="H267" s="5"/>
     </row>
-    <row r="268" spans="1:8" ht="13">
+    <row r="268" spans="1:8" ht="12.75">
       <c r="A268" s="20"/>
       <c r="B268" s="21"/>
       <c r="C268" s="21"/>
@@ -3264,7 +3134,7 @@
       <c r="F268" s="21"/>
       <c r="H268" s="5"/>
     </row>
-    <row r="269" spans="1:8" ht="13">
+    <row r="269" spans="1:8" ht="12.75">
       <c r="A269" s="20"/>
       <c r="B269" s="21"/>
       <c r="C269" s="21"/>
@@ -3273,7 +3143,7 @@
       <c r="F269" s="21"/>
       <c r="H269" s="5"/>
     </row>
-    <row r="270" spans="1:8" ht="13">
+    <row r="270" spans="1:8" ht="12.75">
       <c r="A270" s="20"/>
       <c r="B270" s="21"/>
       <c r="C270" s="21"/>
@@ -3282,7 +3152,7 @@
       <c r="F270" s="21"/>
       <c r="H270" s="5"/>
     </row>
-    <row r="271" spans="1:8" ht="13">
+    <row r="271" spans="1:8" ht="12.75">
       <c r="A271" s="20"/>
       <c r="B271" s="21"/>
       <c r="C271" s="21"/>
@@ -3291,7 +3161,7 @@
       <c r="F271" s="21"/>
       <c r="H271" s="5"/>
     </row>
-    <row r="272" spans="1:8" ht="13">
+    <row r="272" spans="1:8" ht="12.75">
       <c r="A272" s="20"/>
       <c r="B272" s="21"/>
       <c r="C272" s="21"/>
@@ -3300,7 +3170,7 @@
       <c r="F272" s="21"/>
       <c r="H272" s="5"/>
     </row>
-    <row r="273" spans="1:8" ht="13">
+    <row r="273" spans="1:8" ht="12.75">
       <c r="A273" s="20"/>
       <c r="B273" s="21"/>
       <c r="C273" s="21"/>
@@ -3309,7 +3179,7 @@
       <c r="F273" s="21"/>
       <c r="H273" s="5"/>
     </row>
-    <row r="274" spans="1:8" ht="13">
+    <row r="274" spans="1:8" ht="12.75">
       <c r="A274" s="20"/>
       <c r="B274" s="21"/>
       <c r="C274" s="21"/>
@@ -3318,7 +3188,7 @@
       <c r="F274" s="21"/>
       <c r="H274" s="5"/>
     </row>
-    <row r="275" spans="1:8" ht="13">
+    <row r="275" spans="1:8" ht="12.75">
       <c r="A275" s="20"/>
       <c r="B275" s="21"/>
       <c r="C275" s="21"/>
@@ -3327,7 +3197,7 @@
       <c r="F275" s="21"/>
       <c r="H275" s="5"/>
     </row>
-    <row r="276" spans="1:8" ht="13">
+    <row r="276" spans="1:8" ht="12.75">
       <c r="A276" s="20"/>
       <c r="B276" s="21"/>
       <c r="C276" s="21"/>
@@ -3336,7 +3206,7 @@
       <c r="F276" s="21"/>
       <c r="H276" s="5"/>
     </row>
-    <row r="277" spans="1:8" ht="13">
+    <row r="277" spans="1:8" ht="12.75">
       <c r="A277" s="20"/>
       <c r="B277" s="21"/>
       <c r="C277" s="21"/>
@@ -3345,7 +3215,7 @@
       <c r="F277" s="21"/>
       <c r="H277" s="5"/>
     </row>
-    <row r="278" spans="1:8" ht="13">
+    <row r="278" spans="1:8" ht="12.75">
       <c r="A278" s="20"/>
       <c r="B278" s="21"/>
       <c r="C278" s="21"/>
@@ -3354,7 +3224,7 @@
       <c r="F278" s="21"/>
       <c r="H278" s="5"/>
     </row>
-    <row r="279" spans="1:8" ht="13">
+    <row r="279" spans="1:8" ht="12.75">
       <c r="A279" s="20"/>
       <c r="B279" s="21"/>
       <c r="C279" s="21"/>
@@ -3363,7 +3233,7 @@
       <c r="F279" s="21"/>
       <c r="H279" s="5"/>
     </row>
-    <row r="280" spans="1:8" ht="13">
+    <row r="280" spans="1:8" ht="12.75">
       <c r="A280" s="20"/>
       <c r="B280" s="21"/>
       <c r="C280" s="21"/>
@@ -3372,7 +3242,7 @@
       <c r="F280" s="21"/>
       <c r="H280" s="5"/>
     </row>
-    <row r="281" spans="1:8" ht="13">
+    <row r="281" spans="1:8" ht="12.75">
       <c r="A281" s="20"/>
       <c r="B281" s="21"/>
       <c r="C281" s="21"/>
@@ -3381,7 +3251,7 @@
       <c r="F281" s="21"/>
       <c r="H281" s="5"/>
     </row>
-    <row r="282" spans="1:8" ht="13">
+    <row r="282" spans="1:8" ht="12.75">
       <c r="A282" s="20"/>
       <c r="B282" s="21"/>
       <c r="C282" s="21"/>
@@ -3390,7 +3260,7 @@
       <c r="F282" s="21"/>
       <c r="H282" s="5"/>
     </row>
-    <row r="283" spans="1:8" ht="13">
+    <row r="283" spans="1:8" ht="12.75">
       <c r="A283" s="20"/>
       <c r="B283" s="21"/>
       <c r="C283" s="21"/>
@@ -3399,7 +3269,7 @@
       <c r="F283" s="21"/>
       <c r="H283" s="5"/>
     </row>
-    <row r="284" spans="1:8" ht="13">
+    <row r="284" spans="1:8" ht="12.75">
       <c r="A284" s="20"/>
       <c r="B284" s="21"/>
       <c r="C284" s="21"/>
@@ -3408,7 +3278,7 @@
       <c r="F284" s="21"/>
       <c r="H284" s="5"/>
     </row>
-    <row r="285" spans="1:8" ht="13">
+    <row r="285" spans="1:8" ht="12.75">
       <c r="A285" s="20"/>
       <c r="B285" s="21"/>
       <c r="C285" s="21"/>
@@ -3417,7 +3287,7 @@
       <c r="F285" s="21"/>
       <c r="H285" s="5"/>
     </row>
-    <row r="286" spans="1:8" ht="13">
+    <row r="286" spans="1:8" ht="12.75">
       <c r="A286" s="20"/>
       <c r="B286" s="21"/>
       <c r="C286" s="21"/>
@@ -3426,7 +3296,7 @@
       <c r="F286" s="21"/>
       <c r="H286" s="5"/>
     </row>
-    <row r="287" spans="1:8" ht="13">
+    <row r="287" spans="1:8" ht="12.75">
       <c r="A287" s="20"/>
       <c r="B287" s="21"/>
       <c r="C287" s="21"/>
@@ -3435,7 +3305,7 @@
       <c r="F287" s="21"/>
       <c r="H287" s="5"/>
     </row>
-    <row r="288" spans="1:8" ht="13">
+    <row r="288" spans="1:8" ht="12.75">
       <c r="A288" s="20"/>
       <c r="B288" s="21"/>
       <c r="C288" s="21"/>
@@ -3444,7 +3314,7 @@
       <c r="F288" s="21"/>
       <c r="H288" s="5"/>
     </row>
-    <row r="289" spans="1:8" ht="13">
+    <row r="289" spans="1:8" ht="12.75">
       <c r="A289" s="20"/>
       <c r="B289" s="21"/>
       <c r="C289" s="21"/>
@@ -3453,7 +3323,7 @@
       <c r="F289" s="21"/>
       <c r="H289" s="5"/>
     </row>
-    <row r="290" spans="1:8" ht="13">
+    <row r="290" spans="1:8" ht="12.75">
       <c r="A290" s="20"/>
       <c r="B290" s="21"/>
       <c r="C290" s="21"/>
@@ -3462,7 +3332,7 @@
       <c r="F290" s="21"/>
       <c r="H290" s="5"/>
     </row>
-    <row r="291" spans="1:8" ht="13">
+    <row r="291" spans="1:8" ht="12.75">
       <c r="A291" s="20"/>
       <c r="B291" s="21"/>
       <c r="C291" s="21"/>
@@ -3471,7 +3341,7 @@
       <c r="F291" s="21"/>
       <c r="H291" s="5"/>
     </row>
-    <row r="292" spans="1:8" ht="13">
+    <row r="292" spans="1:8" ht="12.75">
       <c r="A292" s="20"/>
       <c r="B292" s="21"/>
       <c r="C292" s="21"/>
@@ -3480,7 +3350,7 @@
       <c r="F292" s="21"/>
       <c r="H292" s="5"/>
     </row>
-    <row r="293" spans="1:8" ht="13">
+    <row r="293" spans="1:8" ht="12.75">
       <c r="A293" s="20"/>
       <c r="B293" s="21"/>
       <c r="C293" s="21"/>
@@ -3489,7 +3359,7 @@
       <c r="F293" s="21"/>
       <c r="H293" s="5"/>
     </row>
-    <row r="294" spans="1:8" ht="13">
+    <row r="294" spans="1:8" ht="12.75">
       <c r="A294" s="20"/>
       <c r="B294" s="21"/>
       <c r="C294" s="21"/>
@@ -3498,7 +3368,7 @@
       <c r="F294" s="21"/>
       <c r="H294" s="5"/>
     </row>
-    <row r="295" spans="1:8" ht="13">
+    <row r="295" spans="1:8" ht="12.75">
       <c r="A295" s="20"/>
       <c r="B295" s="21"/>
       <c r="C295" s="21"/>
@@ -3507,7 +3377,7 @@
       <c r="F295" s="21"/>
       <c r="H295" s="5"/>
     </row>
-    <row r="296" spans="1:8" ht="13">
+    <row r="296" spans="1:8" ht="12.75">
       <c r="A296" s="20"/>
       <c r="B296" s="21"/>
       <c r="C296" s="21"/>
@@ -3516,7 +3386,7 @@
       <c r="F296" s="21"/>
       <c r="H296" s="5"/>
     </row>
-    <row r="297" spans="1:8" ht="13">
+    <row r="297" spans="1:8" ht="12.75">
       <c r="A297" s="20"/>
       <c r="B297" s="21"/>
       <c r="C297" s="21"/>
@@ -3525,7 +3395,7 @@
       <c r="F297" s="21"/>
       <c r="H297" s="5"/>
     </row>
-    <row r="298" spans="1:8" ht="13">
+    <row r="298" spans="1:8" ht="12.75">
       <c r="A298" s="20"/>
       <c r="B298" s="21"/>
       <c r="C298" s="21"/>
@@ -3534,7 +3404,7 @@
       <c r="F298" s="21"/>
       <c r="H298" s="5"/>
     </row>
-    <row r="299" spans="1:8" ht="13">
+    <row r="299" spans="1:8" ht="12.75">
       <c r="A299" s="20"/>
       <c r="B299" s="21"/>
       <c r="C299" s="21"/>
@@ -3543,7 +3413,7 @@
       <c r="F299" s="21"/>
       <c r="H299" s="5"/>
     </row>
-    <row r="300" spans="1:8" ht="13">
+    <row r="300" spans="1:8" ht="12.75">
       <c r="A300" s="20"/>
       <c r="B300" s="21"/>
       <c r="C300" s="21"/>
@@ -3552,7 +3422,7 @@
       <c r="F300" s="21"/>
       <c r="H300" s="5"/>
     </row>
-    <row r="301" spans="1:8" ht="13">
+    <row r="301" spans="1:8" ht="12.75">
       <c r="A301" s="20"/>
       <c r="B301" s="21"/>
       <c r="C301" s="21"/>
@@ -3561,7 +3431,7 @@
       <c r="F301" s="21"/>
       <c r="H301" s="5"/>
     </row>
-    <row r="302" spans="1:8" ht="13">
+    <row r="302" spans="1:8" ht="12.75">
       <c r="A302" s="20"/>
       <c r="B302" s="21"/>
       <c r="C302" s="21"/>
@@ -3570,7 +3440,7 @@
       <c r="F302" s="21"/>
       <c r="H302" s="5"/>
     </row>
-    <row r="303" spans="1:8" ht="13">
+    <row r="303" spans="1:8" ht="12.75">
       <c r="A303" s="20"/>
       <c r="B303" s="21"/>
       <c r="C303" s="21"/>
@@ -3579,7 +3449,7 @@
       <c r="F303" s="21"/>
       <c r="H303" s="5"/>
     </row>
-    <row r="304" spans="1:8" ht="13">
+    <row r="304" spans="1:8" ht="12.75">
       <c r="A304" s="20"/>
       <c r="B304" s="21"/>
       <c r="C304" s="21"/>
@@ -3588,7 +3458,7 @@
       <c r="F304" s="21"/>
       <c r="H304" s="5"/>
     </row>
-    <row r="305" spans="1:8" ht="13">
+    <row r="305" spans="1:8" ht="12.75">
       <c r="A305" s="20"/>
       <c r="B305" s="21"/>
       <c r="C305" s="21"/>
@@ -3597,7 +3467,7 @@
       <c r="F305" s="21"/>
       <c r="H305" s="5"/>
     </row>
-    <row r="306" spans="1:8" ht="13">
+    <row r="306" spans="1:8" ht="12.75">
       <c r="A306" s="20"/>
       <c r="B306" s="21"/>
       <c r="C306" s="21"/>
@@ -3606,7 +3476,7 @@
       <c r="F306" s="21"/>
       <c r="H306" s="5"/>
     </row>
-    <row r="307" spans="1:8" ht="13">
+    <row r="307" spans="1:8" ht="12.75">
       <c r="A307" s="20"/>
       <c r="B307" s="21"/>
       <c r="C307" s="21"/>
@@ -3615,7 +3485,7 @@
       <c r="F307" s="21"/>
       <c r="H307" s="5"/>
     </row>
-    <row r="308" spans="1:8" ht="13">
+    <row r="308" spans="1:8" ht="12.75">
       <c r="A308" s="20"/>
       <c r="B308" s="21"/>
       <c r="C308" s="21"/>
@@ -3624,7 +3494,7 @@
       <c r="F308" s="21"/>
       <c r="H308" s="5"/>
     </row>
-    <row r="309" spans="1:8" ht="13">
+    <row r="309" spans="1:8" ht="12.75">
       <c r="A309" s="20"/>
       <c r="B309" s="21"/>
       <c r="C309" s="21"/>
@@ -3633,7 +3503,7 @@
       <c r="F309" s="21"/>
       <c r="H309" s="5"/>
     </row>
-    <row r="310" spans="1:8" ht="13">
+    <row r="310" spans="1:8" ht="12.75">
       <c r="A310" s="20"/>
       <c r="B310" s="21"/>
       <c r="C310" s="21"/>
@@ -3642,7 +3512,7 @@
       <c r="F310" s="21"/>
       <c r="H310" s="5"/>
     </row>
-    <row r="311" spans="1:8" ht="13">
+    <row r="311" spans="1:8" ht="12.75">
       <c r="A311" s="20"/>
       <c r="B311" s="21"/>
       <c r="C311" s="21"/>
@@ -3651,7 +3521,7 @@
       <c r="F311" s="21"/>
       <c r="H311" s="5"/>
     </row>
-    <row r="312" spans="1:8" ht="13">
+    <row r="312" spans="1:8" ht="12.75">
       <c r="A312" s="20"/>
       <c r="B312" s="21"/>
       <c r="C312" s="21"/>
@@ -3660,7 +3530,7 @@
       <c r="F312" s="21"/>
       <c r="H312" s="5"/>
     </row>
-    <row r="313" spans="1:8" ht="13">
+    <row r="313" spans="1:8" ht="12.75">
       <c r="A313" s="20"/>
       <c r="B313" s="21"/>
       <c r="C313" s="21"/>
@@ -3669,7 +3539,7 @@
       <c r="F313" s="21"/>
       <c r="H313" s="5"/>
     </row>
-    <row r="314" spans="1:8" ht="13">
+    <row r="314" spans="1:8" ht="12.75">
       <c r="A314" s="20"/>
       <c r="B314" s="21"/>
       <c r="C314" s="21"/>
@@ -3678,7 +3548,7 @@
       <c r="F314" s="21"/>
       <c r="H314" s="5"/>
     </row>
-    <row r="315" spans="1:8" ht="13">
+    <row r="315" spans="1:8" ht="12.75">
       <c r="A315" s="20"/>
       <c r="B315" s="21"/>
       <c r="C315" s="21"/>
@@ -3687,7 +3557,7 @@
       <c r="F315" s="21"/>
       <c r="H315" s="5"/>
     </row>
-    <row r="316" spans="1:8" ht="13">
+    <row r="316" spans="1:8" ht="12.75">
       <c r="A316" s="20"/>
       <c r="B316" s="21"/>
       <c r="C316" s="21"/>
@@ -3696,7 +3566,7 @@
       <c r="F316" s="21"/>
       <c r="H316" s="5"/>
     </row>
-    <row r="317" spans="1:8" ht="13">
+    <row r="317" spans="1:8" ht="12.75">
       <c r="A317" s="20"/>
       <c r="B317" s="21"/>
       <c r="C317" s="21"/>
@@ -3705,7 +3575,7 @@
       <c r="F317" s="21"/>
       <c r="H317" s="5"/>
     </row>
-    <row r="318" spans="1:8" ht="13">
+    <row r="318" spans="1:8" ht="12.75">
       <c r="A318" s="20"/>
       <c r="B318" s="21"/>
       <c r="C318" s="21"/>
@@ -3714,7 +3584,7 @@
       <c r="F318" s="21"/>
       <c r="H318" s="5"/>
     </row>
-    <row r="319" spans="1:8" ht="13">
+    <row r="319" spans="1:8" ht="12.75">
       <c r="A319" s="20"/>
       <c r="B319" s="21"/>
       <c r="C319" s="21"/>
@@ -3723,7 +3593,7 @@
       <c r="F319" s="21"/>
       <c r="H319" s="5"/>
     </row>
-    <row r="320" spans="1:8" ht="13">
+    <row r="320" spans="1:8" ht="12.75">
       <c r="A320" s="20"/>
       <c r="B320" s="21"/>
       <c r="C320" s="21"/>
@@ -3732,7 +3602,7 @@
       <c r="F320" s="21"/>
       <c r="H320" s="5"/>
     </row>
-    <row r="321" spans="1:8" ht="13">
+    <row r="321" spans="1:8" ht="12.75">
       <c r="A321" s="20"/>
       <c r="B321" s="21"/>
       <c r="C321" s="21"/>
@@ -3741,7 +3611,7 @@
       <c r="F321" s="21"/>
       <c r="H321" s="5"/>
     </row>
-    <row r="322" spans="1:8" ht="13">
+    <row r="322" spans="1:8" ht="12.75">
       <c r="A322" s="20"/>
       <c r="B322" s="21"/>
       <c r="C322" s="21"/>
@@ -3750,7 +3620,7 @@
       <c r="F322" s="21"/>
       <c r="H322" s="5"/>
     </row>
-    <row r="323" spans="1:8" ht="13">
+    <row r="323" spans="1:8" ht="12.75">
       <c r="A323" s="20"/>
       <c r="B323" s="21"/>
       <c r="C323" s="21"/>
@@ -3759,7 +3629,7 @@
       <c r="F323" s="21"/>
       <c r="H323" s="5"/>
     </row>
-    <row r="324" spans="1:8" ht="13">
+    <row r="324" spans="1:8" ht="12.75">
       <c r="A324" s="20"/>
       <c r="B324" s="21"/>
       <c r="C324" s="21"/>
@@ -3768,7 +3638,7 @@
       <c r="F324" s="21"/>
       <c r="H324" s="5"/>
     </row>
-    <row r="325" spans="1:8" ht="13">
+    <row r="325" spans="1:8" ht="12.75">
       <c r="A325" s="20"/>
       <c r="B325" s="21"/>
       <c r="C325" s="21"/>
@@ -3777,7 +3647,7 @@
       <c r="F325" s="21"/>
       <c r="H325" s="5"/>
     </row>
-    <row r="326" spans="1:8" ht="13">
+    <row r="326" spans="1:8" ht="12.75">
       <c r="A326" s="20"/>
       <c r="B326" s="21"/>
       <c r="C326" s="21"/>
@@ -3786,7 +3656,7 @@
       <c r="F326" s="21"/>
       <c r="H326" s="5"/>
     </row>
-    <row r="327" spans="1:8" ht="13">
+    <row r="327" spans="1:8" ht="12.75">
       <c r="A327" s="20"/>
       <c r="B327" s="21"/>
       <c r="C327" s="21"/>
@@ -3795,7 +3665,7 @@
       <c r="F327" s="21"/>
       <c r="H327" s="5"/>
     </row>
-    <row r="328" spans="1:8" ht="13">
+    <row r="328" spans="1:8" ht="12.75">
       <c r="A328" s="20"/>
       <c r="B328" s="21"/>
       <c r="C328" s="21"/>
@@ -3804,7 +3674,7 @@
       <c r="F328" s="21"/>
       <c r="H328" s="5"/>
     </row>
-    <row r="329" spans="1:8" ht="13">
+    <row r="329" spans="1:8" ht="12.75">
       <c r="A329" s="20"/>
       <c r="B329" s="21"/>
       <c r="C329" s="21"/>
@@ -3813,7 +3683,7 @@
       <c r="F329" s="21"/>
       <c r="H329" s="5"/>
     </row>
-    <row r="330" spans="1:8" ht="13">
+    <row r="330" spans="1:8" ht="12.75">
       <c r="A330" s="20"/>
       <c r="B330" s="21"/>
       <c r="C330" s="21"/>
@@ -3822,7 +3692,7 @@
       <c r="F330" s="21"/>
       <c r="H330" s="5"/>
     </row>
-    <row r="331" spans="1:8" ht="13">
+    <row r="331" spans="1:8" ht="12.75">
       <c r="A331" s="20"/>
       <c r="B331" s="21"/>
       <c r="C331" s="21"/>
@@ -3831,7 +3701,7 @@
       <c r="F331" s="21"/>
       <c r="H331" s="5"/>
     </row>
-    <row r="332" spans="1:8" ht="13">
+    <row r="332" spans="1:8" ht="12.75">
       <c r="A332" s="20"/>
       <c r="B332" s="21"/>
       <c r="C332" s="21"/>
@@ -3840,7 +3710,7 @@
       <c r="F332" s="21"/>
       <c r="H332" s="5"/>
     </row>
-    <row r="333" spans="1:8" ht="13">
+    <row r="333" spans="1:8" ht="12.75">
       <c r="A333" s="20"/>
       <c r="B333" s="21"/>
       <c r="C333" s="21"/>
@@ -3849,7 +3719,7 @@
       <c r="F333" s="21"/>
       <c r="H333" s="5"/>
     </row>
-    <row r="334" spans="1:8" ht="13">
+    <row r="334" spans="1:8" ht="12.75">
       <c r="A334" s="20"/>
       <c r="B334" s="21"/>
       <c r="C334" s="21"/>
@@ -3858,7 +3728,7 @@
       <c r="F334" s="21"/>
       <c r="H334" s="5"/>
     </row>
-    <row r="335" spans="1:8" ht="13">
+    <row r="335" spans="1:8" ht="12.75">
       <c r="A335" s="20"/>
       <c r="B335" s="21"/>
       <c r="C335" s="21"/>
@@ -3867,7 +3737,7 @@
       <c r="F335" s="21"/>
       <c r="H335" s="5"/>
     </row>
-    <row r="336" spans="1:8" ht="13">
+    <row r="336" spans="1:8" ht="12.75">
       <c r="A336" s="20"/>
       <c r="B336" s="21"/>
       <c r="C336" s="21"/>
@@ -3876,7 +3746,7 @@
       <c r="F336" s="21"/>
       <c r="H336" s="5"/>
     </row>
-    <row r="337" spans="1:8" ht="13">
+    <row r="337" spans="1:8" ht="12.75">
       <c r="A337" s="20"/>
       <c r="B337" s="21"/>
       <c r="C337" s="21"/>
@@ -3885,7 +3755,7 @@
       <c r="F337" s="21"/>
       <c r="H337" s="5"/>
     </row>
-    <row r="338" spans="1:8" ht="13">
+    <row r="338" spans="1:8" ht="12.75">
       <c r="A338" s="20"/>
       <c r="B338" s="21"/>
       <c r="C338" s="21"/>
@@ -3894,7 +3764,7 @@
       <c r="F338" s="21"/>
       <c r="H338" s="5"/>
     </row>
-    <row r="339" spans="1:8" ht="13">
+    <row r="339" spans="1:8" ht="12.75">
       <c r="A339" s="20"/>
       <c r="B339" s="21"/>
       <c r="C339" s="21"/>
@@ -3903,7 +3773,7 @@
       <c r="F339" s="21"/>
       <c r="H339" s="5"/>
     </row>
-    <row r="340" spans="1:8" ht="13">
+    <row r="340" spans="1:8" ht="12.75">
       <c r="A340" s="20"/>
       <c r="B340" s="21"/>
       <c r="C340" s="21"/>
@@ -3912,7 +3782,7 @@
       <c r="F340" s="21"/>
       <c r="H340" s="5"/>
     </row>
-    <row r="341" spans="1:8" ht="13">
+    <row r="341" spans="1:8" ht="12.75">
       <c r="A341" s="20"/>
       <c r="B341" s="21"/>
       <c r="C341" s="21"/>
@@ -3921,7 +3791,7 @@
       <c r="F341" s="21"/>
       <c r="H341" s="5"/>
     </row>
-    <row r="342" spans="1:8" ht="13">
+    <row r="342" spans="1:8" ht="12.75">
       <c r="A342" s="20"/>
       <c r="B342" s="21"/>
       <c r="C342" s="21"/>
@@ -3930,7 +3800,7 @@
       <c r="F342" s="21"/>
       <c r="H342" s="5"/>
     </row>
-    <row r="343" spans="1:8" ht="13">
+    <row r="343" spans="1:8" ht="12.75">
       <c r="A343" s="20"/>
       <c r="B343" s="21"/>
       <c r="C343" s="21"/>
@@ -3939,7 +3809,7 @@
       <c r="F343" s="21"/>
       <c r="H343" s="5"/>
     </row>
-    <row r="344" spans="1:8" ht="13">
+    <row r="344" spans="1:8" ht="12.75">
       <c r="A344" s="20"/>
       <c r="B344" s="21"/>
       <c r="C344" s="21"/>
@@ -3948,7 +3818,7 @@
       <c r="F344" s="21"/>
       <c r="H344" s="5"/>
     </row>
-    <row r="345" spans="1:8" ht="13">
+    <row r="345" spans="1:8" ht="12.75">
       <c r="A345" s="20"/>
       <c r="B345" s="21"/>
       <c r="C345" s="21"/>
@@ -3957,7 +3827,7 @@
       <c r="F345" s="21"/>
       <c r="H345" s="5"/>
     </row>
-    <row r="346" spans="1:8" ht="13">
+    <row r="346" spans="1:8" ht="12.75">
       <c r="A346" s="20"/>
       <c r="B346" s="21"/>
       <c r="C346" s="21"/>
@@ -3966,7 +3836,7 @@
       <c r="F346" s="21"/>
       <c r="H346" s="5"/>
     </row>
-    <row r="347" spans="1:8" ht="13">
+    <row r="347" spans="1:8" ht="12.75">
       <c r="A347" s="20"/>
       <c r="B347" s="21"/>
       <c r="C347" s="21"/>
@@ -3975,7 +3845,7 @@
       <c r="F347" s="21"/>
       <c r="H347" s="5"/>
     </row>
-    <row r="348" spans="1:8" ht="13">
+    <row r="348" spans="1:8" ht="12.75">
       <c r="A348" s="20"/>
       <c r="B348" s="21"/>
       <c r="C348" s="21"/>
@@ -3984,7 +3854,7 @@
       <c r="F348" s="21"/>
       <c r="H348" s="5"/>
     </row>
-    <row r="349" spans="1:8" ht="13">
+    <row r="349" spans="1:8" ht="12.75">
       <c r="A349" s="20"/>
       <c r="B349" s="21"/>
       <c r="C349" s="21"/>
@@ -3993,7 +3863,7 @@
       <c r="F349" s="21"/>
       <c r="H349" s="5"/>
     </row>
-    <row r="350" spans="1:8" ht="13">
+    <row r="350" spans="1:8" ht="12.75">
       <c r="A350" s="20"/>
       <c r="B350" s="21"/>
       <c r="C350" s="21"/>
@@ -4002,7 +3872,7 @@
       <c r="F350" s="21"/>
       <c r="H350" s="5"/>
     </row>
-    <row r="351" spans="1:8" ht="13">
+    <row r="351" spans="1:8" ht="12.75">
       <c r="A351" s="20"/>
       <c r="B351" s="21"/>
       <c r="C351" s="21"/>
@@ -4011,7 +3881,7 @@
       <c r="F351" s="21"/>
       <c r="H351" s="5"/>
     </row>
-    <row r="352" spans="1:8" ht="13">
+    <row r="352" spans="1:8" ht="12.75">
       <c r="A352" s="20"/>
       <c r="B352" s="21"/>
       <c r="C352" s="21"/>
@@ -4020,7 +3890,7 @@
       <c r="F352" s="21"/>
       <c r="H352" s="5"/>
     </row>
-    <row r="353" spans="1:8" ht="13">
+    <row r="353" spans="1:8" ht="12.75">
       <c r="A353" s="20"/>
       <c r="B353" s="21"/>
       <c r="C353" s="21"/>
@@ -4029,7 +3899,7 @@
       <c r="F353" s="21"/>
       <c r="H353" s="5"/>
     </row>
-    <row r="354" spans="1:8" ht="13">
+    <row r="354" spans="1:8" ht="12.75">
       <c r="A354" s="20"/>
       <c r="B354" s="21"/>
       <c r="C354" s="21"/>
@@ -4038,7 +3908,7 @@
       <c r="F354" s="21"/>
       <c r="H354" s="5"/>
     </row>
-    <row r="355" spans="1:8" ht="13">
+    <row r="355" spans="1:8" ht="12.75">
       <c r="A355" s="20"/>
       <c r="B355" s="21"/>
       <c r="C355" s="21"/>
@@ -4047,7 +3917,7 @@
       <c r="F355" s="21"/>
       <c r="H355" s="5"/>
     </row>
-    <row r="356" spans="1:8" ht="13">
+    <row r="356" spans="1:8" ht="12.75">
       <c r="A356" s="20"/>
       <c r="B356" s="21"/>
       <c r="C356" s="21"/>
@@ -4056,7 +3926,7 @@
       <c r="F356" s="21"/>
       <c r="H356" s="5"/>
     </row>
-    <row r="357" spans="1:8" ht="13">
+    <row r="357" spans="1:8" ht="12.75">
       <c r="A357" s="20"/>
       <c r="B357" s="21"/>
       <c r="C357" s="21"/>
@@ -4065,7 +3935,7 @@
       <c r="F357" s="21"/>
       <c r="H357" s="5"/>
     </row>
-    <row r="358" spans="1:8" ht="13">
+    <row r="358" spans="1:8" ht="12.75">
       <c r="A358" s="20"/>
       <c r="B358" s="21"/>
       <c r="C358" s="21"/>
@@ -4074,7 +3944,7 @@
       <c r="F358" s="21"/>
       <c r="H358" s="5"/>
     </row>
-    <row r="359" spans="1:8" ht="13">
+    <row r="359" spans="1:8" ht="12.75">
       <c r="A359" s="20"/>
       <c r="B359" s="21"/>
       <c r="C359" s="21"/>
@@ -4083,7 +3953,7 @@
       <c r="F359" s="21"/>
       <c r="H359" s="5"/>
     </row>
-    <row r="360" spans="1:8" ht="13">
+    <row r="360" spans="1:8" ht="12.75">
       <c r="A360" s="20"/>
       <c r="B360" s="21"/>
       <c r="C360" s="21"/>
@@ -4092,7 +3962,7 @@
       <c r="F360" s="21"/>
       <c r="H360" s="5"/>
     </row>
-    <row r="361" spans="1:8" ht="13">
+    <row r="361" spans="1:8" ht="12.75">
       <c r="A361" s="20"/>
       <c r="B361" s="21"/>
       <c r="C361" s="21"/>
@@ -4101,7 +3971,7 @@
       <c r="F361" s="21"/>
       <c r="H361" s="5"/>
     </row>
-    <row r="362" spans="1:8" ht="13">
+    <row r="362" spans="1:8" ht="12.75">
       <c r="A362" s="20"/>
       <c r="B362" s="21"/>
       <c r="C362" s="21"/>
@@ -4110,7 +3980,7 @@
       <c r="F362" s="21"/>
       <c r="H362" s="5"/>
     </row>
-    <row r="363" spans="1:8" ht="13">
+    <row r="363" spans="1:8" ht="12.75">
       <c r="A363" s="20"/>
       <c r="B363" s="21"/>
       <c r="C363" s="21"/>
@@ -4119,7 +3989,7 @@
       <c r="F363" s="21"/>
       <c r="H363" s="5"/>
     </row>
-    <row r="364" spans="1:8" ht="13">
+    <row r="364" spans="1:8" ht="12.75">
       <c r="A364" s="20"/>
       <c r="B364" s="21"/>
       <c r="C364" s="21"/>
@@ -4128,7 +3998,7 @@
       <c r="F364" s="21"/>
       <c r="H364" s="5"/>
     </row>
-    <row r="365" spans="1:8" ht="13">
+    <row r="365" spans="1:8" ht="12.75">
       <c r="A365" s="20"/>
       <c r="B365" s="21"/>
       <c r="C365" s="21"/>
@@ -4137,7 +4007,7 @@
       <c r="F365" s="21"/>
       <c r="H365" s="5"/>
     </row>
-    <row r="366" spans="1:8" ht="13">
+    <row r="366" spans="1:8" ht="12.75">
       <c r="A366" s="20"/>
       <c r="B366" s="21"/>
       <c r="C366" s="21"/>
@@ -4146,7 +4016,7 @@
       <c r="F366" s="21"/>
       <c r="H366" s="5"/>
     </row>
-    <row r="367" spans="1:8" ht="13">
+    <row r="367" spans="1:8" ht="12.75">
       <c r="A367" s="20"/>
       <c r="B367" s="21"/>
       <c r="C367" s="21"/>
@@ -4155,7 +4025,7 @@
       <c r="F367" s="21"/>
       <c r="H367" s="5"/>
     </row>
-    <row r="368" spans="1:8" ht="13">
+    <row r="368" spans="1:8" ht="12.75">
       <c r="A368" s="20"/>
       <c r="B368" s="21"/>
       <c r="C368" s="21"/>
@@ -4164,7 +4034,7 @@
       <c r="F368" s="21"/>
       <c r="H368" s="5"/>
     </row>
-    <row r="369" spans="1:8" ht="13">
+    <row r="369" spans="1:8" ht="12.75">
       <c r="A369" s="20"/>
       <c r="B369" s="21"/>
       <c r="C369" s="21"/>
@@ -4173,7 +4043,7 @@
       <c r="F369" s="21"/>
       <c r="H369" s="5"/>
     </row>
-    <row r="370" spans="1:8" ht="13">
+    <row r="370" spans="1:8" ht="12.75">
       <c r="A370" s="20"/>
       <c r="B370" s="21"/>
       <c r="C370" s="21"/>
@@ -4182,7 +4052,7 @@
       <c r="F370" s="21"/>
       <c r="H370" s="5"/>
     </row>
-    <row r="371" spans="1:8" ht="13">
+    <row r="371" spans="1:8" ht="12.75">
       <c r="A371" s="20"/>
       <c r="B371" s="21"/>
       <c r="C371" s="21"/>
@@ -4191,7 +4061,7 @@
       <c r="F371" s="21"/>
       <c r="H371" s="5"/>
     </row>
-    <row r="372" spans="1:8" ht="13">
+    <row r="372" spans="1:8" ht="12.75">
       <c r="A372" s="20"/>
       <c r="B372" s="21"/>
       <c r="C372" s="21"/>
@@ -4200,7 +4070,7 @@
       <c r="F372" s="21"/>
       <c r="H372" s="5"/>
     </row>
-    <row r="373" spans="1:8" ht="13">
+    <row r="373" spans="1:8" ht="12.75">
       <c r="A373" s="20"/>
       <c r="B373" s="21"/>
       <c r="C373" s="21"/>
@@ -4209,7 +4079,7 @@
       <c r="F373" s="21"/>
       <c r="H373" s="5"/>
     </row>
-    <row r="374" spans="1:8" ht="13">
+    <row r="374" spans="1:8" ht="12.75">
       <c r="A374" s="20"/>
       <c r="B374" s="21"/>
       <c r="C374" s="21"/>
@@ -4218,7 +4088,7 @@
       <c r="F374" s="21"/>
       <c r="H374" s="5"/>
     </row>
-    <row r="375" spans="1:8" ht="13">
+    <row r="375" spans="1:8" ht="12.75">
       <c r="A375" s="20"/>
       <c r="B375" s="21"/>
       <c r="C375" s="21"/>
@@ -4227,7 +4097,7 @@
       <c r="F375" s="21"/>
       <c r="H375" s="5"/>
     </row>
-    <row r="376" spans="1:8" ht="13">
+    <row r="376" spans="1:8" ht="12.75">
       <c r="A376" s="20"/>
       <c r="B376" s="21"/>
       <c r="C376" s="21"/>
@@ -4236,7 +4106,7 @@
       <c r="F376" s="21"/>
       <c r="H376" s="5"/>
     </row>
-    <row r="377" spans="1:8" ht="13">
+    <row r="377" spans="1:8" ht="12.75">
       <c r="A377" s="20"/>
       <c r="B377" s="21"/>
       <c r="C377" s="21"/>
@@ -4245,7 +4115,7 @@
       <c r="F377" s="21"/>
       <c r="H377" s="5"/>
     </row>
-    <row r="378" spans="1:8" ht="13">
+    <row r="378" spans="1:8" ht="12.75">
       <c r="A378" s="20"/>
       <c r="B378" s="21"/>
       <c r="C378" s="21"/>
@@ -4254,7 +4124,7 @@
       <c r="F378" s="21"/>
       <c r="H378" s="5"/>
     </row>
-    <row r="379" spans="1:8" ht="13">
+    <row r="379" spans="1:8" ht="12.75">
       <c r="A379" s="20"/>
       <c r="B379" s="21"/>
       <c r="C379" s="21"/>
@@ -4263,7 +4133,7 @@
       <c r="F379" s="21"/>
       <c r="H379" s="5"/>
     </row>
-    <row r="380" spans="1:8" ht="13">
+    <row r="380" spans="1:8" ht="12.75">
       <c r="A380" s="20"/>
       <c r="B380" s="21"/>
       <c r="C380" s="21"/>
@@ -4272,7 +4142,7 @@
       <c r="F380" s="21"/>
       <c r="H380" s="5"/>
     </row>
-    <row r="381" spans="1:8" ht="13">
+    <row r="381" spans="1:8" ht="12.75">
       <c r="A381" s="20"/>
       <c r="B381" s="21"/>
       <c r="C381" s="21"/>
@@ -4281,7 +4151,7 @@
       <c r="F381" s="21"/>
       <c r="H381" s="5"/>
     </row>
-    <row r="382" spans="1:8" ht="13">
+    <row r="382" spans="1:8" ht="12.75">
       <c r="A382" s="20"/>
       <c r="B382" s="21"/>
       <c r="C382" s="21"/>
@@ -4290,7 +4160,7 @@
       <c r="F382" s="21"/>
       <c r="H382" s="5"/>
     </row>
-    <row r="383" spans="1:8" ht="13">
+    <row r="383" spans="1:8" ht="12.75">
       <c r="A383" s="20"/>
       <c r="B383" s="21"/>
       <c r="C383" s="21"/>
@@ -4299,7 +4169,7 @@
       <c r="F383" s="21"/>
       <c r="H383" s="5"/>
     </row>
-    <row r="384" spans="1:8" ht="13">
+    <row r="384" spans="1:8" ht="12.75">
       <c r="A384" s="20"/>
       <c r="B384" s="21"/>
       <c r="C384" s="21"/>
@@ -4308,7 +4178,7 @@
       <c r="F384" s="21"/>
       <c r="H384" s="5"/>
     </row>
-    <row r="385" spans="1:8" ht="13">
+    <row r="385" spans="1:8" ht="12.75">
       <c r="A385" s="20"/>
       <c r="B385" s="21"/>
       <c r="C385" s="21"/>
@@ -4317,7 +4187,7 @@
       <c r="F385" s="21"/>
       <c r="H385" s="5"/>
     </row>
-    <row r="386" spans="1:8" ht="13">
+    <row r="386" spans="1:8" ht="12.75">
       <c r="A386" s="20"/>
       <c r="B386" s="21"/>
       <c r="C386" s="21"/>
@@ -4326,7 +4196,7 @@
       <c r="F386" s="21"/>
       <c r="H386" s="5"/>
     </row>
-    <row r="387" spans="1:8" ht="13">
+    <row r="387" spans="1:8" ht="12.75">
       <c r="A387" s="20"/>
       <c r="B387" s="21"/>
       <c r="C387" s="21"/>
@@ -4335,7 +4205,7 @@
       <c r="F387" s="21"/>
       <c r="H387" s="5"/>
     </row>
-    <row r="388" spans="1:8" ht="13">
+    <row r="388" spans="1:8" ht="12.75">
       <c r="A388" s="20"/>
       <c r="B388" s="21"/>
       <c r="C388" s="21"/>
@@ -4344,7 +4214,7 @@
       <c r="F388" s="21"/>
       <c r="H388" s="5"/>
     </row>
-    <row r="389" spans="1:8" ht="13">
+    <row r="389" spans="1:8" ht="12.75">
       <c r="A389" s="20"/>
       <c r="B389" s="21"/>
       <c r="C389" s="21"/>
@@ -4353,7 +4223,7 @@
       <c r="F389" s="21"/>
       <c r="H389" s="5"/>
     </row>
-    <row r="390" spans="1:8" ht="13">
+    <row r="390" spans="1:8" ht="12.75">
       <c r="A390" s="20"/>
       <c r="B390" s="21"/>
       <c r="C390" s="21"/>
@@ -4362,7 +4232,7 @@
       <c r="F390" s="21"/>
       <c r="H390" s="5"/>
     </row>
-    <row r="391" spans="1:8" ht="13">
+    <row r="391" spans="1:8" ht="12.75">
       <c r="A391" s="20"/>
       <c r="B391" s="21"/>
       <c r="C391" s="21"/>
@@ -4371,7 +4241,7 @@
       <c r="F391" s="21"/>
       <c r="H391" s="5"/>
     </row>
-    <row r="392" spans="1:8" ht="13">
+    <row r="392" spans="1:8" ht="12.75">
       <c r="A392" s="20"/>
       <c r="B392" s="21"/>
       <c r="C392" s="21"/>
@@ -4380,7 +4250,7 @@
       <c r="F392" s="21"/>
       <c r="H392" s="5"/>
     </row>
-    <row r="393" spans="1:8" ht="13">
+    <row r="393" spans="1:8" ht="12.75">
       <c r="A393" s="20"/>
       <c r="B393" s="21"/>
       <c r="C393" s="21"/>
@@ -4389,7 +4259,7 @@
       <c r="F393" s="21"/>
       <c r="H393" s="5"/>
     </row>
-    <row r="394" spans="1:8" ht="13">
+    <row r="394" spans="1:8" ht="12.75">
       <c r="A394" s="20"/>
       <c r="B394" s="21"/>
       <c r="C394" s="21"/>
@@ -4398,7 +4268,7 @@
       <c r="F394" s="21"/>
       <c r="H394" s="5"/>
     </row>
-    <row r="395" spans="1:8" ht="13">
+    <row r="395" spans="1:8" ht="12.75">
       <c r="A395" s="20"/>
       <c r="B395" s="21"/>
       <c r="C395" s="21"/>
@@ -4407,7 +4277,7 @@
       <c r="F395" s="21"/>
       <c r="H395" s="5"/>
     </row>
-    <row r="396" spans="1:8" ht="13">
+    <row r="396" spans="1:8" ht="12.75">
       <c r="A396" s="20"/>
       <c r="B396" s="21"/>
       <c r="C396" s="21"/>
@@ -4416,7 +4286,7 @@
       <c r="F396" s="21"/>
       <c r="H396" s="5"/>
     </row>
-    <row r="397" spans="1:8" ht="13">
+    <row r="397" spans="1:8" ht="12.75">
       <c r="A397" s="20"/>
       <c r="B397" s="21"/>
       <c r="C397" s="21"/>
@@ -4425,7 +4295,7 @@
       <c r="F397" s="21"/>
       <c r="H397" s="5"/>
     </row>
-    <row r="398" spans="1:8" ht="13">
+    <row r="398" spans="1:8" ht="12.75">
       <c r="A398" s="20"/>
       <c r="B398" s="21"/>
       <c r="C398" s="21"/>
@@ -4434,7 +4304,7 @@
       <c r="F398" s="21"/>
       <c r="H398" s="5"/>
     </row>
-    <row r="399" spans="1:8" ht="13">
+    <row r="399" spans="1:8" ht="12.75">
       <c r="A399" s="20"/>
       <c r="B399" s="21"/>
       <c r="C399" s="21"/>
@@ -4443,7 +4313,7 @@
       <c r="F399" s="21"/>
       <c r="H399" s="5"/>
     </row>
-    <row r="400" spans="1:8" ht="13">
+    <row r="400" spans="1:8" ht="12.75">
       <c r="A400" s="20"/>
       <c r="B400" s="21"/>
       <c r="C400" s="21"/>
@@ -4452,7 +4322,7 @@
       <c r="F400" s="21"/>
       <c r="H400" s="5"/>
     </row>
-    <row r="401" spans="1:8" ht="13">
+    <row r="401" spans="1:8" ht="12.75">
       <c r="A401" s="20"/>
       <c r="B401" s="21"/>
       <c r="C401" s="21"/>
@@ -4461,7 +4331,7 @@
       <c r="F401" s="21"/>
       <c r="H401" s="5"/>
     </row>
-    <row r="402" spans="1:8" ht="13">
+    <row r="402" spans="1:8" ht="12.75">
       <c r="A402" s="20"/>
       <c r="B402" s="21"/>
       <c r="C402" s="21"/>
@@ -4470,7 +4340,7 @@
       <c r="F402" s="21"/>
       <c r="H402" s="5"/>
     </row>
-    <row r="403" spans="1:8" ht="13">
+    <row r="403" spans="1:8" ht="12.75">
       <c r="A403" s="20"/>
       <c r="B403" s="21"/>
       <c r="C403" s="21"/>
@@ -4479,7 +4349,7 @@
       <c r="F403" s="21"/>
       <c r="H403" s="5"/>
     </row>
-    <row r="404" spans="1:8" ht="13">
+    <row r="404" spans="1:8" ht="12.75">
       <c r="A404" s="20"/>
       <c r="B404" s="21"/>
       <c r="C404" s="21"/>
@@ -4488,7 +4358,7 @@
       <c r="F404" s="21"/>
       <c r="H404" s="5"/>
     </row>
-    <row r="405" spans="1:8" ht="13">
+    <row r="405" spans="1:8" ht="12.75">
       <c r="A405" s="20"/>
       <c r="B405" s="21"/>
       <c r="C405" s="21"/>
@@ -4497,7 +4367,7 @@
       <c r="F405" s="21"/>
       <c r="H405" s="5"/>
     </row>
-    <row r="406" spans="1:8" ht="13">
+    <row r="406" spans="1:8" ht="12.75">
       <c r="A406" s="20"/>
       <c r="B406" s="21"/>
       <c r="C406" s="21"/>
@@ -4506,7 +4376,7 @@
       <c r="F406" s="21"/>
       <c r="H406" s="5"/>
     </row>
-    <row r="407" spans="1:8" ht="13">
+    <row r="407" spans="1:8" ht="12.75">
       <c r="A407" s="20"/>
       <c r="B407" s="21"/>
       <c r="C407" s="21"/>
@@ -4515,7 +4385,7 @@
       <c r="F407" s="21"/>
       <c r="H407" s="5"/>
     </row>
-    <row r="408" spans="1:8" ht="13">
+    <row r="408" spans="1:8" ht="12.75">
       <c r="A408" s="20"/>
       <c r="B408" s="21"/>
       <c r="C408" s="21"/>
@@ -4524,7 +4394,7 @@
       <c r="F408" s="21"/>
       <c r="H408" s="5"/>
     </row>
-    <row r="409" spans="1:8" ht="13">
+    <row r="409" spans="1:8" ht="12.75">
       <c r="A409" s="20"/>
       <c r="B409" s="21"/>
       <c r="C409" s="21"/>
@@ -4533,7 +4403,7 @@
       <c r="F409" s="21"/>
       <c r="H409" s="5"/>
     </row>
-    <row r="410" spans="1:8" ht="13">
+    <row r="410" spans="1:8" ht="12.75">
       <c r="A410" s="20"/>
       <c r="B410" s="21"/>
       <c r="C410" s="21"/>
@@ -4542,7 +4412,7 @@
       <c r="F410" s="21"/>
       <c r="H410" s="5"/>
     </row>
-    <row r="411" spans="1:8" ht="13">
+    <row r="411" spans="1:8" ht="12.75">
       <c r="A411" s="20"/>
       <c r="B411" s="21"/>
       <c r="C411" s="21"/>
@@ -4551,7 +4421,7 @@
       <c r="F411" s="21"/>
       <c r="H411" s="5"/>
     </row>
-    <row r="412" spans="1:8" ht="13">
+    <row r="412" spans="1:8" ht="12.75">
       <c r="A412" s="20"/>
       <c r="B412" s="21"/>
       <c r="C412" s="21"/>
@@ -4560,7 +4430,7 @@
       <c r="F412" s="21"/>
       <c r="H412" s="5"/>
     </row>
-    <row r="413" spans="1:8" ht="13">
+    <row r="413" spans="1:8" ht="12.75">
       <c r="A413" s="20"/>
       <c r="B413" s="21"/>
       <c r="C413" s="21"/>
@@ -4569,7 +4439,7 @@
       <c r="F413" s="21"/>
       <c r="H413" s="5"/>
     </row>
-    <row r="414" spans="1:8" ht="13">
+    <row r="414" spans="1:8" ht="12.75">
       <c r="A414" s="20"/>
       <c r="B414" s="21"/>
       <c r="C414" s="21"/>
@@ -4578,7 +4448,7 @@
       <c r="F414" s="21"/>
       <c r="H414" s="5"/>
     </row>
-    <row r="415" spans="1:8" ht="13">
+    <row r="415" spans="1:8" ht="12.75">
       <c r="A415" s="20"/>
       <c r="B415" s="21"/>
       <c r="C415" s="21"/>
@@ -4587,7 +4457,7 @@
       <c r="F415" s="21"/>
       <c r="H415" s="5"/>
     </row>
-    <row r="416" spans="1:8" ht="13">
+    <row r="416" spans="1:8" ht="12.75">
       <c r="A416" s="20"/>
       <c r="B416" s="21"/>
       <c r="C416" s="21"/>
@@ -4596,7 +4466,7 @@
       <c r="F416" s="21"/>
       <c r="H416" s="5"/>
     </row>
-    <row r="417" spans="1:8" ht="13">
+    <row r="417" spans="1:8" ht="12.75">
       <c r="A417" s="20"/>
       <c r="B417" s="21"/>
       <c r="C417" s="21"/>
@@ -4605,7 +4475,7 @@
       <c r="F417" s="21"/>
       <c r="H417" s="5"/>
     </row>
-    <row r="418" spans="1:8" ht="13">
+    <row r="418" spans="1:8" ht="12.75">
       <c r="A418" s="20"/>
       <c r="B418" s="21"/>
       <c r="C418" s="21"/>
@@ -4614,7 +4484,7 @@
       <c r="F418" s="21"/>
       <c r="H418" s="5"/>
     </row>
-    <row r="419" spans="1:8" ht="13">
+    <row r="419" spans="1:8" ht="12.75">
       <c r="A419" s="20"/>
       <c r="B419" s="21"/>
       <c r="C419" s="21"/>
@@ -4623,7 +4493,7 @@
       <c r="F419" s="21"/>
       <c r="H419" s="5"/>
     </row>
-    <row r="420" spans="1:8" ht="13">
+    <row r="420" spans="1:8" ht="12.75">
       <c r="A420" s="20"/>
       <c r="B420" s="21"/>
       <c r="C420" s="21"/>
@@ -4632,7 +4502,7 @@
       <c r="F420" s="21"/>
       <c r="H420" s="5"/>
     </row>
-    <row r="421" spans="1:8" ht="13">
+    <row r="421" spans="1:8" ht="12.75">
       <c r="A421" s="20"/>
       <c r="B421" s="21"/>
       <c r="C421" s="21"/>
@@ -4641,7 +4511,7 @@
       <c r="F421" s="21"/>
       <c r="H421" s="5"/>
     </row>
-    <row r="422" spans="1:8" ht="13">
+    <row r="422" spans="1:8" ht="12.75">
       <c r="A422" s="20"/>
       <c r="B422" s="21"/>
       <c r="C422" s="21"/>
@@ -4650,7 +4520,7 @@
       <c r="F422" s="21"/>
       <c r="H422" s="5"/>
     </row>
-    <row r="423" spans="1:8" ht="13">
+    <row r="423" spans="1:8" ht="12.75">
       <c r="A423" s="20"/>
       <c r="B423" s="21"/>
       <c r="C423" s="21"/>
@@ -4659,7 +4529,7 @@
       <c r="F423" s="21"/>
       <c r="H423" s="5"/>
     </row>
-    <row r="424" spans="1:8" ht="13">
+    <row r="424" spans="1:8" ht="12.75">
       <c r="A424" s="20"/>
       <c r="B424" s="21"/>
       <c r="C424" s="21"/>
@@ -4668,7 +4538,7 @@
       <c r="F424" s="21"/>
       <c r="H424" s="5"/>
     </row>
-    <row r="425" spans="1:8" ht="13">
+    <row r="425" spans="1:8" ht="12.75">
       <c r="A425" s="20"/>
       <c r="B425" s="21"/>
       <c r="C425" s="21"/>
@@ -4677,7 +4547,7 @@
       <c r="F425" s="21"/>
       <c r="H425" s="5"/>
     </row>
-    <row r="426" spans="1:8" ht="13">
+    <row r="426" spans="1:8" ht="12.75">
       <c r="A426" s="20"/>
       <c r="B426" s="21"/>
       <c r="C426" s="21"/>
@@ -4686,7 +4556,7 @@
       <c r="F426" s="21"/>
       <c r="H426" s="5"/>
     </row>
-    <row r="427" spans="1:8" ht="13">
+    <row r="427" spans="1:8" ht="12.75">
       <c r="A427" s="20"/>
       <c r="B427" s="21"/>
       <c r="C427" s="21"/>
@@ -4695,7 +4565,7 @@
       <c r="F427" s="21"/>
       <c r="H427" s="5"/>
     </row>
-    <row r="428" spans="1:8" ht="13">
+    <row r="428" spans="1:8" ht="12.75">
       <c r="A428" s="20"/>
       <c r="B428" s="21"/>
       <c r="C428" s="21"/>
@@ -4704,7 +4574,7 @@
       <c r="F428" s="21"/>
       <c r="H428" s="5"/>
     </row>
-    <row r="429" spans="1:8" ht="13">
+    <row r="429" spans="1:8" ht="12.75">
       <c r="A429" s="20"/>
       <c r="B429" s="21"/>
       <c r="C429" s="21"/>
@@ -4713,7 +4583,7 @@
       <c r="F429" s="21"/>
       <c r="H429" s="5"/>
     </row>
-    <row r="430" spans="1:8" ht="13">
+    <row r="430" spans="1:8" ht="12.75">
       <c r="A430" s="20"/>
       <c r="B430" s="21"/>
       <c r="C430" s="21"/>
@@ -4722,7 +4592,7 @@
       <c r="F430" s="21"/>
       <c r="H430" s="5"/>
     </row>
-    <row r="431" spans="1:8" ht="13">
+    <row r="431" spans="1:8" ht="12.75">
       <c r="A431" s="20"/>
       <c r="B431" s="21"/>
       <c r="C431" s="21"/>
@@ -4731,7 +4601,7 @@
       <c r="F431" s="21"/>
       <c r="H431" s="5"/>
     </row>
-    <row r="432" spans="1:8" ht="13">
+    <row r="432" spans="1:8" ht="12.75">
       <c r="A432" s="20"/>
       <c r="B432" s="21"/>
       <c r="C432" s="21"/>
@@ -4740,7 +4610,7 @@
       <c r="F432" s="21"/>
       <c r="H432" s="5"/>
     </row>
-    <row r="433" spans="1:8" ht="13">
+    <row r="433" spans="1:8" ht="12.75">
       <c r="A433" s="20"/>
       <c r="B433" s="21"/>
       <c r="C433" s="21"/>
@@ -4749,7 +4619,7 @@
       <c r="F433" s="21"/>
       <c r="H433" s="5"/>
     </row>
-    <row r="434" spans="1:8" ht="13">
+    <row r="434" spans="1:8" ht="12.75">
       <c r="A434" s="20"/>
       <c r="B434" s="21"/>
       <c r="C434" s="21"/>
@@ -4758,7 +4628,7 @@
       <c r="F434" s="21"/>
       <c r="H434" s="5"/>
     </row>
-    <row r="435" spans="1:8" ht="13">
+    <row r="435" spans="1:8" ht="12.75">
       <c r="A435" s="20"/>
       <c r="B435" s="21"/>
       <c r="C435" s="21"/>
@@ -4767,7 +4637,7 @@
       <c r="F435" s="21"/>
       <c r="H435" s="5"/>
     </row>
-    <row r="436" spans="1:8" ht="13">
+    <row r="436" spans="1:8" ht="12.75">
       <c r="A436" s="20"/>
       <c r="B436" s="21"/>
       <c r="C436" s="21"/>
@@ -4776,7 +4646,7 @@
       <c r="F436" s="21"/>
       <c r="H436" s="5"/>
     </row>
-    <row r="437" spans="1:8" ht="13">
+    <row r="437" spans="1:8" ht="12.75">
       <c r="A437" s="20"/>
       <c r="B437" s="21"/>
       <c r="C437" s="21"/>
@@ -4785,7 +4655,7 @@
       <c r="F437" s="21"/>
       <c r="H437" s="5"/>
     </row>
-    <row r="438" spans="1:8" ht="13">
+    <row r="438" spans="1:8" ht="12.75">
       <c r="A438" s="20"/>
       <c r="B438" s="21"/>
       <c r="C438" s="21"/>
@@ -4794,7 +4664,7 @@
       <c r="F438" s="21"/>
       <c r="H438" s="5"/>
     </row>
-    <row r="439" spans="1:8" ht="13">
+    <row r="439" spans="1:8" ht="12.75">
       <c r="A439" s="20"/>
       <c r="B439" s="21"/>
       <c r="C439" s="21"/>
@@ -4803,7 +4673,7 @@
       <c r="F439" s="21"/>
       <c r="H439" s="5"/>
     </row>
-    <row r="440" spans="1:8" ht="13">
+    <row r="440" spans="1:8" ht="12.75">
       <c r="A440" s="20"/>
       <c r="B440" s="21"/>
       <c r="C440" s="21"/>
@@ -4812,7 +4682,7 @@
       <c r="F440" s="21"/>
       <c r="H440" s="5"/>
     </row>
-    <row r="441" spans="1:8" ht="13">
+    <row r="441" spans="1:8" ht="12.75">
       <c r="A441" s="20"/>
       <c r="B441" s="21"/>
       <c r="C441" s="21"/>
@@ -4821,7 +4691,7 @@
       <c r="F441" s="21"/>
       <c r="H441" s="5"/>
     </row>
-    <row r="442" spans="1:8" ht="13">
+    <row r="442" spans="1:8" ht="12.75">
       <c r="A442" s="20"/>
       <c r="B442" s="21"/>
       <c r="C442" s="21"/>
@@ -4830,7 +4700,7 @@
       <c r="F442" s="21"/>
       <c r="H442" s="5"/>
     </row>
-    <row r="443" spans="1:8" ht="13">
+    <row r="443" spans="1:8" ht="12.75">
       <c r="A443" s="20"/>
       <c r="B443" s="21"/>
       <c r="C443" s="21"/>
@@ -4839,7 +4709,7 @@
       <c r="F443" s="21"/>
       <c r="H443" s="5"/>
     </row>
-    <row r="444" spans="1:8" ht="13">
+    <row r="444" spans="1:8" ht="12.75">
       <c r="A444" s="20"/>
       <c r="B444" s="21"/>
       <c r="C444" s="21"/>
@@ -4848,7 +4718,7 @@
       <c r="F444" s="21"/>
       <c r="H444" s="5"/>
     </row>
-    <row r="445" spans="1:8" ht="13">
+    <row r="445" spans="1:8" ht="12.75">
       <c r="A445" s="20"/>
       <c r="B445" s="21"/>
       <c r="C445" s="21"/>
@@ -4857,7 +4727,7 @@
       <c r="F445" s="21"/>
       <c r="H445" s="5"/>
     </row>
-    <row r="446" spans="1:8" ht="13">
+    <row r="446" spans="1:8" ht="12.75">
       <c r="A446" s="20"/>
       <c r="B446" s="21"/>
       <c r="C446" s="21"/>
@@ -4866,7 +4736,7 @@
       <c r="F446" s="21"/>
       <c r="H446" s="5"/>
     </row>
-    <row r="447" spans="1:8" ht="13">
+    <row r="447" spans="1:8" ht="12.75">
       <c r="A447" s="20"/>
       <c r="B447" s="21"/>
       <c r="C447" s="21"/>
@@ -4875,7 +4745,7 @@
       <c r="F447" s="21"/>
       <c r="H447" s="5"/>
     </row>
-    <row r="448" spans="1:8" ht="13">
+    <row r="448" spans="1:8" ht="12.75">
       <c r="A448" s="20"/>
       <c r="B448" s="21"/>
       <c r="C448" s="21"/>
@@ -4884,7 +4754,7 @@
       <c r="F448" s="21"/>
       <c r="H448" s="5"/>
     </row>
-    <row r="449" spans="1:8" ht="13">
+    <row r="449" spans="1:8" ht="12.75">
       <c r="A449" s="20"/>
       <c r="B449" s="21"/>
       <c r="C449" s="21"/>
@@ -4893,7 +4763,7 @@
       <c r="F449" s="21"/>
       <c r="H449" s="5"/>
     </row>
-    <row r="450" spans="1:8" ht="13">
+    <row r="450" spans="1:8" ht="12.75">
       <c r="A450" s="20"/>
       <c r="B450" s="21"/>
       <c r="C450" s="21"/>
@@ -4902,7 +4772,7 @@
       <c r="F450" s="21"/>
       <c r="H450" s="5"/>
     </row>
-    <row r="451" spans="1:8" ht="13">
+    <row r="451" spans="1:8" ht="12.75">
       <c r="A451" s="20"/>
       <c r="B451" s="21"/>
       <c r="C451" s="21"/>
@@ -4911,7 +4781,7 @@
       <c r="F451" s="21"/>
       <c r="H451" s="5"/>
     </row>
-    <row r="452" spans="1:8" ht="13">
+    <row r="452" spans="1:8" ht="12.75">
       <c r="A452" s="20"/>
       <c r="B452" s="21"/>
       <c r="C452" s="21"/>
@@ -4920,7 +4790,7 @@
       <c r="F452" s="21"/>
       <c r="H452" s="5"/>
     </row>
-    <row r="453" spans="1:8" ht="13">
+    <row r="453" spans="1:8" ht="12.75">
       <c r="A453" s="20"/>
       <c r="B453" s="21"/>
       <c r="C453" s="21"/>
@@ -4929,7 +4799,7 @@
       <c r="F453" s="21"/>
       <c r="H453" s="5"/>
     </row>
-    <row r="454" spans="1:8" ht="13">
+    <row r="454" spans="1:8" ht="12.75">
       <c r="A454" s="20"/>
       <c r="B454" s="21"/>
       <c r="C454" s="21"/>
@@ -4938,7 +4808,7 @@
       <c r="F454" s="21"/>
       <c r="H454" s="5"/>
     </row>
-    <row r="455" spans="1:8" ht="13">
+    <row r="455" spans="1:8" ht="12.75">
       <c r="A455" s="20"/>
       <c r="B455" s="21"/>
       <c r="C455" s="21"/>
@@ -4947,7 +4817,7 @@
       <c r="F455" s="21"/>
       <c r="H455" s="5"/>
     </row>
-    <row r="456" spans="1:8" ht="13">
+    <row r="456" spans="1:8" ht="12.75">
       <c r="A456" s="20"/>
       <c r="B456" s="21"/>
       <c r="C456" s="21"/>
@@ -4956,7 +4826,7 @@
       <c r="F456" s="21"/>
       <c r="H456" s="5"/>
     </row>
-    <row r="457" spans="1:8" ht="13">
+    <row r="457" spans="1:8" ht="12.75">
       <c r="A457" s="20"/>
       <c r="B457" s="21"/>
       <c r="C457" s="21"/>
@@ -4965,7 +4835,7 @@
       <c r="F457" s="21"/>
       <c r="H457" s="5"/>
     </row>
-    <row r="458" spans="1:8" ht="13">
+    <row r="458" spans="1:8" ht="12.75">
       <c r="A458" s="20"/>
       <c r="B458" s="21"/>
       <c r="C458" s="21"/>
@@ -4974,7 +4844,7 @@
       <c r="F458" s="21"/>
       <c r="H458" s="5"/>
     </row>
-    <row r="459" spans="1:8" ht="13">
+    <row r="459" spans="1:8" ht="12.75">
       <c r="A459" s="20"/>
       <c r="B459" s="21"/>
       <c r="C459" s="21"/>
@@ -4983,7 +4853,7 @@
       <c r="F459" s="21"/>
       <c r="H459" s="5"/>
     </row>
-    <row r="460" spans="1:8" ht="13">
+    <row r="460" spans="1:8" ht="12.75">
       <c r="A460" s="20"/>
       <c r="B460" s="21"/>
       <c r="C460" s="21"/>
@@ -4992,7 +4862,7 @@
       <c r="F460" s="21"/>
       <c r="H460" s="5"/>
     </row>
-    <row r="461" spans="1:8" ht="13">
+    <row r="461" spans="1:8" ht="12.75">
       <c r="A461" s="20"/>
       <c r="B461" s="21"/>
       <c r="C461" s="21"/>
@@ -5001,7 +4871,7 @@
       <c r="F461" s="21"/>
       <c r="H461" s="5"/>
     </row>
-    <row r="462" spans="1:8" ht="13">
+    <row r="462" spans="1:8" ht="12.75">
       <c r="A462" s="20"/>
       <c r="B462" s="21"/>
       <c r="C462" s="21"/>
@@ -5010,7 +4880,7 @@
       <c r="F462" s="21"/>
       <c r="H462" s="5"/>
     </row>
-    <row r="463" spans="1:8" ht="13">
+    <row r="463" spans="1:8" ht="12.75">
       <c r="A463" s="20"/>
       <c r="B463" s="21"/>
       <c r="C463" s="21"/>
@@ -5019,7 +4889,7 @@
       <c r="F463" s="21"/>
       <c r="H463" s="5"/>
     </row>
-    <row r="464" spans="1:8" ht="13">
+    <row r="464" spans="1:8" ht="12.75">
       <c r="A464" s="20"/>
       <c r="B464" s="21"/>
       <c r="C464" s="21"/>
@@ -5028,7 +4898,7 @@
       <c r="F464" s="21"/>
       <c r="H464" s="5"/>
     </row>
-    <row r="465" spans="1:8" ht="13">
+    <row r="465" spans="1:8" ht="12.75">
       <c r="A465" s="20"/>
       <c r="B465" s="21"/>
       <c r="C465" s="21"/>
@@ -5037,7 +4907,7 @@
       <c r="F465" s="21"/>
       <c r="H465" s="5"/>
     </row>
-    <row r="466" spans="1:8" ht="13">
+    <row r="466" spans="1:8" ht="12.75">
       <c r="A466" s="20"/>
       <c r="B466" s="21"/>
       <c r="C466" s="21"/>
@@ -5046,7 +4916,7 @@
       <c r="F466" s="21"/>
       <c r="H466" s="5"/>
     </row>
-    <row r="467" spans="1:8" ht="13">
+    <row r="467" spans="1:8" ht="12.75">
       <c r="A467" s="20"/>
       <c r="B467" s="21"/>
       <c r="C467" s="21"/>
@@ -5055,7 +4925,7 @@
       <c r="F467" s="21"/>
       <c r="H467" s="5"/>
     </row>
-    <row r="468" spans="1:8" ht="13">
+    <row r="468" spans="1:8" ht="12.75">
       <c r="A468" s="20"/>
       <c r="B468" s="21"/>
       <c r="C468" s="21"/>
@@ -5064,7 +4934,7 @@
       <c r="F468" s="21"/>
       <c r="H468" s="5"/>
     </row>
-    <row r="469" spans="1:8" ht="13">
+    <row r="469" spans="1:8" ht="12.75">
       <c r="A469" s="20"/>
       <c r="B469" s="21"/>
       <c r="C469" s="21"/>
@@ -5073,7 +4943,7 @@
       <c r="F469" s="21"/>
       <c r="H469" s="5"/>
     </row>
-    <row r="470" spans="1:8" ht="13">
+    <row r="470" spans="1:8" ht="12.75">
       <c r="A470" s="20"/>
       <c r="B470" s="21"/>
       <c r="C470" s="21"/>
@@ -5082,7 +4952,7 @@
       <c r="F470" s="21"/>
       <c r="H470" s="5"/>
     </row>
-    <row r="471" spans="1:8" ht="13">
+    <row r="471" spans="1:8" ht="12.75">
       <c r="A471" s="20"/>
       <c r="B471" s="21"/>
       <c r="C471" s="21"/>
@@ -5091,7 +4961,7 @@
       <c r="F471" s="21"/>
       <c r="H471" s="5"/>
     </row>
-    <row r="472" spans="1:8" ht="13">
+    <row r="472" spans="1:8" ht="12.75">
       <c r="A472" s="20"/>
       <c r="B472" s="21"/>
       <c r="C472" s="21"/>
@@ -5100,7 +4970,7 @@
       <c r="F472" s="21"/>
       <c r="H472" s="5"/>
     </row>
-    <row r="473" spans="1:8" ht="13">
+    <row r="473" spans="1:8" ht="12.75">
       <c r="A473" s="20"/>
       <c r="B473" s="21"/>
       <c r="C473" s="21"/>
@@ -5109,7 +4979,7 @@
       <c r="F473" s="21"/>
       <c r="H473" s="5"/>
     </row>
-    <row r="474" spans="1:8" ht="13">
+    <row r="474" spans="1:8" ht="12.75">
       <c r="A474" s="20"/>
       <c r="B474" s="21"/>
       <c r="C474" s="21"/>
@@ -5118,7 +4988,7 @@
       <c r="F474" s="21"/>
       <c r="H474" s="5"/>
     </row>
-    <row r="475" spans="1:8" ht="13">
+    <row r="475" spans="1:8" ht="12.75">
       <c r="A475" s="20"/>
       <c r="B475" s="21"/>
       <c r="C475" s="21"/>
@@ -5127,7 +4997,7 @@
       <c r="F475" s="21"/>
       <c r="H475" s="5"/>
     </row>
-    <row r="476" spans="1:8" ht="13">
+    <row r="476" spans="1:8" ht="12.75">
       <c r="A476" s="20"/>
       <c r="B476" s="21"/>
       <c r="C476" s="21"/>
@@ -5136,7 +5006,7 @@
       <c r="F476" s="21"/>
       <c r="H476" s="5"/>
     </row>
-    <row r="477" spans="1:8" ht="13">
+    <row r="477" spans="1:8" ht="12.75">
       <c r="A477" s="20"/>
       <c r="B477" s="21"/>
       <c r="C477" s="21"/>
@@ -5145,7 +5015,7 @@
       <c r="F477" s="21"/>
       <c r="H477" s="5"/>
     </row>
-    <row r="478" spans="1:8" ht="13">
+    <row r="478" spans="1:8" ht="12.75">
       <c r="A478" s="20"/>
       <c r="B478" s="21"/>
       <c r="C478" s="21"/>
@@ -5154,7 +5024,7 @@
       <c r="F478" s="21"/>
       <c r="H478" s="5"/>
     </row>
-    <row r="479" spans="1:8" ht="13">
+    <row r="479" spans="1:8" ht="12.75">
       <c r="A479" s="20"/>
       <c r="B479" s="21"/>
       <c r="C479" s="21"/>
@@ -5163,7 +5033,7 @@
       <c r="F479" s="21"/>
       <c r="H479" s="5"/>
     </row>
-    <row r="480" spans="1:8" ht="13">
+    <row r="480" spans="1:8" ht="12.75">
       <c r="A480" s="20"/>
       <c r="B480" s="21"/>
       <c r="C480" s="21"/>
@@ -5172,7 +5042,7 @@
       <c r="F480" s="21"/>
       <c r="H480" s="5"/>
     </row>
-    <row r="481" spans="1:8" ht="13">
+    <row r="481" spans="1:8" ht="12.75">
       <c r="A481" s="20"/>
       <c r="B481" s="21"/>
       <c r="C481" s="21"/>
@@ -5181,7 +5051,7 @@
       <c r="F481" s="21"/>
       <c r="H481" s="5"/>
     </row>
-    <row r="482" spans="1:8" ht="13">
+    <row r="482" spans="1:8" ht="12.75">
       <c r="A482" s="20"/>
       <c r="B482" s="21"/>
       <c r="C482" s="21"/>
@@ -5190,7 +5060,7 @@
       <c r="F482" s="21"/>
       <c r="H482" s="5"/>
     </row>
-    <row r="483" spans="1:8" ht="13">
+    <row r="483" spans="1:8" ht="12.75">
       <c r="A483" s="20"/>
       <c r="B483" s="21"/>
       <c r="C483" s="21"/>
@@ -5199,7 +5069,7 @@
       <c r="F483" s="21"/>
       <c r="H483" s="5"/>
     </row>
-    <row r="484" spans="1:8" ht="13">
+    <row r="484" spans="1:8" ht="12.75">
       <c r="A484" s="20"/>
       <c r="B484" s="21"/>
       <c r="C484" s="21"/>
@@ -5208,7 +5078,7 @@
       <c r="F484" s="21"/>
       <c r="H484" s="5"/>
     </row>
-    <row r="485" spans="1:8" ht="13">
+    <row r="485" spans="1:8" ht="12.75">
       <c r="A485" s="20"/>
       <c r="B485" s="21"/>
       <c r="C485" s="21"/>
@@ -5217,7 +5087,7 @@
       <c r="F485" s="21"/>
       <c r="H485" s="5"/>
     </row>
-    <row r="486" spans="1:8" ht="13">
+    <row r="486" spans="1:8" ht="12.75">
       <c r="A486" s="20"/>
       <c r="B486" s="21"/>
       <c r="C486" s="21"/>
@@ -5226,7 +5096,7 @@
       <c r="F486" s="21"/>
       <c r="H486" s="5"/>
     </row>
-    <row r="487" spans="1:8" ht="13">
+    <row r="487" spans="1:8" ht="12.75">
       <c r="A487" s="20"/>
       <c r="B487" s="21"/>
       <c r="C487" s="21"/>
@@ -5235,7 +5105,7 @@
       <c r="F487" s="21"/>
       <c r="H487" s="5"/>
     </row>
-    <row r="488" spans="1:8" ht="13">
+    <row r="488" spans="1:8" ht="12.75">
       <c r="A488" s="20"/>
       <c r="B488" s="21"/>
       <c r="C488" s="21"/>
@@ -5244,7 +5114,7 @@
       <c r="F488" s="21"/>
       <c r="H488" s="5"/>
     </row>
-    <row r="489" spans="1:8" ht="13">
+    <row r="489" spans="1:8" ht="12.75">
       <c r="A489" s="20"/>
       <c r="B489" s="21"/>
       <c r="C489" s="21"/>
@@ -5253,7 +5123,7 @@
       <c r="F489" s="21"/>
       <c r="H489" s="5"/>
     </row>
-    <row r="490" spans="1:8" ht="13">
+    <row r="490" spans="1:8" ht="12.75">
       <c r="A490" s="20"/>
       <c r="B490" s="21"/>
       <c r="C490" s="21"/>
@@ -5262,7 +5132,7 @@
       <c r="F490" s="21"/>
       <c r="H490" s="5"/>
     </row>
-    <row r="491" spans="1:8" ht="13">
+    <row r="491" spans="1:8" ht="12.75">
       <c r="A491" s="20"/>
       <c r="B491" s="21"/>
       <c r="C491" s="21"/>
@@ -5271,7 +5141,7 @@
       <c r="F491" s="21"/>
       <c r="H491" s="5"/>
     </row>
-    <row r="492" spans="1:8" ht="13">
+    <row r="492" spans="1:8" ht="12.75">
       <c r="A492" s="20"/>
       <c r="B492" s="21"/>
       <c r="C492" s="21"/>
@@ -5280,7 +5150,7 @@
       <c r="F492" s="21"/>
       <c r="H492" s="5"/>
     </row>
-    <row r="493" spans="1:8" ht="13">
+    <row r="493" spans="1:8" ht="12.75">
       <c r="A493" s="20"/>
       <c r="B493" s="21"/>
       <c r="C493" s="21"/>
@@ -5289,7 +5159,7 @@
       <c r="F493" s="21"/>
       <c r="H493" s="5"/>
     </row>
-    <row r="494" spans="1:8" ht="13">
+    <row r="494" spans="1:8" ht="12.75">
       <c r="A494" s="20"/>
       <c r="B494" s="21"/>
       <c r="C494" s="21"/>
@@ -5298,7 +5168,7 @@
       <c r="F494" s="21"/>
       <c r="H494" s="5"/>
     </row>
-    <row r="495" spans="1:8" ht="13">
+    <row r="495" spans="1:8" ht="12.75">
       <c r="A495" s="20"/>
       <c r="B495" s="21"/>
       <c r="C495" s="21"/>
@@ -5307,7 +5177,7 @@
       <c r="F495" s="21"/>
       <c r="H495" s="5"/>
     </row>
-    <row r="496" spans="1:8" ht="13">
+    <row r="496" spans="1:8" ht="12.75">
       <c r="A496" s="20"/>
       <c r="B496" s="21"/>
       <c r="C496" s="21"/>
@@ -5316,7 +5186,7 @@
       <c r="F496" s="21"/>
       <c r="H496" s="5"/>
     </row>
-    <row r="497" spans="1:8" ht="13">
+    <row r="497" spans="1:8" ht="12.75">
       <c r="A497" s="20"/>
       <c r="B497" s="21"/>
       <c r="C497" s="21"/>
@@ -5325,7 +5195,7 @@
       <c r="F497" s="21"/>
       <c r="H497" s="5"/>
     </row>
-    <row r="498" spans="1:8" ht="13">
+    <row r="498" spans="1:8" ht="12.75">
       <c r="A498" s="20"/>
       <c r="B498" s="21"/>
       <c r="C498" s="21"/>
@@ -5334,7 +5204,7 @@
       <c r="F498" s="21"/>
       <c r="H498" s="5"/>
     </row>
-    <row r="499" spans="1:8" ht="13">
+    <row r="499" spans="1:8" ht="12.75">
       <c r="A499" s="20"/>
       <c r="B499" s="21"/>
       <c r="C499" s="21"/>
@@ -5343,7 +5213,7 @@
       <c r="F499" s="21"/>
       <c r="H499" s="5"/>
     </row>
-    <row r="500" spans="1:8" ht="13">
+    <row r="500" spans="1:8" ht="12.75">
       <c r="A500" s="20"/>
       <c r="B500" s="21"/>
       <c r="C500" s="21"/>
@@ -5352,7 +5222,7 @@
       <c r="F500" s="21"/>
       <c r="H500" s="5"/>
     </row>
-    <row r="501" spans="1:8" ht="13">
+    <row r="501" spans="1:8" ht="12.75">
       <c r="A501" s="20"/>
       <c r="B501" s="21"/>
       <c r="C501" s="21"/>
@@ -5361,7 +5231,7 @@
       <c r="F501" s="21"/>
       <c r="H501" s="5"/>
     </row>
-    <row r="502" spans="1:8" ht="13">
+    <row r="502" spans="1:8" ht="12.75">
       <c r="A502" s="20"/>
       <c r="B502" s="21"/>
       <c r="C502" s="21"/>
@@ -5370,7 +5240,7 @@
       <c r="F502" s="21"/>
       <c r="H502" s="5"/>
     </row>
-    <row r="503" spans="1:8" ht="13">
+    <row r="503" spans="1:8" ht="12.75">
       <c r="A503" s="20"/>
       <c r="B503" s="21"/>
       <c r="C503" s="21"/>
@@ -5379,7 +5249,7 @@
       <c r="F503" s="21"/>
       <c r="H503" s="5"/>
     </row>
-    <row r="504" spans="1:8" ht="13">
+    <row r="504" spans="1:8" ht="12.75">
       <c r="A504" s="20"/>
       <c r="B504" s="21"/>
       <c r="C504" s="21"/>
@@ -5388,7 +5258,7 @@
       <c r="F504" s="21"/>
       <c r="H504" s="5"/>
     </row>
-    <row r="505" spans="1:8" ht="13">
+    <row r="505" spans="1:8" ht="12.75">
       <c r="A505" s="20"/>
       <c r="B505" s="21"/>
       <c r="C505" s="21"/>
@@ -5397,7 +5267,7 @@
       <c r="F505" s="21"/>
       <c r="H505" s="5"/>
     </row>
-    <row r="506" spans="1:8" ht="13">
+    <row r="506" spans="1:8" ht="12.75">
       <c r="A506" s="20"/>
       <c r="B506" s="21"/>
       <c r="C506" s="21"/>
@@ -5406,7 +5276,7 @@
       <c r="F506" s="21"/>
       <c r="H506" s="5"/>
     </row>
-    <row r="507" spans="1:8" ht="13">
+    <row r="507" spans="1:8" ht="12.75">
       <c r="A507" s="20"/>
       <c r="B507" s="21"/>
       <c r="C507" s="21"/>
@@ -5415,7 +5285,7 @@
       <c r="F507" s="21"/>
       <c r="H507" s="5"/>
     </row>
-    <row r="508" spans="1:8" ht="13">
+    <row r="508" spans="1:8" ht="12.75">
       <c r="A508" s="20"/>
       <c r="B508" s="21"/>
       <c r="C508" s="21"/>
@@ -5424,7 +5294,7 @@
       <c r="F508" s="21"/>
       <c r="H508" s="5"/>
     </row>
-    <row r="509" spans="1:8" ht="13">
+    <row r="509" spans="1:8" ht="12.75">
       <c r="A509" s="20"/>
       <c r="B509" s="21"/>
       <c r="C509" s="21"/>
@@ -5433,7 +5303,7 @@
       <c r="F509" s="21"/>
       <c r="H509" s="5"/>
     </row>
-    <row r="510" spans="1:8" ht="13">
+    <row r="510" spans="1:8" ht="12.75">
       <c r="A510" s="20"/>
       <c r="B510" s="21"/>
       <c r="C510" s="21"/>
@@ -5442,7 +5312,7 @@
       <c r="F510" s="21"/>
       <c r="H510" s="5"/>
     </row>
-    <row r="511" spans="1:8" ht="13">
+    <row r="511" spans="1:8" ht="12.75">
       <c r="A511" s="20"/>
       <c r="B511" s="21"/>
       <c r="C511" s="21"/>
@@ -5451,7 +5321,7 @@
       <c r="F511" s="21"/>
       <c r="H511" s="5"/>
     </row>
-    <row r="512" spans="1:8" ht="13">
+    <row r="512" spans="1:8" ht="12.75">
       <c r="A512" s="20"/>
       <c r="B512" s="21"/>
       <c r="C512" s="21"/>
@@ -5460,7 +5330,7 @@
       <c r="F512" s="21"/>
       <c r="H512" s="5"/>
     </row>
-    <row r="513" spans="1:8" ht="13">
+    <row r="513" spans="1:8" ht="12.75">
       <c r="A513" s="20"/>
       <c r="B513" s="21"/>
       <c r="C513" s="21"/>
@@ -5469,7 +5339,7 @@
       <c r="F513" s="21"/>
       <c r="H513" s="5"/>
     </row>
-    <row r="514" spans="1:8" ht="13">
+    <row r="514" spans="1:8" ht="12.75">
       <c r="A514" s="20"/>
       <c r="B514" s="21"/>
       <c r="C514" s="21"/>
@@ -5478,7 +5348,7 @@
       <c r="F514" s="21"/>
       <c r="H514" s="5"/>
     </row>
-    <row r="515" spans="1:8" ht="13">
+    <row r="515" spans="1:8" ht="12.75">
       <c r="A515" s="20"/>
       <c r="B515" s="21"/>
       <c r="C515" s="21"/>
@@ -5487,7 +5357,7 @@
       <c r="F515" s="21"/>
       <c r="H515" s="5"/>
     </row>
-    <row r="516" spans="1:8" ht="13">
+    <row r="516" spans="1:8" ht="12.75">
       <c r="A516" s="20"/>
       <c r="B516" s="21"/>
       <c r="C516" s="21"/>
@@ -5496,7 +5366,7 @@
       <c r="F516" s="21"/>
       <c r="H516" s="5"/>
     </row>
-    <row r="517" spans="1:8" ht="13">
+    <row r="517" spans="1:8" ht="12.75">
       <c r="A517" s="20"/>
       <c r="B517" s="21"/>
       <c r="C517" s="21"/>
@@ -5505,7 +5375,7 @@
       <c r="F517" s="21"/>
       <c r="H517" s="5"/>
     </row>
-    <row r="518" spans="1:8" ht="13">
+    <row r="518" spans="1:8" ht="12.75">
       <c r="A518" s="20"/>
       <c r="B518" s="21"/>
       <c r="C518" s="21"/>
@@ -5514,7 +5384,7 @@
       <c r="F518" s="21"/>
       <c r="H518" s="5"/>
     </row>
-    <row r="519" spans="1:8" ht="13">
+    <row r="519" spans="1:8" ht="12.75">
       <c r="A519" s="20"/>
       <c r="B519" s="21"/>
       <c r="C519" s="21"/>
@@ -5523,7 +5393,7 @@
       <c r="F519" s="21"/>
       <c r="H519" s="5"/>
     </row>
-    <row r="520" spans="1:8" ht="13">
+    <row r="520" spans="1:8" ht="12.75">
       <c r="A520" s="20"/>
       <c r="B520" s="21"/>
       <c r="C520" s="21"/>
@@ -5532,7 +5402,7 @@
       <c r="F520" s="21"/>
       <c r="H520" s="5"/>
     </row>
-    <row r="521" spans="1:8" ht="13">
+    <row r="521" spans="1:8" ht="12.75">
       <c r="A521" s="20"/>
       <c r="B521" s="21"/>
       <c r="C521" s="21"/>
@@ -5541,7 +5411,7 @@
       <c r="F521" s="21"/>
       <c r="H521" s="5"/>
     </row>
-    <row r="522" spans="1:8" ht="13">
+    <row r="522" spans="1:8" ht="12.75">
       <c r="A522" s="20"/>
       <c r="B522" s="21"/>
       <c r="C522" s="21"/>
@@ -5550,7 +5420,7 @@
       <c r="F522" s="21"/>
       <c r="H522" s="5"/>
     </row>
-    <row r="523" spans="1:8" ht="13">
+    <row r="523" spans="1:8" ht="12.75">
       <c r="A523" s="20"/>
       <c r="B523" s="21"/>
       <c r="C523" s="21"/>
@@ -5559,7 +5429,7 @@
       <c r="F523" s="21"/>
       <c r="H523" s="5"/>
     </row>
-    <row r="524" spans="1:8" ht="13">
+    <row r="524" spans="1:8" ht="12.75">
       <c r="A524" s="20"/>
       <c r="B524" s="21"/>
       <c r="C524" s="21"/>
@@ -5568,7 +5438,7 @@
       <c r="F524" s="21"/>
       <c r="H524" s="5"/>
     </row>
-    <row r="525" spans="1:8" ht="13">
+    <row r="525" spans="1:8" ht="12.75">
       <c r="A525" s="20"/>
       <c r="B525" s="21"/>
       <c r="C525" s="21"/>
@@ -5577,7 +5447,7 @@
       <c r="F525" s="21"/>
       <c r="H525" s="5"/>
     </row>
-    <row r="526" spans="1:8" ht="13">
+    <row r="526" spans="1:8" ht="12.75">
       <c r="A526" s="20"/>
       <c r="B526" s="21"/>
       <c r="C526" s="21"/>
@@ -5586,7 +5456,7 @@
       <c r="F526" s="21"/>
       <c r="H526" s="5"/>
     </row>
-    <row r="527" spans="1:8" ht="13">
+    <row r="527" spans="1:8" ht="12.75">
       <c r="A527" s="20"/>
       <c r="B527" s="21"/>
       <c r="C527" s="21"/>
@@ -5595,7 +5465,7 @@
       <c r="F527" s="21"/>
       <c r="H527" s="5"/>
     </row>
-    <row r="528" spans="1:8" ht="13">
+    <row r="528" spans="1:8" ht="12.75">
       <c r="A528" s="20"/>
       <c r="B528" s="21"/>
       <c r="C528" s="21"/>
@@ -5604,7 +5474,7 @@
       <c r="F528" s="21"/>
       <c r="H528" s="5"/>
     </row>
-    <row r="529" spans="1:8" ht="13">
+    <row r="529" spans="1:8" ht="12.75">
       <c r="A529" s="20"/>
       <c r="B529" s="21"/>
       <c r="C529" s="21"/>
@@ -5613,7 +5483,7 @@
       <c r="F529" s="21"/>
       <c r="H529" s="5"/>
     </row>
-    <row r="530" spans="1:8" ht="13">
+    <row r="530" spans="1:8" ht="12.75">
       <c r="A530" s="20"/>
       <c r="B530" s="21"/>
       <c r="C530" s="21"/>
@@ -5622,7 +5492,7 @@
       <c r="F530" s="21"/>
       <c r="H530" s="5"/>
     </row>
-    <row r="531" spans="1:8" ht="13">
+    <row r="531" spans="1:8" ht="12.75">
       <c r="A531" s="20"/>
       <c r="B531" s="21"/>
       <c r="C531" s="21"/>
@@ -5631,7 +5501,7 @@
       <c r="F531" s="21"/>
       <c r="H531" s="5"/>
     </row>
-    <row r="532" spans="1:8" ht="13">
+    <row r="532" spans="1:8" ht="12.75">
       <c r="A532" s="20"/>
       <c r="B532" s="21"/>
       <c r="C532" s="21"/>
@@ -5640,7 +5510,7 @@
       <c r="F532" s="21"/>
       <c r="H532" s="5"/>
     </row>
-    <row r="533" spans="1:8" ht="13">
+    <row r="533" spans="1:8" ht="12.75">
       <c r="A533" s="20"/>
       <c r="B533" s="21"/>
       <c r="C533" s="21"/>
@@ -5649,7 +5519,7 @@
       <c r="F533" s="21"/>
       <c r="H533" s="5"/>
     </row>
-    <row r="534" spans="1:8" ht="13">
+    <row r="534" spans="1:8" ht="12.75">
       <c r="A534" s="20"/>
       <c r="B534" s="21"/>
       <c r="C534" s="21"/>
@@ -5658,7 +5528,7 @@
       <c r="F534" s="21"/>
       <c r="H534" s="5"/>
     </row>
-    <row r="535" spans="1:8" ht="13">
+    <row r="535" spans="1:8" ht="12.75">
       <c r="A535" s="20"/>
       <c r="B535" s="21"/>
       <c r="C535" s="21"/>
@@ -5667,7 +5537,7 @@
       <c r="F535" s="21"/>
       <c r="H535" s="5"/>
     </row>
-    <row r="536" spans="1:8" ht="13">
+    <row r="536" spans="1:8" ht="12.75">
       <c r="A536" s="20"/>
       <c r="B536" s="21"/>
       <c r="C536" s="21"/>
@@ -5676,7 +5546,7 @@
       <c r="F536" s="21"/>
       <c r="H536" s="5"/>
     </row>
-    <row r="537" spans="1:8" ht="13">
+    <row r="537" spans="1:8" ht="12.75">
       <c r="A537" s="20"/>
       <c r="B537" s="21"/>
       <c r="C537" s="21"/>
@@ -5685,7 +5555,7 @@
       <c r="F537" s="21"/>
       <c r="H537" s="5"/>
     </row>
-    <row r="538" spans="1:8" ht="13">
+    <row r="538" spans="1:8" ht="12.75">
       <c r="A538" s="20"/>
       <c r="B538" s="21"/>
       <c r="C538" s="21"/>
@@ -5694,7 +5564,7 @@
       <c r="F538" s="21"/>
       <c r="H538" s="5"/>
     </row>
-    <row r="539" spans="1:8" ht="13">
+    <row r="539" spans="1:8" ht="12.75">
       <c r="A539" s="20"/>
       <c r="B539" s="21"/>
       <c r="C539" s="21"/>
@@ -5703,7 +5573,7 @@
       <c r="F539" s="21"/>
       <c r="H539" s="5"/>
     </row>
-    <row r="540" spans="1:8" ht="13">
+    <row r="540" spans="1:8" ht="12.75">
       <c r="A540" s="20"/>
       <c r="B540" s="21"/>
       <c r="C540" s="21"/>
@@ -5712,7 +5582,7 @@
       <c r="F540" s="21"/>
       <c r="H540" s="5"/>
     </row>
-    <row r="541" spans="1:8" ht="13">
+    <row r="541" spans="1:8" ht="12.75">
       <c r="A541" s="20"/>
       <c r="B541" s="21"/>
       <c r="C541" s="21"/>
@@ -5721,7 +5591,7 @@
       <c r="F541" s="21"/>
       <c r="H541" s="5"/>
     </row>
-    <row r="542" spans="1:8" ht="13">
+    <row r="542" spans="1:8" ht="12.75">
       <c r="A542" s="20"/>
       <c r="B542" s="21"/>
       <c r="C542" s="21"/>
@@ -5730,7 +5600,7 @@
       <c r="F542" s="21"/>
       <c r="H542" s="5"/>
     </row>
-    <row r="543" spans="1:8" ht="13">
+    <row r="543" spans="1:8" ht="12.75">
       <c r="A543" s="20"/>
       <c r="B543" s="21"/>
       <c r="C543" s="21"/>
@@ -5739,7 +5609,7 @@
       <c r="F543" s="21"/>
       <c r="H543" s="5"/>
     </row>
-    <row r="544" spans="1:8" ht="13">
+    <row r="544" spans="1:8" ht="12.75">
       <c r="A544" s="20"/>
       <c r="B544" s="21"/>
       <c r="C544" s="21"/>
@@ -5748,7 +5618,7 @@
       <c r="F544" s="21"/>
       <c r="H544" s="5"/>
     </row>
-    <row r="545" spans="1:8" ht="13">
+    <row r="545" spans="1:8" ht="12.75">
       <c r="A545" s="20"/>
       <c r="B545" s="21"/>
       <c r="C545" s="21"/>
@@ -5757,7 +5627,7 @@
       <c r="F545" s="21"/>
       <c r="H545" s="5"/>
     </row>
-    <row r="546" spans="1:8" ht="13">
+    <row r="546" spans="1:8" ht="12.75">
       <c r="A546" s="20"/>
       <c r="B546" s="21"/>
       <c r="C546" s="21"/>
@@ -5766,7 +5636,7 @@
       <c r="F546" s="21"/>
       <c r="H546" s="5"/>
     </row>
-    <row r="547" spans="1:8" ht="13">
+    <row r="547" spans="1:8" ht="12.75">
       <c r="A547" s="20"/>
       <c r="B547" s="21"/>
       <c r="C547" s="21"/>
@@ -5775,7 +5645,7 @@
       <c r="F547" s="21"/>
       <c r="H547" s="5"/>
     </row>
-    <row r="548" spans="1:8" ht="13">
+    <row r="548" spans="1:8" ht="12.75">
       <c r="A548" s="20"/>
       <c r="B548" s="21"/>
       <c r="C548" s="21"/>
@@ -5784,7 +5654,7 @@
       <c r="F548" s="21"/>
       <c r="H548" s="5"/>
     </row>
-    <row r="549" spans="1:8" ht="13">
+    <row r="549" spans="1:8" ht="12.75">
       <c r="A549" s="20"/>
       <c r="B549" s="21"/>
       <c r="C549" s="21"/>
@@ -5793,7 +5663,7 @@
       <c r="F549" s="21"/>
       <c r="H549" s="5"/>
     </row>
-    <row r="550" spans="1:8" ht="13">
+    <row r="550" spans="1:8" ht="12.75">
       <c r="A550" s="20"/>
       <c r="B550" s="21"/>
       <c r="C550" s="21"/>
@@ -5802,7 +5672,7 @@
       <c r="F550" s="21"/>
       <c r="H550" s="5"/>
     </row>
-    <row r="551" spans="1:8" ht="13">
+    <row r="551" spans="1:8" ht="12.75">
       <c r="A551" s="20"/>
       <c r="B551" s="21"/>
       <c r="C551" s="21"/>
@@ -5811,7 +5681,7 @@
       <c r="F551" s="21"/>
       <c r="H551" s="5"/>
     </row>
-    <row r="552" spans="1:8" ht="13">
+    <row r="552" spans="1:8" ht="12.75">
       <c r="A552" s="20"/>
       <c r="B552" s="21"/>
       <c r="C552" s="21"/>
@@ -5820,7 +5690,7 @@
       <c r="F552" s="21"/>
       <c r="H552" s="5"/>
     </row>
-    <row r="553" spans="1:8" ht="13">
+    <row r="553" spans="1:8" ht="12.75">
       <c r="A553" s="20"/>
       <c r="B553" s="21"/>
       <c r="C553" s="21"/>
@@ -5829,7 +5699,7 @@
       <c r="F553" s="21"/>
       <c r="H553" s="5"/>
     </row>
-    <row r="554" spans="1:8" ht="13">
+    <row r="554" spans="1:8" ht="12.75">
       <c r="A554" s="20"/>
       <c r="B554" s="21"/>
       <c r="C554" s="21"/>
@@ -5838,7 +5708,7 @@
       <c r="F554" s="21"/>
       <c r="H554" s="5"/>
     </row>
-    <row r="555" spans="1:8" ht="13">
+    <row r="555" spans="1:8" ht="12.75">
       <c r="A555" s="20"/>
       <c r="B555" s="21"/>
       <c r="C555" s="21"/>
@@ -5847,7 +5717,7 @@
       <c r="F555" s="21"/>
       <c r="H555" s="5"/>
     </row>
-    <row r="556" spans="1:8" ht="13">
+    <row r="556" spans="1:8" ht="12.75">
       <c r="A556" s="20"/>
       <c r="B556" s="21"/>
       <c r="C556" s="21"/>
@@ -5856,7 +5726,7 @@
       <c r="F556" s="21"/>
       <c r="H556" s="5"/>
     </row>
-    <row r="557" spans="1:8" ht="13">
+    <row r="557" spans="1:8" ht="12.75">
       <c r="A557" s="20"/>
       <c r="B557" s="21"/>
       <c r="C557" s="21"/>
@@ -5865,7 +5735,7 @@
       <c r="F557" s="21"/>
       <c r="H557" s="5"/>
     </row>
-    <row r="558" spans="1:8" ht="13">
+    <row r="558" spans="1:8" ht="12.75">
       <c r="A558" s="20"/>
       <c r="B558" s="21"/>
       <c r="C558" s="21"/>
@@ -5874,7 +5744,7 @@
       <c r="F558" s="21"/>
       <c r="H558" s="5"/>
     </row>
-    <row r="559" spans="1:8" ht="13">
+    <row r="559" spans="1:8" ht="12.75">
       <c r="A559" s="20"/>
       <c r="B559" s="21"/>
       <c r="C559" s="21"/>
@@ -5883,7 +5753,7 @@
       <c r="F559" s="21"/>
       <c r="H559" s="5"/>
     </row>
-    <row r="560" spans="1:8" ht="13">
+    <row r="560" spans="1:8" ht="12.75">
       <c r="A560" s="20"/>
       <c r="B560" s="21"/>
       <c r="C560" s="21"/>
@@ -5892,7 +5762,7 @@
       <c r="F560" s="21"/>
       <c r="H560" s="5"/>
     </row>
-    <row r="561" spans="1:8" ht="13">
+    <row r="561" spans="1:8" ht="12.75">
       <c r="A561" s="20"/>
       <c r="B561" s="21"/>
       <c r="C561" s="21"/>
@@ -5901,7 +5771,7 @@
       <c r="F561" s="21"/>
       <c r="H561" s="5"/>
     </row>
-    <row r="562" spans="1:8" ht="13">
+    <row r="562" spans="1:8" ht="12.75">
       <c r="A562" s="20"/>
       <c r="B562" s="21"/>
       <c r="C562" s="21"/>
@@ -5910,7 +5780,7 @@
       <c r="F562" s="21"/>
       <c r="H562" s="5"/>
     </row>
-    <row r="563" spans="1:8" ht="13">
+    <row r="563" spans="1:8" ht="12.75">
       <c r="A563" s="20"/>
       <c r="B563" s="21"/>
       <c r="C563" s="21"/>
@@ -5919,7 +5789,7 @@
       <c r="F563" s="21"/>
       <c r="H563" s="5"/>
     </row>
-    <row r="564" spans="1:8" ht="13">
+    <row r="564" spans="1:8" ht="12.75">
       <c r="A564" s="20"/>
       <c r="B564" s="21"/>
       <c r="C564" s="21"/>
@@ -5928,7 +5798,7 @@
       <c r="F564" s="21"/>
       <c r="H564" s="5"/>
     </row>
-    <row r="565" spans="1:8" ht="13">
+    <row r="565" spans="1:8" ht="12.75">
       <c r="A565" s="20"/>
       <c r="B565" s="21"/>
       <c r="C565" s="21"/>
@@ -5937,7 +5807,7 @@
       <c r="F565" s="21"/>
       <c r="H565" s="5"/>
     </row>
-    <row r="566" spans="1:8" ht="13">
+    <row r="566" spans="1:8" ht="12.75">
       <c r="A566" s="20"/>
       <c r="B566" s="21"/>
       <c r="C566" s="21"/>
@@ -5946,7 +5816,7 @@
       <c r="F566" s="21"/>
       <c r="H566" s="5"/>
     </row>
-    <row r="567" spans="1:8" ht="13">
+    <row r="567" spans="1:8" ht="12.75">
       <c r="A567" s="20"/>
       <c r="B567" s="21"/>
       <c r="C567" s="21"/>
@@ -5955,7 +5825,7 @@
       <c r="F567" s="21"/>
       <c r="H567" s="5"/>
     </row>
-    <row r="568" spans="1:8" ht="13">
+    <row r="568" spans="1:8" ht="12.75">
       <c r="A568" s="20"/>
       <c r="B568" s="21"/>
       <c r="C568" s="21"/>
@@ -5964,7 +5834,7 @@
       <c r="F568" s="21"/>
       <c r="H568" s="5"/>
     </row>
-    <row r="569" spans="1:8" ht="13">
+    <row r="569" spans="1:8" ht="12.75">
       <c r="A569" s="20"/>
       <c r="B569" s="21"/>
       <c r="C569" s="21"/>
@@ -5973,7 +5843,7 @@
       <c r="F569" s="21"/>
       <c r="H569" s="5"/>
     </row>
-    <row r="570" spans="1:8" ht="13">
+    <row r="570" spans="1:8" ht="12.75">
       <c r="A570" s="20"/>
       <c r="B570" s="21"/>
       <c r="C570" s="21"/>
@@ -5982,7 +5852,7 @@
       <c r="F570" s="21"/>
       <c r="H570" s="5"/>
     </row>
-    <row r="571" spans="1:8" ht="13">
+    <row r="571" spans="1:8" ht="12.75">
       <c r="A571" s="20"/>
       <c r="B571" s="21"/>
       <c r="C571" s="21"/>
@@ -5991,7 +5861,7 @@
       <c r="F571" s="21"/>
       <c r="H571" s="5"/>
     </row>
-    <row r="572" spans="1:8" ht="13">
+    <row r="572" spans="1:8" ht="12.75">
       <c r="A572" s="20"/>
       <c r="B572" s="21"/>
       <c r="C572" s="21"/>
@@ -6000,7 +5870,7 @@
       <c r="F572" s="21"/>
       <c r="H572" s="5"/>
     </row>
-    <row r="573" spans="1:8" ht="13">
+    <row r="573" spans="1:8" ht="12.75">
       <c r="A573" s="20"/>
       <c r="B573" s="21"/>
       <c r="C573" s="21"/>
@@ -6009,7 +5879,7 @@
       <c r="F573" s="21"/>
       <c r="H573" s="5"/>
     </row>
-    <row r="574" spans="1:8" ht="13">
+    <row r="574" spans="1:8" ht="12.75">
       <c r="A574" s="20"/>
       <c r="B574" s="21"/>
       <c r="C574" s="21"/>
@@ -6018,7 +5888,7 @@
       <c r="F574" s="21"/>
       <c r="H574" s="5"/>
     </row>
-    <row r="575" spans="1:8" ht="13">
+    <row r="575" spans="1:8" ht="12.75">
       <c r="A575" s="20"/>
       <c r="B575" s="21"/>
       <c r="C575" s="21"/>
@@ -6027,7 +5897,7 @@
       <c r="F575" s="21"/>
       <c r="H575" s="5"/>
     </row>
-    <row r="576" spans="1:8" ht="13">
+    <row r="576" spans="1:8" ht="12.75">
       <c r="A576" s="20"/>
       <c r="B576" s="21"/>
       <c r="C576" s="21"/>
@@ -6036,7 +5906,7 @@
       <c r="F576" s="21"/>
       <c r="H576" s="5"/>
     </row>
-    <row r="577" spans="1:8" ht="13">
+    <row r="577" spans="1:8" ht="12.75">
       <c r="A577" s="20"/>
       <c r="B577" s="21"/>
       <c r="C577" s="21"/>
@@ -6045,7 +5915,7 @@
       <c r="F577" s="21"/>
       <c r="H577" s="5"/>
     </row>
-    <row r="578" spans="1:8" ht="13">
+    <row r="578" spans="1:8" ht="12.75">
       <c r="A578" s="20"/>
       <c r="B578" s="21"/>
       <c r="C578" s="21"/>
@@ -6054,7 +5924,7 @@
       <c r="F578" s="21"/>
       <c r="H578" s="5"/>
     </row>
-    <row r="579" spans="1:8" ht="13">
+    <row r="579" spans="1:8" ht="12.75">
       <c r="A579" s="20"/>
       <c r="B579" s="21"/>
       <c r="C579" s="21"/>
@@ -6063,7 +5933,7 @@
       <c r="F579" s="21"/>
       <c r="H579" s="5"/>
     </row>
-    <row r="580" spans="1:8" ht="13">
+    <row r="580" spans="1:8" ht="12.75">
       <c r="A580" s="20"/>
       <c r="B580" s="21"/>
       <c r="C580" s="21"/>
@@ -6072,7 +5942,7 @@
       <c r="F580" s="21"/>
       <c r="H580" s="5"/>
     </row>
-    <row r="581" spans="1:8" ht="13">
+    <row r="581" spans="1:8" ht="12.75">
       <c r="A581" s="20"/>
       <c r="B581" s="21"/>
       <c r="C581" s="21"/>
@@ -6081,7 +5951,7 @@
       <c r="F581" s="21"/>
       <c r="H581" s="5"/>
     </row>
-    <row r="582" spans="1:8" ht="13">
+    <row r="582" spans="1:8" ht="12.75">
       <c r="A582" s="20"/>
       <c r="B582" s="21"/>
       <c r="C582" s="21"/>
@@ -6090,7 +5960,7 @@
       <c r="F582" s="21"/>
       <c r="H582" s="5"/>
     </row>
-    <row r="583" spans="1:8" ht="13">
+    <row r="583" spans="1:8" ht="12.75">
       <c r="A583" s="20"/>
       <c r="B583" s="21"/>
       <c r="C583" s="21"/>
@@ -6099,7 +5969,7 @@
       <c r="F583" s="21"/>
       <c r="H583" s="5"/>
     </row>
-    <row r="584" spans="1:8" ht="13">
+    <row r="584" spans="1:8" ht="12.75">
       <c r="A584" s="20"/>
       <c r="B584" s="21"/>
       <c r="C584" s="21"/>
@@ -6108,7 +5978,7 @@
       <c r="F584" s="21"/>
       <c r="H584" s="5"/>
     </row>
-    <row r="585" spans="1:8" ht="13">
+    <row r="585" spans="1:8" ht="12.75">
       <c r="A585" s="20"/>
       <c r="B585" s="21"/>
       <c r="C585" s="21"/>
@@ -6117,7 +5987,7 @@
       <c r="F585" s="21"/>
       <c r="H585" s="5"/>
     </row>
-    <row r="586" spans="1:8" ht="13">
+    <row r="586" spans="1:8" ht="12.75">
       <c r="A586" s="20"/>
       <c r="B586" s="21"/>
       <c r="C586" s="21"/>
@@ -6126,7 +5996,7 @@
       <c r="F586" s="21"/>
       <c r="H586" s="5"/>
     </row>
-    <row r="587" spans="1:8" ht="13">
+    <row r="587" spans="1:8" ht="12.75">
       <c r="A587" s="20"/>
       <c r="B587" s="21"/>
       <c r="C587" s="21"/>
@@ -6135,7 +6005,7 @@
       <c r="F587" s="21"/>
       <c r="H587" s="5"/>
     </row>
-    <row r="588" spans="1:8" ht="13">
+    <row r="588" spans="1:8" ht="12.75">
       <c r="A588" s="20"/>
       <c r="B588" s="21"/>
       <c r="C588" s="21"/>
@@ -6144,7 +6014,7 @@
       <c r="F588" s="21"/>
       <c r="H588" s="5"/>
     </row>
-    <row r="589" spans="1:8" ht="13">
+    <row r="589" spans="1:8" ht="12.75">
       <c r="A589" s="20"/>
       <c r="B589" s="21"/>
       <c r="C589" s="21"/>
@@ -6153,7 +6023,7 @@
       <c r="F589" s="21"/>
       <c r="H589" s="5"/>
     </row>
-    <row r="590" spans="1:8" ht="13">
+    <row r="590" spans="1:8" ht="12.75">
       <c r="A590" s="20"/>
       <c r="B590" s="21"/>
       <c r="C590" s="21"/>
@@ -6162,7 +6032,7 @@
       <c r="F590" s="21"/>
       <c r="H590" s="5"/>
     </row>
-    <row r="591" spans="1:8" ht="13">
+    <row r="591" spans="1:8" ht="12.75">
       <c r="A591" s="20"/>
       <c r="B591" s="21"/>
       <c r="C591" s="21"/>
@@ -6171,7 +6041,7 @@
       <c r="F591" s="21"/>
       <c r="H591" s="5"/>
     </row>
-    <row r="592" spans="1:8" ht="13">
+    <row r="592" spans="1:8" ht="12.75">
       <c r="A592" s="20"/>
       <c r="B592" s="21"/>
       <c r="C592" s="21"/>
@@ -6180,7 +6050,7 @@
       <c r="F592" s="21"/>
       <c r="H592" s="5"/>
     </row>
-    <row r="593" spans="1:8" ht="13">
+    <row r="593" spans="1:8" ht="12.75">
       <c r="A593" s="20"/>
       <c r="B593" s="21"/>
       <c r="C593" s="21"/>
@@ -6189,7 +6059,7 @@
       <c r="F593" s="21"/>
       <c r="H593" s="5"/>
     </row>
-    <row r="594" spans="1:8" ht="13">
+    <row r="594" spans="1:8" ht="12.75">
       <c r="A594" s="20"/>
       <c r="B594" s="21"/>
       <c r="C594" s="21"/>
@@ -6198,7 +6068,7 @@
       <c r="F594" s="21"/>
       <c r="H594" s="5"/>
     </row>
-    <row r="595" spans="1:8" ht="13">
+    <row r="595" spans="1:8" ht="12.75">
       <c r="A595" s="20"/>
       <c r="B595" s="21"/>
       <c r="C595" s="21"/>
@@ -6207,7 +6077,7 @@
       <c r="F595" s="21"/>
       <c r="H595" s="5"/>
     </row>
-    <row r="596" spans="1:8" ht="13">
+    <row r="596" spans="1:8" ht="12.75">
       <c r="A596" s="20"/>
       <c r="B596" s="21"/>
       <c r="C596" s="21"/>
@@ -6216,7 +6086,7 @@
       <c r="F596" s="21"/>
       <c r="H596" s="5"/>
     </row>
-    <row r="597" spans="1:8" ht="13">
+    <row r="597" spans="1:8" ht="12.75">
       <c r="A597" s="20"/>
       <c r="B597" s="21"/>
       <c r="C597" s="21"/>
@@ -6225,7 +6095,7 @@
       <c r="F597" s="21"/>
       <c r="H597" s="5"/>
     </row>
-    <row r="598" spans="1:8" ht="13">
+    <row r="598" spans="1:8" ht="12.75">
       <c r="A598" s="20"/>
       <c r="B598" s="21"/>
       <c r="C598" s="21"/>
@@ -6234,7 +6104,7 @@
       <c r="F598" s="21"/>
       <c r="H598" s="5"/>
     </row>
-    <row r="599" spans="1:8" ht="13">
+    <row r="599" spans="1:8" ht="12.75">
       <c r="A599" s="20"/>
       <c r="B599" s="21"/>
       <c r="C599" s="21"/>
@@ -6243,7 +6113,7 @@
       <c r="F599" s="21"/>
       <c r="H599" s="5"/>
     </row>
-    <row r="600" spans="1:8" ht="13">
+    <row r="600" spans="1:8" ht="12.75">
       <c r="A600" s="20"/>
       <c r="B600" s="21"/>
       <c r="C600" s="21"/>
@@ -6252,7 +6122,7 @@
       <c r="F600" s="21"/>
       <c r="H600" s="5"/>
     </row>
-    <row r="601" spans="1:8" ht="13">
+    <row r="601" spans="1:8" ht="12.75">
       <c r="A601" s="20"/>
       <c r="B601" s="21"/>
       <c r="C601" s="21"/>
@@ -6261,7 +6131,7 @@
       <c r="F601" s="21"/>
       <c r="H601" s="5"/>
     </row>
-    <row r="602" spans="1:8" ht="13">
+    <row r="602" spans="1:8" ht="12.75">
       <c r="A602" s="20"/>
       <c r="B602" s="21"/>
       <c r="C602" s="21"/>
@@ -6270,7 +6140,7 @@
       <c r="F602" s="21"/>
       <c r="H602" s="5"/>
     </row>
-    <row r="603" spans="1:8" ht="13">
+    <row r="603" spans="1:8" ht="12.75">
       <c r="A603" s="20"/>
       <c r="B603" s="21"/>
       <c r="C603" s="21"/>
@@ -6279,7 +6149,7 @@
       <c r="F603" s="21"/>
       <c r="H603" s="5"/>
     </row>
-    <row r="604" spans="1:8" ht="13">
+    <row r="604" spans="1:8" ht="12.75">
       <c r="A604" s="20"/>
       <c r="B604" s="21"/>
       <c r="C604" s="21"/>
@@ -6288,7 +6158,7 @@
       <c r="F604" s="21"/>
       <c r="H604" s="5"/>
     </row>
-    <row r="605" spans="1:8" ht="13">
+    <row r="605" spans="1:8" ht="12.75">
       <c r="A605" s="20"/>
       <c r="B605" s="21"/>
       <c r="C605" s="21"/>
@@ -6297,7 +6167,7 @@
       <c r="F605" s="21"/>
       <c r="H605" s="5"/>
     </row>
-    <row r="606" spans="1:8" ht="13">
+    <row r="606" spans="1:8" ht="12.75">
       <c r="A606" s="20"/>
       <c r="B606" s="21"/>
       <c r="C606" s="21"/>
@@ -6306,7 +6176,7 @@
       <c r="F606" s="21"/>
       <c r="H606" s="5"/>
     </row>
-    <row r="607" spans="1:8" ht="13">
+    <row r="607" spans="1:8" ht="12.75">
       <c r="A607" s="20"/>
       <c r="B607" s="21"/>
       <c r="C607" s="21"/>
@@ -6315,7 +6185,7 @@
       <c r="F607" s="21"/>
       <c r="H607" s="5"/>
     </row>
-    <row r="608" spans="1:8" ht="13">
+    <row r="608" spans="1:8" ht="12.75">
       <c r="A608" s="20"/>
       <c r="B608" s="21"/>
       <c r="C608" s="21"/>
@@ -6324,7 +6194,7 @@
       <c r="F608" s="21"/>
       <c r="H608" s="5"/>
     </row>
-    <row r="609" spans="1:8" ht="13">
+    <row r="609" spans="1:8" ht="12.75">
       <c r="A609" s="20"/>
       <c r="B609" s="21"/>
       <c r="C609" s="21"/>
@@ -6333,7 +6203,7 @@
       <c r="F609" s="21"/>
       <c r="H609" s="5"/>
     </row>
-    <row r="610" spans="1:8" ht="13">
+    <row r="610" spans="1:8" ht="12.75">
       <c r="A610" s="20"/>
       <c r="B610" s="21"/>
       <c r="C610" s="21"/>
@@ -6342,7 +6212,7 @@
       <c r="F610" s="21"/>
       <c r="H610" s="5"/>
     </row>
-    <row r="611" spans="1:8" ht="13">
+    <row r="611" spans="1:8" ht="12.75">
       <c r="A611" s="20"/>
       <c r="B611" s="21"/>
       <c r="C611" s="21"/>
@@ -6351,7 +6221,7 @@
       <c r="F611" s="21"/>
       <c r="H611" s="5"/>
     </row>
-    <row r="612" spans="1:8" ht="13">
+    <row r="612" spans="1:8" ht="12.75">
       <c r="A612" s="20"/>
       <c r="B612" s="21"/>
       <c r="C612" s="21"/>
@@ -6360,7 +6230,7 @@
       <c r="F612" s="21"/>
       <c r="H612" s="5"/>
     </row>
-    <row r="613" spans="1:8" ht="13">
+    <row r="613" spans="1:8" ht="12.75">
       <c r="A613" s="20"/>
       <c r="B613" s="21"/>
       <c r="C613" s="21"/>
@@ -6369,7 +6239,7 @@
       <c r="F613" s="21"/>
       <c r="H613" s="5"/>
     </row>
-    <row r="614" spans="1:8" ht="13">
+    <row r="614" spans="1:8" ht="12.75">
       <c r="A614" s="20"/>
       <c r="B614" s="21"/>
       <c r="C614" s="21"/>
@@ -6378,7 +6248,7 @@
       <c r="F614" s="21"/>
       <c r="H614" s="5"/>
     </row>
-    <row r="615" spans="1:8" ht="13">
+    <row r="615" spans="1:8" ht="12.75">
       <c r="A615" s="20"/>
       <c r="B615" s="21"/>
       <c r="C615" s="21"/>
@@ -6387,7 +6257,7 @@
       <c r="F615" s="21"/>
       <c r="H615" s="5"/>
     </row>
-    <row r="616" spans="1:8" ht="13">
+    <row r="616" spans="1:8" ht="12.75">
       <c r="A616" s="20"/>
       <c r="B616" s="21"/>
       <c r="C616" s="21"/>
@@ -6396,7 +6266,7 @@
       <c r="F616" s="21"/>
       <c r="H616" s="5"/>
     </row>
-    <row r="617" spans="1:8" ht="13">
+    <row r="617" spans="1:8" ht="12.75">
       <c r="A617" s="20"/>
       <c r="B617" s="21"/>
       <c r="C617" s="21"/>
@@ -6405,7 +6275,7 @@
       <c r="F617" s="21"/>
       <c r="H617" s="5"/>
     </row>
-    <row r="618" spans="1:8" ht="13">
+    <row r="618" spans="1:8" ht="12.75">
       <c r="A618" s="20"/>
       <c r="B618" s="21"/>
       <c r="C618" s="21"/>
@@ -6414,7 +6284,7 @@
       <c r="F618" s="21"/>
       <c r="H618" s="5"/>
     </row>
-    <row r="619" spans="1:8" ht="13">
+    <row r="619" spans="1:8" ht="12.75">
       <c r="A619" s="20"/>
       <c r="B619" s="21"/>
       <c r="C619" s="21"/>
@@ -6423,7 +6293,7 @@
       <c r="F619" s="21"/>
       <c r="H619" s="5"/>
     </row>
-    <row r="620" spans="1:8" ht="13">
+    <row r="620" spans="1:8" ht="12.75">
       <c r="A620" s="20"/>
       <c r="B620" s="21"/>
       <c r="C620" s="21"/>
@@ -6432,7 +6302,7 @@
       <c r="F620" s="21"/>
       <c r="H620" s="5"/>
     </row>
-    <row r="621" spans="1:8" ht="13">
+    <row r="621" spans="1:8" ht="12.75">
       <c r="A621" s="20"/>
       <c r="B621" s="21"/>
       <c r="C621" s="21"/>
@@ -6441,7 +6311,7 @@
       <c r="F621" s="21"/>
       <c r="H621" s="5"/>
     </row>
-    <row r="622" spans="1:8" ht="13">
+    <row r="622" spans="1:8" ht="12.75">
       <c r="A622" s="20"/>
       <c r="B622" s="21"/>
       <c r="C622" s="21"/>
@@ -6450,7 +6320,7 @@
       <c r="F622" s="21"/>
       <c r="H622" s="5"/>
     </row>
-    <row r="623" spans="1:8" ht="13">
+    <row r="623" spans="1:8" ht="12.75">
       <c r="A623" s="20"/>
       <c r="B623" s="21"/>
       <c r="C623" s="21"/>
@@ -6459,7 +6329,7 @@
       <c r="F623" s="21"/>
       <c r="H623" s="5"/>
     </row>
-    <row r="624" spans="1:8" ht="13">
+    <row r="624" spans="1:8" ht="12.75">
       <c r="A624" s="20"/>
       <c r="B624" s="21"/>
       <c r="C624" s="21"/>
@@ -6468,7 +6338,7 @@
       <c r="F624" s="21"/>
       <c r="H624" s="5"/>
     </row>
-    <row r="625" spans="1:8" ht="13">
+    <row r="625" spans="1:8" ht="12.75">
       <c r="A625" s="20"/>
       <c r="B625" s="21"/>
       <c r="C625" s="21"/>
@@ -6477,7 +6347,7 @@
       <c r="F625" s="21"/>
       <c r="H625" s="5"/>
     </row>
-    <row r="626" spans="1:8" ht="13">
+    <row r="626" spans="1:8" ht="12.75">
       <c r="A626" s="20"/>
       <c r="B626" s="21"/>
       <c r="C626" s="21"/>
@@ -6486,7 +6356,7 @@
       <c r="F626" s="21"/>
       <c r="H626" s="5"/>
     </row>
-    <row r="627" spans="1:8" ht="13">
+    <row r="627" spans="1:8" ht="12.75">
       <c r="A627" s="20"/>
       <c r="B627" s="21"/>
       <c r="C627" s="21"/>
@@ -6495,7 +6365,7 @@
       <c r="F627" s="21"/>
       <c r="H627" s="5"/>
     </row>
-    <row r="628" spans="1:8" ht="13">
+    <row r="628" spans="1:8" ht="12.75">
       <c r="A628" s="20"/>
       <c r="B628" s="21"/>
       <c r="C628" s="21"/>
@@ -6504,7 +6374,7 @@
       <c r="F628" s="21"/>
       <c r="H628" s="5"/>
     </row>
-    <row r="629" spans="1:8" ht="13">
+    <row r="629" spans="1:8" ht="12.75">
       <c r="A629" s="20"/>
       <c r="B629" s="21"/>
       <c r="C629" s="21"/>
@@ -6513,7 +6383,7 @@
       <c r="F629" s="21"/>
       <c r="H629" s="5"/>
     </row>
-    <row r="630" spans="1:8" ht="13">
+    <row r="630" spans="1:8" ht="12.75">
       <c r="A630" s="20"/>
       <c r="B630" s="21"/>
       <c r="C630" s="21"/>
@@ -6522,7 +6392,7 @@
       <c r="F630" s="21"/>
       <c r="H630" s="5"/>
     </row>
-    <row r="631" spans="1:8" ht="13">
+    <row r="631" spans="1:8" ht="12.75">
       <c r="A631" s="20"/>
       <c r="B631" s="21"/>
       <c r="C631" s="21"/>
@@ -6531,7 +6401,7 @@
       <c r="F631" s="21"/>
       <c r="H631" s="5"/>
     </row>
-    <row r="632" spans="1:8" ht="13">
+    <row r="632" spans="1:8" ht="12.75">
       <c r="A632" s="20"/>
       <c r="B632" s="21"/>
       <c r="C632" s="21"/>
@@ -6540,7 +6410,7 @@
       <c r="F632" s="21"/>
       <c r="H632" s="5"/>
     </row>
-    <row r="633" spans="1:8" ht="13">
+    <row r="633" spans="1:8" ht="12.75">
       <c r="A633" s="20"/>
       <c r="B633" s="21"/>
       <c r="C633" s="21"/>
@@ -6549,7 +6419,7 @@
       <c r="F633" s="21"/>
       <c r="H633" s="5"/>
     </row>
-    <row r="634" spans="1:8" ht="13">
+    <row r="634" spans="1:8" ht="12.75">
       <c r="A634" s="20"/>
       <c r="B634" s="21"/>
       <c r="C634" s="21"/>
@@ -6558,7 +6428,7 @@
       <c r="F634" s="21"/>
       <c r="H634" s="5"/>
     </row>
-    <row r="635" spans="1:8" ht="13">
+    <row r="635" spans="1:8" ht="12.75">
       <c r="A635" s="20"/>
       <c r="B635" s="21"/>
       <c r="C635" s="21"/>
@@ -6567,7 +6437,7 @@
       <c r="F635" s="21"/>
       <c r="H635" s="5"/>
     </row>
-    <row r="636" spans="1:8" ht="13">
+    <row r="636" spans="1:8" ht="12.75">
       <c r="A636" s="20"/>
       <c r="B636" s="21"/>
       <c r="C636" s="21"/>
@@ -6576,7 +6446,7 @@
       <c r="F636" s="21"/>
       <c r="H636" s="5"/>
     </row>
-    <row r="637" spans="1:8" ht="13">
+    <row r="637" spans="1:8" ht="12.75">
       <c r="A637" s="20"/>
       <c r="B637" s="21"/>
       <c r="C637" s="21"/>
@@ -6585,7 +6455,7 @@
       <c r="F637" s="21"/>
       <c r="H637" s="5"/>
     </row>
-    <row r="638" spans="1:8" ht="13">
+    <row r="638" spans="1:8" ht="12.75">
       <c r="A638" s="20"/>
       <c r="B638" s="21"/>
       <c r="C638" s="21"/>
@@ -6594,7 +6464,7 @@
       <c r="F638" s="21"/>
       <c r="H638" s="5"/>
     </row>
-    <row r="639" spans="1:8" ht="13">
+    <row r="639" spans="1:8" ht="12.75">
       <c r="A639" s="20"/>
       <c r="B639" s="21"/>
       <c r="C639" s="21"/>
@@ -6603,7 +6473,7 @@
       <c r="F639" s="21"/>
       <c r="H639" s="5"/>
     </row>
-    <row r="640" spans="1:8" ht="13">
+    <row r="640" spans="1:8" ht="12.75">
       <c r="A640" s="20"/>
       <c r="B640" s="21"/>
       <c r="C640" s="21"/>
@@ -6612,7 +6482,7 @@
       <c r="F640" s="21"/>
       <c r="H640" s="5"/>
     </row>
-    <row r="641" spans="1:8" ht="13">
+    <row r="641" spans="1:8" ht="12.75">
       <c r="A641" s="20"/>
       <c r="B641" s="21"/>
       <c r="C641" s="21"/>
@@ -6621,7 +6491,7 @@
       <c r="F641" s="21"/>
       <c r="H641" s="5"/>
     </row>
-    <row r="642" spans="1:8" ht="13">
+    <row r="642" spans="1:8" ht="12.75">
       <c r="A642" s="20"/>
       <c r="B642" s="21"/>
       <c r="C642" s="21"/>
@@ -6630,7 +6500,7 @@
       <c r="F642" s="21"/>
       <c r="H642" s="5"/>
     </row>
-    <row r="643" spans="1:8" ht="13">
+    <row r="643" spans="1:8" ht="12.75">
       <c r="A643" s="20"/>
       <c r="B643" s="21"/>
       <c r="C643" s="21"/>
@@ -6639,7 +6509,7 @@
       <c r="F643" s="21"/>
       <c r="H643" s="5"/>
     </row>
-    <row r="644" spans="1:8" ht="13">
+    <row r="644" spans="1:8" ht="12.75">
       <c r="A644" s="20"/>
       <c r="B644" s="21"/>
       <c r="C644" s="21"/>
@@ -6648,7 +6518,7 @@
       <c r="F644" s="21"/>
       <c r="H644" s="5"/>
     </row>
-    <row r="645" spans="1:8" ht="13">
+    <row r="645" spans="1:8" ht="12.75">
       <c r="A645" s="20"/>
       <c r="B645" s="21"/>
       <c r="C645" s="21"/>
@@ -6657,7 +6527,7 @@
       <c r="F645" s="21"/>
       <c r="H645" s="5"/>
     </row>
-    <row r="646" spans="1:8" ht="13">
+    <row r="646" spans="1:8" ht="12.75">
       <c r="A646" s="20"/>
       <c r="B646" s="21"/>
       <c r="C646" s="21"/>
@@ -6666,7 +6536,7 @@
       <c r="F646" s="21"/>
       <c r="H646" s="5"/>
     </row>
-    <row r="647" spans="1:8" ht="13">
+    <row r="647" spans="1:8" ht="12.75">
       <c r="A647" s="20"/>
       <c r="B647" s="21"/>
       <c r="C647" s="21"/>
@@ -6675,7 +6545,7 @@
       <c r="F647" s="21"/>
       <c r="H647" s="5"/>
     </row>
-    <row r="648" spans="1:8" ht="13">
+    <row r="648" spans="1:8" ht="12.75">
       <c r="A648" s="20"/>
       <c r="B648" s="21"/>
       <c r="C648" s="21"/>
@@ -6684,7 +6554,7 @@
       <c r="F648" s="21"/>
       <c r="H648" s="5"/>
     </row>
-    <row r="649" spans="1:8" ht="13">
+    <row r="649" spans="1:8" ht="12.75">
       <c r="A649" s="20"/>
       <c r="B649" s="21"/>
       <c r="C649" s="21"/>
@@ -6693,7 +6563,7 @@
       <c r="F649" s="21"/>
       <c r="H649" s="5"/>
     </row>
-    <row r="650" spans="1:8" ht="13">
+    <row r="650" spans="1:8" ht="12.75">
       <c r="A650" s="20"/>
       <c r="B650" s="21"/>
       <c r="C650" s="21"/>
@@ -6702,7 +6572,7 @@
       <c r="F650" s="21"/>
       <c r="H650" s="5"/>
     </row>
-    <row r="651" spans="1:8" ht="13">
+    <row r="651" spans="1:8" ht="12.75">
       <c r="A651" s="20"/>
       <c r="B651" s="21"/>
       <c r="C651" s="21"/>
@@ -6711,7 +6581,7 @@
       <c r="F651" s="21"/>
       <c r="H651" s="5"/>
     </row>
-    <row r="652" spans="1:8" ht="13">
+    <row r="652" spans="1:8" ht="12.75">
       <c r="A652" s="20"/>
       <c r="B652" s="21"/>
       <c r="C652" s="21"/>
@@ -6720,7 +6590,7 @@
       <c r="F652" s="21"/>
       <c r="H652" s="5"/>
     </row>
-    <row r="653" spans="1:8" ht="13">
+    <row r="653" spans="1:8" ht="12.75">
       <c r="A653" s="20"/>
       <c r="B653" s="21"/>
       <c r="C653" s="21"/>
@@ -6729,7 +6599,7 @@
       <c r="F653" s="21"/>
       <c r="H653" s="5"/>
     </row>
-    <row r="654" spans="1:8" ht="13">
+    <row r="654" spans="1:8" ht="12.75">
       <c r="A654" s="20"/>
       <c r="B654" s="21"/>
       <c r="C654" s="21"/>
@@ -6738,7 +6608,7 @@
       <c r="F654" s="21"/>
       <c r="H654" s="5"/>
     </row>
-    <row r="655" spans="1:8" ht="13">
+    <row r="655" spans="1:8" ht="12.75">
       <c r="A655" s="20"/>
       <c r="B655" s="21"/>
       <c r="C655" s="21"/>
@@ -6747,7 +6617,7 @@
       <c r="F655" s="21"/>
       <c r="H655" s="5"/>
     </row>
-    <row r="656" spans="1:8" ht="13">
+    <row r="656" spans="1:8" ht="12.75">
       <c r="A656" s="20"/>
       <c r="B656" s="21"/>
       <c r="C656" s="21"/>
@@ -6756,7 +6626,7 @@
       <c r="F656" s="21"/>
       <c r="H656" s="5"/>
     </row>
-    <row r="657" spans="1:8" ht="13">
+    <row r="657" spans="1:8" ht="12.75">
       <c r="A657" s="20"/>
       <c r="B657" s="21"/>
       <c r="C657" s="21"/>
@@ -6765,7 +6635,7 @@
       <c r="F657" s="21"/>
       <c r="H657" s="5"/>
     </row>
-    <row r="658" spans="1:8" ht="13">
+    <row r="658" spans="1:8" ht="12.75">
       <c r="A658" s="20"/>
       <c r="B658" s="21"/>
       <c r="C658" s="21"/>
@@ -6774,7 +6644,7 @@
       <c r="F658" s="21"/>
       <c r="H658" s="5"/>
     </row>
-    <row r="659" spans="1:8" ht="13">
+    <row r="659" spans="1:8" ht="12.75">
       <c r="A659" s="20"/>
       <c r="B659" s="21"/>
       <c r="C659" s="21"/>
@@ -6783,7 +6653,7 @@
       <c r="F659" s="21"/>
       <c r="H659" s="5"/>
     </row>
-    <row r="660" spans="1:8" ht="13">
+    <row r="660" spans="1:8" ht="12.75">
       <c r="A660" s="20"/>
       <c r="B660" s="21"/>
       <c r="C660" s="21"/>
@@ -6792,7 +6662,7 @@
       <c r="F660" s="21"/>
       <c r="H660" s="5"/>
     </row>
-    <row r="661" spans="1:8" ht="13">
+    <row r="661" spans="1:8" ht="12.75">
       <c r="A661" s="20"/>
       <c r="B661" s="21"/>
       <c r="C661" s="21"/>
@@ -6801,7 +6671,7 @@
       <c r="F661" s="21"/>
       <c r="H661" s="5"/>
     </row>
-    <row r="662" spans="1:8" ht="13">
+    <row r="662" spans="1:8" ht="12.75">
       <c r="A662" s="20"/>
       <c r="B662" s="21"/>
       <c r="C662" s="21"/>
@@ -6810,7 +6680,7 @@
       <c r="F662" s="21"/>
       <c r="H662" s="5"/>
     </row>
-    <row r="663" spans="1:8" ht="13">
+    <row r="663" spans="1:8" ht="12.75">
       <c r="A663" s="20"/>
       <c r="B663" s="21"/>
       <c r="C663" s="21"/>
@@ -6819,7 +6689,7 @@
       <c r="F663" s="21"/>
       <c r="H663" s="5"/>
     </row>
-    <row r="664" spans="1:8" ht="13">
+    <row r="664" spans="1:8" ht="12.75">
       <c r="A664" s="20"/>
       <c r="B664" s="21"/>
       <c r="C664" s="21"/>
@@ -6828,7 +6698,7 @@
       <c r="F664" s="21"/>
       <c r="H664" s="5"/>
     </row>
-    <row r="665" spans="1:8" ht="13">
+    <row r="665" spans="1:8" ht="12.75">
       <c r="A665" s="20"/>
       <c r="B665" s="21"/>
       <c r="C665" s="21"/>
@@ -6837,7 +6707,7 @@
       <c r="F665" s="21"/>
       <c r="H665" s="5"/>
     </row>
-    <row r="666" spans="1:8" ht="13">
+    <row r="666" spans="1:8" ht="12.75">
       <c r="A666" s="20"/>
       <c r="B666" s="21"/>
       <c r="C666" s="21"/>
@@ -6846,7 +6716,7 @@
       <c r="F666" s="21"/>
       <c r="H666" s="5"/>
     </row>
-    <row r="667" spans="1:8" ht="13">
+    <row r="667" spans="1:8" ht="12.75">
       <c r="A667" s="20"/>
       <c r="B667" s="21"/>
       <c r="C667" s="21"/>
@@ -6855,7 +6725,7 @@
       <c r="F667" s="21"/>
       <c r="H667" s="5"/>
     </row>
-    <row r="668" spans="1:8" ht="13">
+    <row r="668" spans="1:8" ht="12.75">
       <c r="A668" s="20"/>
       <c r="B668" s="21"/>
       <c r="C668" s="21"/>
@@ -6864,7 +6734,7 @@
       <c r="F668" s="21"/>
       <c r="H668" s="5"/>
     </row>
-    <row r="669" spans="1:8" ht="13">
+    <row r="669" spans="1:8" ht="12.75">
       <c r="A669" s="20"/>
       <c r="B669" s="21"/>
       <c r="C669" s="21"/>
@@ -6873,7 +6743,7 @@
       <c r="F669" s="21"/>
       <c r="H669" s="5"/>
     </row>
-    <row r="670" spans="1:8" ht="13">
+    <row r="670" spans="1:8" ht="12.75">
       <c r="A670" s="20"/>
       <c r="B670" s="21"/>
       <c r="C670" s="21"/>
@@ -6882,7 +6752,7 @@
       <c r="F670" s="21"/>
       <c r="H670" s="5"/>
     </row>
-    <row r="671" spans="1:8" ht="13">
+    <row r="671" spans="1:8" ht="12.75">
       <c r="A671" s="20"/>
       <c r="B671" s="21"/>
       <c r="C671" s="21"/>
@@ -6891,7 +6761,7 @@
       <c r="F671" s="21"/>
       <c r="H671" s="5"/>
     </row>
-    <row r="672" spans="1:8" ht="13">
+    <row r="672" spans="1:8" ht="12.75">
       <c r="A672" s="20"/>
       <c r="B672" s="21"/>
       <c r="C672" s="21"/>
@@ -6900,7 +6770,7 @@
       <c r="F672" s="21"/>
       <c r="H672" s="5"/>
     </row>
-    <row r="673" spans="1:8" ht="13">
+    <row r="673" spans="1:8" ht="12.75">
       <c r="A673" s="20"/>
       <c r="B673" s="21"/>
       <c r="C673" s="21"/>
@@ -6909,7 +6779,7 @@
       <c r="F673" s="21"/>
       <c r="H673" s="5"/>
     </row>
-    <row r="674" spans="1:8" ht="13">
+    <row r="674" spans="1:8" ht="12.75">
       <c r="A674" s="20"/>
       <c r="B674" s="21"/>
       <c r="C674" s="21"/>
@@ -6918,7 +6788,7 @@
       <c r="F674" s="21"/>
       <c r="H674" s="5"/>
     </row>
-    <row r="675" spans="1:8" ht="13">
+    <row r="675" spans="1:8" ht="12.75">
       <c r="A675" s="20"/>
       <c r="B675" s="21"/>
       <c r="C675" s="21"/>
@@ -6927,7 +6797,7 @@
       <c r="F675" s="21"/>
       <c r="H675" s="5"/>
     </row>
-    <row r="676" spans="1:8" ht="13">
+    <row r="676" spans="1:8" ht="12.75">
       <c r="A676" s="20"/>
       <c r="B676" s="21"/>
       <c r="C676" s="21"/>
@@ -6936,7 +6806,7 @@
       <c r="F676" s="21"/>
       <c r="H676" s="5"/>
     </row>
-    <row r="677" spans="1:8" ht="13">
+    <row r="677" spans="1:8" ht="12.75">
       <c r="A677" s="20"/>
       <c r="B677" s="21"/>
       <c r="C677" s="21"/>
@@ -6945,7 +6815,7 @@
       <c r="F677" s="21"/>
       <c r="H677" s="5"/>
     </row>
-    <row r="678" spans="1:8" ht="13">
+    <row r="678" spans="1:8" ht="12.75">
       <c r="A678" s="20"/>
       <c r="B678" s="21"/>
       <c r="C678" s="21"/>
@@ -6954,7 +6824,7 @@
       <c r="F678" s="21"/>
       <c r="H678" s="5"/>
     </row>
-    <row r="679" spans="1:8" ht="13">
+    <row r="679" spans="1:8" ht="12.75">
       <c r="A679" s="20"/>
       <c r="B679" s="21"/>
       <c r="C679" s="21"/>
@@ -6963,7 +6833,7 @@
       <c r="F679" s="21"/>
       <c r="H679" s="5"/>
     </row>
-    <row r="680" spans="1:8" ht="13">
+    <row r="680" spans="1:8" ht="12.75">
       <c r="A680" s="20"/>
       <c r="B680" s="21"/>
       <c r="C680" s="21"/>
@@ -6972,7 +6842,7 @@
       <c r="F680" s="21"/>
       <c r="H680" s="5"/>
     </row>
-    <row r="681" spans="1:8" ht="13">
+    <row r="681" spans="1:8" ht="12.75">
       <c r="A681" s="20"/>
       <c r="B681" s="21"/>
       <c r="C681" s="21"/>
@@ -6981,7 +6851,7 @@
       <c r="F681" s="21"/>
       <c r="H681" s="5"/>
     </row>
-    <row r="682" spans="1:8" ht="13">
+    <row r="682" spans="1:8" ht="12.75">
       <c r="A682" s="20"/>
       <c r="B682" s="21"/>
       <c r="C682" s="21"/>
@@ -6990,7 +6860,7 @@
       <c r="F682" s="21"/>
       <c r="H682" s="5"/>
     </row>
-    <row r="683" spans="1:8" ht="13">
+    <row r="683" spans="1:8" ht="12.75">
       <c r="A683" s="20"/>
       <c r="B683" s="21"/>
       <c r="C683" s="21"/>
@@ -6999,7 +6869,7 @@
       <c r="F683" s="21"/>
       <c r="H683" s="5"/>
     </row>
-    <row r="684" spans="1:8" ht="13">
+    <row r="684" spans="1:8" ht="12.75">
       <c r="A684" s="20"/>
       <c r="B684" s="21"/>
       <c r="C684" s="21"/>
@@ -7008,7 +6878,7 @@
       <c r="F684" s="21"/>
       <c r="H684" s="5"/>
     </row>
-    <row r="685" spans="1:8" ht="13">
+    <row r="685" spans="1:8" ht="12.75">
       <c r="A685" s="20"/>
       <c r="B685" s="21"/>
       <c r="C685" s="21"/>
@@ -7017,7 +6887,7 @@
       <c r="F685" s="21"/>
       <c r="H685" s="5"/>
     </row>
-    <row r="686" spans="1:8" ht="13">
+    <row r="686" spans="1:8" ht="12.75">
       <c r="A686" s="20"/>
       <c r="B686" s="21"/>
       <c r="C686" s="21"/>
@@ -7026,7 +6896,7 @@
       <c r="F686" s="21"/>
       <c r="H686" s="5"/>
     </row>
-    <row r="687" spans="1:8" ht="13">
+    <row r="687" spans="1:8" ht="12.75">
       <c r="A687" s="20"/>
       <c r="B687" s="21"/>
       <c r="C687" s="21"/>
@@ -7035,7 +6905,7 @@
       <c r="F687" s="21"/>
       <c r="H687" s="5"/>
     </row>
-    <row r="688" spans="1:8" ht="13">
+    <row r="688" spans="1:8" ht="12.75">
       <c r="A688" s="20"/>
       <c r="B688" s="21"/>
       <c r="C688" s="21"/>
@@ -7044,7 +6914,7 @@
       <c r="F688" s="21"/>
       <c r="H688" s="5"/>
     </row>
-    <row r="689" spans="1:8" ht="13">
+    <row r="689" spans="1:8" ht="12.75">
       <c r="A689" s="20"/>
       <c r="B689" s="21"/>
       <c r="C689" s="21"/>
@@ -7053,7 +6923,7 @@
       <c r="F689" s="21"/>
       <c r="H689" s="5"/>
     </row>
-    <row r="690" spans="1:8" ht="13">
+    <row r="690" spans="1:8" ht="12.75">
       <c r="A690" s="20"/>
       <c r="B690" s="21"/>
       <c r="C690" s="21"/>
@@ -7062,7 +6932,7 @@
       <c r="F690" s="21"/>
       <c r="H690" s="5"/>
     </row>
-    <row r="691" spans="1:8" ht="13">
+    <row r="691" spans="1:8" ht="12.75">
       <c r="A691" s="20"/>
       <c r="B691" s="21"/>
       <c r="C691" s="21"/>
@@ -7071,7 +6941,7 @@
       <c r="F691" s="21"/>
       <c r="H691" s="5"/>
     </row>
-    <row r="692" spans="1:8" ht="13">
+    <row r="692" spans="1:8" ht="12.75">
       <c r="A692" s="20"/>
       <c r="B692" s="21"/>
       <c r="C692" s="21"/>
@@ -7080,7 +6950,7 @@
       <c r="F692" s="21"/>
       <c r="H692" s="5"/>
     </row>
-    <row r="693" spans="1:8" ht="13">
+    <row r="693" spans="1:8" ht="12.75">
       <c r="A693" s="20"/>
       <c r="B693" s="21"/>
       <c r="C693" s="21"/>
@@ -7089,7 +6959,7 @@
       <c r="F693" s="21"/>
       <c r="H693" s="5"/>
     </row>
-    <row r="694" spans="1:8" ht="13">
+    <row r="694" spans="1:8" ht="12.75">
       <c r="A694" s="20"/>
       <c r="B694" s="21"/>
       <c r="C694" s="21"/>
@@ -7098,7 +6968,7 @@
       <c r="F694" s="21"/>
       <c r="H694" s="5"/>
     </row>
-    <row r="695" spans="1:8" ht="13">
+    <row r="695" spans="1:8" ht="12.75">
       <c r="A695" s="20"/>
       <c r="B695" s="21"/>
       <c r="C695" s="21"/>
@@ -7107,7 +6977,7 @@
       <c r="F695" s="21"/>
       <c r="H695" s="5"/>
     </row>
-    <row r="696" spans="1:8" ht="13">
+    <row r="696" spans="1:8" ht="12.75">
       <c r="A696" s="20"/>
       <c r="B696" s="21"/>
       <c r="C696" s="21"/>
@@ -7116,7 +6986,7 @@
       <c r="F696" s="21"/>
       <c r="H696" s="5"/>
     </row>
-    <row r="697" spans="1:8" ht="13">
+    <row r="697" spans="1:8" ht="12.75">
       <c r="A697" s="20"/>
       <c r="B697" s="21"/>
       <c r="C697" s="21"/>
@@ -7125,7 +6995,7 @@
       <c r="F697" s="21"/>
       <c r="H697" s="5"/>
     </row>
-    <row r="698" spans="1:8" ht="13">
+    <row r="698" spans="1:8" ht="12.75">
       <c r="A698" s="20"/>
       <c r="B698" s="21"/>
       <c r="C698" s="21"/>
@@ -7134,7 +7004,7 @@
       <c r="F698" s="21"/>
       <c r="H698" s="5"/>
     </row>
-    <row r="699" spans="1:8" ht="13">
+    <row r="699" spans="1:8" ht="12.75">
       <c r="A699" s="20"/>
       <c r="B699" s="21"/>
       <c r="C699" s="21"/>
@@ -7143,7 +7013,7 @@
       <c r="F699" s="21"/>
       <c r="H699" s="5"/>
     </row>
-    <row r="700" spans="1:8" ht="13">
+    <row r="700" spans="1:8" ht="12.75">
       <c r="A700" s="20"/>
       <c r="B700" s="21"/>
       <c r="C700" s="21"/>
@@ -7152,7 +7022,7 @@
       <c r="F700" s="21"/>
       <c r="H700" s="5"/>
     </row>
-    <row r="701" spans="1:8" ht="13">
+    <row r="701" spans="1:8" ht="12.75">
       <c r="A701" s="20"/>
       <c r="B701" s="21"/>
       <c r="C701" s="21"/>
@@ -7161,7 +7031,7 @@
       <c r="F701" s="21"/>
       <c r="H701" s="5"/>
     </row>
-    <row r="702" spans="1:8" ht="13">
+    <row r="702" spans="1:8" ht="12.75">
       <c r="A702" s="20"/>
       <c r="B702" s="21"/>
       <c r="C702" s="21"/>
@@ -7170,7 +7040,7 @@
       <c r="F702" s="21"/>
       <c r="H702" s="5"/>
     </row>
-    <row r="703" spans="1:8" ht="13">
+    <row r="703" spans="1:8" ht="12.75">
       <c r="A703" s="20"/>
       <c r="B703" s="21"/>
       <c r="C703" s="21"/>
@@ -7179,7 +7049,7 @@
       <c r="F703" s="21"/>
       <c r="H703" s="5"/>
     </row>
-    <row r="704" spans="1:8" ht="13">
+    <row r="704" spans="1:8" ht="12.75">
       <c r="A704" s="20"/>
       <c r="B704" s="21"/>
       <c r="C704" s="21"/>
@@ -7188,7 +7058,7 @@
       <c r="F704" s="21"/>
       <c r="H704" s="5"/>
     </row>
-    <row r="705" spans="1:8" ht="13">
+    <row r="705" spans="1:8" ht="12.75">
       <c r="A705" s="20"/>
       <c r="B705" s="21"/>
       <c r="C705" s="21"/>
@@ -7197,7 +7067,7 @@
       <c r="F705" s="21"/>
       <c r="H705" s="5"/>
     </row>
-    <row r="706" spans="1:8" ht="13">
+    <row r="706" spans="1:8" ht="12.75">
       <c r="A706" s="20"/>
       <c r="B706" s="21"/>
       <c r="C706" s="21"/>
@@ -7206,7 +7076,7 @@
       <c r="F706" s="21"/>
       <c r="H706" s="5"/>
     </row>
-    <row r="707" spans="1:8" ht="13">
+    <row r="707" spans="1:8" ht="12.75">
       <c r="A707" s="20"/>
       <c r="B707" s="21"/>
       <c r="C707" s="21"/>
@@ -7215,7 +7085,7 @@
       <c r="F707" s="21"/>
       <c r="H707" s="5"/>
     </row>
-    <row r="708" spans="1:8" ht="13">
+    <row r="708" spans="1:8" ht="12.75">
       <c r="A708" s="20"/>
       <c r="B708" s="21"/>
       <c r="C708" s="21"/>
@@ -7224,7 +7094,7 @@
       <c r="F708" s="21"/>
       <c r="H708" s="5"/>
     </row>
-    <row r="709" spans="1:8" ht="13">
+    <row r="709" spans="1:8" ht="12.75">
       <c r="A709" s="20"/>
       <c r="B709" s="21"/>
       <c r="C709" s="21"/>
@@ -7233,7 +7103,7 @@
       <c r="F709" s="21"/>
       <c r="H709" s="5"/>
     </row>
-    <row r="710" spans="1:8" ht="13">
+    <row r="710" spans="1:8" ht="12.75">
       <c r="A710" s="20"/>
       <c r="B710" s="21"/>
       <c r="C710" s="21"/>
@@ -7242,7 +7112,7 @@
       <c r="F710" s="21"/>
       <c r="H710" s="5"/>
     </row>
-    <row r="711" spans="1:8" ht="13">
+    <row r="711" spans="1:8" ht="12.75">
       <c r="A711" s="20"/>
       <c r="B711" s="21"/>
       <c r="C711" s="21"/>
@@ -7251,7 +7121,7 @@
       <c r="F711" s="21"/>
       <c r="H711" s="5"/>
     </row>
-    <row r="712" spans="1:8" ht="13">
+    <row r="712" spans="1:8" ht="12.75">
       <c r="A712" s="20"/>
       <c r="B712" s="21"/>
       <c r="C712" s="21"/>
@@ -7260,7 +7130,7 @@
       <c r="F712" s="21"/>
       <c r="H712" s="5"/>
     </row>
-    <row r="713" spans="1:8" ht="13">
+    <row r="713" spans="1:8" ht="12.75">
       <c r="A713" s="20"/>
       <c r="B713" s="21"/>
       <c r="C713" s="21"/>
@@ -7269,7 +7139,7 @@
       <c r="F713" s="21"/>
       <c r="H713" s="5"/>
     </row>
-    <row r="714" spans="1:8" ht="13">
+    <row r="714" spans="1:8" ht="12.75">
       <c r="A714" s="20"/>
       <c r="B714" s="21"/>
       <c r="C714" s="21"/>
@@ -7278,7 +7148,7 @@
       <c r="F714" s="21"/>
       <c r="H714" s="5"/>
     </row>
-    <row r="715" spans="1:8" ht="13">
+    <row r="715" spans="1:8" ht="12.75">
       <c r="A715" s="20"/>
       <c r="B715" s="21"/>
       <c r="C715" s="21"/>
@@ -7287,7 +7157,7 @@
       <c r="F715" s="21"/>
       <c r="H715" s="5"/>
     </row>
-    <row r="716" spans="1:8" ht="13">
+    <row r="716" spans="1:8" ht="12.75">
       <c r="A716" s="20"/>
       <c r="B716" s="21"/>
       <c r="C716" s="21"/>
@@ -7296,7 +7166,7 @@
       <c r="F716" s="21"/>
       <c r="H716" s="5"/>
     </row>
-    <row r="717" spans="1:8" ht="13">
+    <row r="717" spans="1:8" ht="12.75">
       <c r="A717" s="20"/>
       <c r="B717" s="21"/>
       <c r="C717" s="21"/>
@@ -7305,7 +7175,7 @@
       <c r="F717" s="21"/>
       <c r="H717" s="5"/>
     </row>
-    <row r="718" spans="1:8" ht="13">
+    <row r="718" spans="1:8" ht="12.75">
       <c r="A718" s="20"/>
       <c r="B718" s="21"/>
       <c r="C718" s="21"/>
@@ -7314,7 +7184,7 @@
       <c r="F718" s="21"/>
       <c r="H718" s="5"/>
     </row>
-    <row r="719" spans="1:8" ht="13">
+    <row r="719" spans="1:8" ht="12.75">
       <c r="A719" s="20"/>
       <c r="B719" s="21"/>
       <c r="C719" s="21"/>
@@ -7323,7 +7193,7 @@
       <c r="F719" s="21"/>
       <c r="H719" s="5"/>
     </row>
-    <row r="720" spans="1:8" ht="13">
+    <row r="720" spans="1:8" ht="12.75">
       <c r="A720" s="20"/>
       <c r="B720" s="21"/>
       <c r="C720" s="21"/>
@@ -7332,7 +7202,7 @@
       <c r="F720" s="21"/>
       <c r="H720" s="5"/>
     </row>
-    <row r="721" spans="1:8" ht="13">
+    <row r="721" spans="1:8" ht="12.75">
       <c r="A721" s="20"/>
       <c r="B721" s="21"/>
       <c r="C721" s="21"/>
@@ -7341,7 +7211,7 @@
       <c r="F721" s="21"/>
       <c r="H721" s="5"/>
     </row>
-    <row r="722" spans="1:8" ht="13">
+    <row r="722" spans="1:8" ht="12.75">
       <c r="A722" s="20"/>
       <c r="B722" s="21"/>
       <c r="C722" s="21"/>
@@ -7350,7 +7220,7 @@
       <c r="F722" s="21"/>
       <c r="H722" s="5"/>
     </row>
-    <row r="723" spans="1:8" ht="13">
+    <row r="723" spans="1:8" ht="12.75">
       <c r="A723" s="20"/>
       <c r="B723" s="21"/>
       <c r="C723" s="21"/>
@@ -7359,7 +7229,7 @@
       <c r="F723" s="21"/>
       <c r="H723" s="5"/>
     </row>
-    <row r="724" spans="1:8" ht="13">
+    <row r="724" spans="1:8" ht="12.75">
       <c r="A724" s="20"/>
       <c r="B724" s="21"/>
       <c r="C724" s="21"/>
@@ -7368,7 +7238,7 @@
       <c r="F724" s="21"/>
       <c r="H724" s="5"/>
     </row>
-    <row r="725" spans="1:8" ht="13">
+    <row r="725" spans="1:8" ht="12.75">
       <c r="A725" s="20"/>
       <c r="B725" s="21"/>
       <c r="C725" s="21"/>
@@ -7377,7 +7247,7 @@
       <c r="F725" s="21"/>
       <c r="H725" s="5"/>
     </row>
-    <row r="726" spans="1:8" ht="13">
+    <row r="726" spans="1:8" ht="12.75">
       <c r="A726" s="20"/>
       <c r="B726" s="21"/>
       <c r="C726" s="21"/>
@@ -7386,7 +7256,7 @@
       <c r="F726" s="21"/>
       <c r="H726" s="5"/>
     </row>
-    <row r="727" spans="1:8" ht="13">
+    <row r="727" spans="1:8" ht="12.75">
       <c r="A727" s="20"/>
       <c r="B727" s="21"/>
       <c r="C727" s="21"/>
@@ -7395,7 +7265,7 @@
       <c r="F727" s="21"/>
       <c r="H727" s="5"/>
     </row>
-    <row r="728" spans="1:8" ht="13">
+    <row r="728" spans="1:8" ht="12.75">
       <c r="A728" s="20"/>
       <c r="B728" s="21"/>
       <c r="C728" s="21"/>
@@ -7404,7 +7274,7 @@
       <c r="F728" s="21"/>
       <c r="H728" s="5"/>
     </row>
-    <row r="729" spans="1:8" ht="13">
+    <row r="729" spans="1:8" ht="12.75">
       <c r="A729" s="20"/>
       <c r="B729" s="21"/>
       <c r="C729" s="21"/>
@@ -7413,7 +7283,7 @@
       <c r="F729" s="21"/>
       <c r="H729" s="5"/>
     </row>
-    <row r="730" spans="1:8" ht="13">
+    <row r="730" spans="1:8" ht="12.75">
       <c r="A730" s="20"/>
       <c r="B730" s="21"/>
       <c r="C730" s="21"/>
@@ -7422,7 +7292,7 @@
       <c r="F730" s="21"/>
       <c r="H730" s="5"/>
     </row>
-    <row r="731" spans="1:8" ht="13">
+    <row r="731" spans="1:8" ht="12.75">
       <c r="A731" s="20"/>
       <c r="B731" s="21"/>
       <c r="C731" s="21"/>
@@ -7431,7 +7301,7 @@
       <c r="F731" s="21"/>
       <c r="H731" s="5"/>
     </row>
-    <row r="732" spans="1:8" ht="13">
+    <row r="732" spans="1:8" ht="12.75">
       <c r="A732" s="20"/>
       <c r="B732" s="21"/>
       <c r="C732" s="21"/>
@@ -7440,7 +7310,7 @@
       <c r="F732" s="21"/>
       <c r="H732" s="5"/>
     </row>
-    <row r="733" spans="1:8" ht="13">
+    <row r="733" spans="1:8" ht="12.75">
       <c r="A733" s="20"/>
       <c r="B733" s="21"/>
       <c r="C733" s="21"/>
@@ -7449,7 +7319,7 @@
       <c r="F733" s="21"/>
       <c r="H733" s="5"/>
     </row>
-    <row r="734" spans="1:8" ht="13">
+    <row r="734" spans="1:8" ht="12.75">
       <c r="A734" s="20"/>
       <c r="B734" s="21"/>
       <c r="C734" s="21"/>
@@ -7458,7 +7328,7 @@
       <c r="F734" s="21"/>
       <c r="H734" s="5"/>
     </row>
-    <row r="735" spans="1:8" ht="13">
+    <row r="735" spans="1:8" ht="12.75">
       <c r="A735" s="20"/>
       <c r="B735" s="21"/>
       <c r="C735" s="21"/>
@@ -7467,7 +7337,7 @@
       <c r="F735" s="21"/>
       <c r="H735" s="5"/>
     </row>
-    <row r="736" spans="1:8" ht="13">
+    <row r="736" spans="1:8" ht="12.75">
       <c r="A736" s="20"/>
       <c r="B736" s="21"/>
       <c r="C736" s="21"/>
@@ -7476,7 +7346,7 @@
       <c r="F736" s="21"/>
       <c r="H736" s="5"/>
     </row>
-    <row r="737" spans="1:8" ht="13">
+    <row r="737" spans="1:8" ht="12.75">
       <c r="A737" s="20"/>
       <c r="B737" s="21"/>
       <c r="C737" s="21"/>
@@ -7485,7 +7355,7 @@
       <c r="F737" s="21"/>
       <c r="H737" s="5"/>
     </row>
-    <row r="738" spans="1:8" ht="13">
+    <row r="738" spans="1:8" ht="12.75">
       <c r="A738" s="20"/>
       <c r="B738" s="21"/>
       <c r="C738" s="21"/>
@@ -7494,7 +7364,7 @@
       <c r="F738" s="21"/>
       <c r="H738" s="5"/>
     </row>
-    <row r="739" spans="1:8" ht="13">
+    <row r="739" spans="1:8" ht="12.75">
       <c r="A739" s="20"/>
       <c r="B739" s="21"/>
       <c r="C739" s="21"/>
@@ -7503,7 +7373,7 @@
       <c r="F739" s="21"/>
       <c r="H739" s="5"/>
     </row>
-    <row r="740" spans="1:8" ht="13">
+    <row r="740" spans="1:8" ht="12.75">
       <c r="A740" s="20"/>
       <c r="B740" s="21"/>
       <c r="C740" s="21"/>
@@ -7512,7 +7382,7 @@
       <c r="F740" s="21"/>
       <c r="H740" s="5"/>
     </row>
-    <row r="741" spans="1:8" ht="13">
+    <row r="741" spans="1:8" ht="12.75">
       <c r="A741" s="20"/>
       <c r="B741" s="21"/>
       <c r="C741" s="21"/>
@@ -7521,7 +7391,7 @@
       <c r="F741" s="21"/>
       <c r="H741" s="5"/>
     </row>
-    <row r="742" spans="1:8" ht="13">
+    <row r="742" spans="1:8" ht="12.75">
       <c r="A742" s="20"/>
       <c r="B742" s="21"/>
       <c r="C742" s="21"/>
@@ -7530,7 +7400,7 @@
       <c r="F742" s="21"/>
       <c r="H742" s="5"/>
     </row>
-    <row r="743" spans="1:8" ht="13">
+    <row r="743" spans="1:8" ht="12.75">
       <c r="A743" s="20"/>
       <c r="B743" s="21"/>
       <c r="C743" s="21"/>
@@ -7539,7 +7409,7 @@
       <c r="F743" s="21"/>
       <c r="H743" s="5"/>
     </row>
-    <row r="744" spans="1:8" ht="13">
+    <row r="744" spans="1:8" ht="12.75">
       <c r="A744" s="20"/>
       <c r="B744" s="21"/>
       <c r="C744" s="21"/>
@@ -7548,7 +7418,7 @@
       <c r="F744" s="21"/>
       <c r="H744" s="5"/>
     </row>
-    <row r="745" spans="1:8" ht="13">
+    <row r="745" spans="1:8" ht="12.75">
       <c r="A745" s="20"/>
       <c r="B745" s="21"/>
       <c r="C745" s="21"/>
@@ -7557,7 +7427,7 @@
       <c r="F745" s="21"/>
       <c r="H745" s="5"/>
     </row>
-    <row r="746" spans="1:8" ht="13">
+    <row r="746" spans="1:8" ht="12.75">
       <c r="A746" s="20"/>
       <c r="B746" s="21"/>
       <c r="C746" s="21"/>
@@ -7566,7 +7436,7 @@
       <c r="F746" s="21"/>
       <c r="H746" s="5"/>
     </row>
-    <row r="747" spans="1:8" ht="13">
+    <row r="747" spans="1:8" ht="12.75">
       <c r="A747" s="20"/>
       <c r="B747" s="21"/>
       <c r="C747" s="21"/>
@@ -7575,7 +7445,7 @@
       <c r="F747" s="21"/>
       <c r="H747" s="5"/>
     </row>
-    <row r="748" spans="1:8" ht="13">
+    <row r="748" spans="1:8" ht="12.75">
       <c r="A748" s="20"/>
       <c r="B748" s="21"/>
       <c r="C748" s="21"/>
@@ -7584,7 +7454,7 @@
       <c r="F748" s="21"/>
       <c r="H748" s="5"/>
     </row>
-    <row r="749" spans="1:8" ht="13">
+    <row r="749" spans="1:8" ht="12.75">
       <c r="A749" s="20"/>
       <c r="B749" s="21"/>
       <c r="C749" s="21"/>
@@ -7593,7 +7463,7 @@
       <c r="F749" s="21"/>
       <c r="H749" s="5"/>
     </row>
-    <row r="750" spans="1:8" ht="13">
+    <row r="750" spans="1:8" ht="12.75">
       <c r="A750" s="20"/>
       <c r="B750" s="21"/>
       <c r="C750" s="21"/>
@@ -7602,7 +7472,7 @@
       <c r="F750" s="21"/>
       <c r="H750" s="5"/>
     </row>
-    <row r="751" spans="1:8" ht="13">
+    <row r="751" spans="1:8" ht="12.75">
       <c r="A751" s="20"/>
       <c r="B751" s="21"/>
       <c r="C751" s="21"/>
@@ -7611,7 +7481,7 @@
       <c r="F751" s="21"/>
       <c r="H751" s="5"/>
     </row>
-    <row r="752" spans="1:8" ht="13">
+    <row r="752" spans="1:8" ht="12.75">
       <c r="A752" s="20"/>
       <c r="B752" s="21"/>
       <c r="C752" s="21"/>
@@ -7620,7 +7490,7 @@
       <c r="F752" s="21"/>
       <c r="H752" s="5"/>
     </row>
-    <row r="753" spans="1:8" ht="13">
+    <row r="753" spans="1:8" ht="12.75">
       <c r="A753" s="20"/>
       <c r="B753" s="21"/>
       <c r="C753" s="21"/>
@@ -7629,7 +7499,7 @@
       <c r="F753" s="21"/>
       <c r="H753" s="5"/>
     </row>
-    <row r="754" spans="1:8" ht="13">
+    <row r="754" spans="1:8" ht="12.75">
       <c r="A754" s="20"/>
       <c r="B754" s="21"/>
       <c r="C754" s="21"/>
@@ -7638,7 +7508,7 @@
       <c r="F754" s="21"/>
       <c r="H754" s="5"/>
     </row>
-    <row r="755" spans="1:8" ht="13">
+    <row r="755" spans="1:8" ht="12.75">
       <c r="A755" s="20"/>
       <c r="B755" s="21"/>
       <c r="C755" s="21"/>
@@ -7647,7 +7517,7 @@
       <c r="F755" s="21"/>
       <c r="H755" s="5"/>
     </row>
-    <row r="756" spans="1:8" ht="13">
+    <row r="756" spans="1:8" ht="12.75">
       <c r="A756" s="20"/>
       <c r="B756" s="21"/>
       <c r="C756" s="21"/>
@@ -7656,7 +7526,7 @@
       <c r="F756" s="21"/>
       <c r="H756" s="5"/>
     </row>
-    <row r="757" spans="1:8" ht="13">
+    <row r="757" spans="1:8" ht="12.75">
       <c r="A757" s="20"/>
       <c r="B757" s="21"/>
       <c r="C757" s="21"/>
@@ -7665,7 +7535,7 @@
       <c r="F757" s="21"/>
       <c r="H757" s="5"/>
     </row>
-    <row r="758" spans="1:8" ht="13">
+    <row r="758" spans="1:8" ht="12.75">
       <c r="A758" s="20"/>
       <c r="B758" s="21"/>
       <c r="C758" s="21"/>
@@ -7674,7 +7544,7 @@
       <c r="F758" s="21"/>
       <c r="H758" s="5"/>
     </row>
-    <row r="759" spans="1:8" ht="13">
+    <row r="759" spans="1:8" ht="12.75">
       <c r="A759" s="20"/>
       <c r="B759" s="21"/>
       <c r="C759" s="21"/>
@@ -7683,7 +7553,7 @@
       <c r="F759" s="21"/>
       <c r="H759" s="5"/>
     </row>
-    <row r="760" spans="1:8" ht="13">
+    <row r="760" spans="1:8" ht="12.75">
       <c r="A760" s="20"/>
       <c r="B760" s="21"/>
       <c r="C760" s="21"/>
@@ -7692,7 +7562,7 @@
       <c r="F760" s="21"/>
       <c r="H760" s="5"/>
     </row>
-    <row r="761" spans="1:8" ht="13">
+    <row r="761" spans="1:8" ht="12.75">
       <c r="A761" s="20"/>
       <c r="B761" s="21"/>
       <c r="C761" s="21"/>
@@ -7701,7 +7571,7 @@
       <c r="F761" s="21"/>
       <c r="H761" s="5"/>
     </row>
-    <row r="762" spans="1:8" ht="13">
+    <row r="762" spans="1:8" ht="12.75">
       <c r="A762" s="20"/>
       <c r="B762" s="21"/>
       <c r="C762" s="21"/>
@@ -7710,7 +7580,7 @@
       <c r="F762" s="21"/>
       <c r="H762" s="5"/>
     </row>
-    <row r="763" spans="1:8" ht="13">
+    <row r="763" spans="1:8" ht="12.75">
       <c r="A763" s="20"/>
       <c r="B763" s="21"/>
       <c r="C763" s="21"/>
@@ -7719,7 +7589,7 @@
       <c r="F763" s="21"/>
       <c r="H763" s="5"/>
     </row>
-    <row r="764" spans="1:8" ht="13">
+    <row r="764" spans="1:8" ht="12.75">
       <c r="A764" s="20"/>
       <c r="B764" s="21"/>
       <c r="C764" s="21"/>
@@ -7728,7 +7598,7 @@
       <c r="F764" s="21"/>
       <c r="H764" s="5"/>
     </row>
-    <row r="765" spans="1:8" ht="13">
+    <row r="765" spans="1:8" ht="12.75">
       <c r="A765" s="20"/>
       <c r="B765" s="21"/>
       <c r="C765" s="21"/>
@@ -7737,7 +7607,7 @@
       <c r="F765" s="21"/>
       <c r="H765" s="5"/>
     </row>
-    <row r="766" spans="1:8" ht="13">
+    <row r="766" spans="1:8" ht="12.75">
       <c r="A766" s="20"/>
       <c r="B766" s="21"/>
       <c r="C766" s="21"/>
@@ -7746,7 +7616,7 @@
       <c r="F766" s="21"/>
       <c r="H766" s="5"/>
     </row>
-    <row r="767" spans="1:8" ht="13">
+    <row r="767" spans="1:8" ht="12.75">
       <c r="A767" s="20"/>
       <c r="B767" s="21"/>
       <c r="C767" s="21"/>
@@ -7755,7 +7625,7 @@
       <c r="F767" s="21"/>
       <c r="H767" s="5"/>
     </row>
-    <row r="768" spans="1:8" ht="13">
+    <row r="768" spans="1:8" ht="12.75">
       <c r="A768" s="20"/>
       <c r="B768" s="21"/>
       <c r="C768" s="21"/>
@@ -7764,7 +7634,7 @@
       <c r="F768" s="21"/>
       <c r="H768" s="5"/>
     </row>
-    <row r="769" spans="1:8" ht="13">
+    <row r="769" spans="1:8" ht="12.75">
       <c r="A769" s="20"/>
       <c r="B769" s="21"/>
       <c r="C769" s="21"/>
@@ -7773,7 +7643,7 @@
       <c r="F769" s="21"/>
       <c r="H769" s="5"/>
     </row>
-    <row r="770" spans="1:8" ht="13">
+    <row r="770" spans="1:8" ht="12.75">
       <c r="A770" s="20"/>
       <c r="B770" s="21"/>
       <c r="C770" s="21"/>
@@ -7782,7 +7652,7 @@
       <c r="F770" s="21"/>
       <c r="H770" s="5"/>
     </row>
-    <row r="771" spans="1:8" ht="13">
+    <row r="771" spans="1:8" ht="12.75">
       <c r="A771" s="20"/>
       <c r="B771" s="21"/>
       <c r="C771" s="21"/>
@@ -7791,7 +7661,7 @@
       <c r="F771" s="21"/>
       <c r="H771" s="5"/>
     </row>
-    <row r="772" spans="1:8" ht="13">
+    <row r="772" spans="1:8" ht="12.75">
       <c r="A772" s="20"/>
       <c r="B772" s="21"/>
       <c r="C772" s="21"/>
@@ -7800,7 +7670,7 @@
       <c r="F772" s="21"/>
       <c r="H772" s="5"/>
     </row>
-    <row r="773" spans="1:8" ht="13">
+    <row r="773" spans="1:8" ht="12.75">
       <c r="A773" s="20"/>
       <c r="B773" s="21"/>
       <c r="C773" s="21"/>
@@ -7809,7 +7679,7 @@
       <c r="F773" s="21"/>
       <c r="H773" s="5"/>
     </row>
-    <row r="774" spans="1:8" ht="13">
+    <row r="774" spans="1:8" ht="12.75">
       <c r="A774" s="20"/>
       <c r="B774" s="21"/>
       <c r="C774" s="21"/>
@@ -7818,7 +7688,7 @@
       <c r="F774" s="21"/>
       <c r="H774" s="5"/>
     </row>
-    <row r="775" spans="1:8" ht="13">
+    <row r="775" spans="1:8" ht="12.75">
       <c r="A775" s="20"/>
       <c r="B775" s="21"/>
       <c r="C775" s="21"/>
@@ -7827,7 +7697,7 @@
       <c r="F775" s="21"/>
       <c r="H775" s="5"/>
     </row>
-    <row r="776" spans="1:8" ht="13">
+    <row r="776" spans="1:8" ht="12.75">
       <c r="A776" s="20"/>
       <c r="B776" s="21"/>
       <c r="C776" s="21"/>
@@ -7836,7 +7706,7 @@
       <c r="F776" s="21"/>
       <c r="H776" s="5"/>
     </row>
-    <row r="777" spans="1:8" ht="13">
+    <row r="777" spans="1:8" ht="12.75">
       <c r="A777" s="20"/>
       <c r="B777" s="21"/>
       <c r="C777" s="21"/>
@@ -7845,7 +7715,7 @@
       <c r="F777" s="21"/>
       <c r="H777" s="5"/>
     </row>
-    <row r="778" spans="1:8" ht="13">
+    <row r="778" spans="1:8" ht="12.75">
       <c r="A778" s="20"/>
       <c r="B778" s="21"/>
       <c r="C778" s="21"/>
@@ -7854,7 +7724,7 @@
       <c r="F778" s="21"/>
       <c r="H778" s="5"/>
     </row>
-    <row r="779" spans="1:8" ht="13">
+    <row r="779" spans="1:8" ht="12.75">
       <c r="A779" s="20"/>
       <c r="B779" s="21"/>
       <c r="C779" s="21"/>
@@ -7863,7 +7733,7 @@
       <c r="F779" s="21"/>
       <c r="H779" s="5"/>
     </row>
-    <row r="780" spans="1:8" ht="13">
+    <row r="780" spans="1:8" ht="12.75">
       <c r="A780" s="20"/>
       <c r="B780" s="21"/>
       <c r="C780" s="21"/>
@@ -7872,7 +7742,7 @@
       <c r="F780" s="21"/>
       <c r="H780" s="5"/>
     </row>
-    <row r="781" spans="1:8" ht="13">
+    <row r="781" spans="1:8" ht="12.75">
       <c r="A781" s="20"/>
       <c r="B781" s="21"/>
       <c r="C781" s="21"/>
@@ -7881,7 +7751,7 @@
       <c r="F781" s="21"/>
       <c r="H781" s="5"/>
     </row>
-    <row r="782" spans="1:8" ht="13">
+    <row r="782" spans="1:8" ht="12.75">
       <c r="A782" s="20"/>
       <c r="B782" s="21"/>
       <c r="C782" s="21"/>
@@ -7890,7 +7760,7 @@
       <c r="F782" s="21"/>
       <c r="H782" s="5"/>
     </row>
-    <row r="783" spans="1:8" ht="13">
+    <row r="783" spans="1:8" ht="12.75">
       <c r="A783" s="20"/>
       <c r="B783" s="21"/>
       <c r="C783" s="21"/>
@@ -7899,7 +7769,7 @@
       <c r="F783" s="21"/>
       <c r="H783" s="5"/>
     </row>
-    <row r="784" spans="1:8" ht="13">
+    <row r="784" spans="1:8" ht="12.75">
       <c r="A784" s="20"/>
       <c r="B784" s="21"/>
       <c r="C784" s="21"/>
@@ -7908,7 +7778,7 @@
       <c r="F784" s="21"/>
       <c r="H784" s="5"/>
     </row>
-    <row r="785" spans="1:8" ht="13">
+    <row r="785" spans="1:8" ht="12.75">
       <c r="A785" s="20"/>
       <c r="B785" s="21"/>
       <c r="C785" s="21"/>
@@ -7917,7 +7787,7 @@
       <c r="F785" s="21"/>
       <c r="H785" s="5"/>
     </row>
-    <row r="786" spans="1:8" ht="13">
+    <row r="786" spans="1:8" ht="12.75">
       <c r="A786" s="20"/>
       <c r="B786" s="21"/>
       <c r="C786" s="21"/>
@@ -7926,7 +7796,7 @@
       <c r="F786" s="21"/>
       <c r="H786" s="5"/>
     </row>
-    <row r="787" spans="1:8" ht="13">
+    <row r="787" spans="1:8" ht="12.75">
       <c r="A787" s="20"/>
       <c r="B787" s="21"/>
       <c r="C787" s="21"/>
@@ -7935,7 +7805,7 @@
       <c r="F787" s="21"/>
       <c r="H787" s="5"/>
     </row>
-    <row r="788" spans="1:8" ht="13">
+    <row r="788" spans="1:8" ht="12.75">
       <c r="A788" s="20"/>
       <c r="B788" s="21"/>
       <c r="C788" s="21"/>
@@ -7944,7 +7814,7 @@
       <c r="F788" s="21"/>
       <c r="H788" s="5"/>
     </row>
-    <row r="789" spans="1:8" ht="13">
+    <row r="789" spans="1:8" ht="12.75">
       <c r="A789" s="20"/>
       <c r="B789" s="21"/>
       <c r="C789" s="21"/>
@@ -7953,7 +7823,7 @@
       <c r="F789" s="21"/>
       <c r="H789" s="5"/>
     </row>
-    <row r="790" spans="1:8" ht="13">
+    <row r="790" spans="1:8" ht="12.75">
       <c r="A790" s="20"/>
       <c r="B790" s="21"/>
       <c r="C790" s="21"/>
@@ -7962,7 +7832,7 @@
       <c r="F790" s="21"/>
       <c r="H790" s="5"/>
     </row>
-    <row r="791" spans="1:8" ht="13">
+    <row r="791" spans="1:8" ht="12.75">
       <c r="A791" s="20"/>
       <c r="B791" s="21"/>
       <c r="C791" s="21"/>
@@ -7971,7 +7841,7 @@
       <c r="F791" s="21"/>
       <c r="H791" s="5"/>
     </row>
-    <row r="792" spans="1:8" ht="13">
+    <row r="792" spans="1:8" ht="12.75">
       <c r="A792" s="20"/>
       <c r="B792" s="21"/>
       <c r="C792" s="21"/>
@@ -7980,7 +7850,7 @@
       <c r="F792" s="21"/>
       <c r="H792" s="5"/>
     </row>
-    <row r="793" spans="1:8" ht="13">
+    <row r="793" spans="1:8" ht="12.75">
       <c r="A793" s="20"/>
       <c r="B793" s="21"/>
       <c r="C793" s="21"/>
@@ -7989,7 +7859,7 @@
       <c r="F793" s="21"/>
       <c r="H793" s="5"/>
     </row>
-    <row r="794" spans="1:8" ht="13">
+    <row r="794" spans="1:8" ht="12.75">
       <c r="A794" s="20"/>
       <c r="B794" s="21"/>
       <c r="C794" s="21"/>
@@ -7998,7 +7868,7 @@
       <c r="F794" s="21"/>
       <c r="H794" s="5"/>
     </row>
-    <row r="795" spans="1:8" ht="13">
+    <row r="795" spans="1:8" ht="12.75">
       <c r="A795" s="20"/>
       <c r="B795" s="21"/>
       <c r="C795" s="21"/>
@@ -8007,7 +7877,7 @@
       <c r="F795" s="21"/>
       <c r="H795" s="5"/>
     </row>
-    <row r="796" spans="1:8" ht="13">
+    <row r="796" spans="1:8" ht="12.75">
       <c r="A796" s="20"/>
       <c r="B796" s="21"/>
       <c r="C796" s="21"/>
@@ -8016,7 +7886,7 @@
       <c r="F796" s="21"/>
       <c r="H796" s="5"/>
     </row>
-    <row r="797" spans="1:8" ht="13">
+    <row r="797" spans="1:8" ht="12.75">
       <c r="A797" s="20"/>
       <c r="B797" s="21"/>
       <c r="C797" s="21"/>
@@ -8025,7 +7895,7 @@
       <c r="F797" s="21"/>
       <c r="H797" s="5"/>
     </row>
-    <row r="798" spans="1:8" ht="13">
+    <row r="798" spans="1:8" ht="12.75">
       <c r="A798" s="20"/>
       <c r="B798" s="21"/>
       <c r="C798" s="21"/>
@@ -8034,7 +7904,7 @@
       <c r="F798" s="21"/>
       <c r="H798" s="5"/>
     </row>
-    <row r="799" spans="1:8" ht="13">
+    <row r="799" spans="1:8" ht="12.75">
       <c r="A799" s="20"/>
       <c r="B799" s="21"/>
       <c r="C799" s="21"/>
@@ -8043,7 +7913,7 @@
       <c r="F799" s="21"/>
       <c r="H799" s="5"/>
     </row>
-    <row r="800" spans="1:8" ht="13">
+    <row r="800" spans="1:8" ht="12.75">
       <c r="A800" s="20"/>
       <c r="B800" s="21"/>
       <c r="C800" s="21"/>
@@ -8052,7 +7922,7 @@
       <c r="F800" s="21"/>
       <c r="H800" s="5"/>
     </row>
-    <row r="801" spans="1:8" ht="13">
+    <row r="801" spans="1:8" ht="12.75">
       <c r="A801" s="20"/>
       <c r="B801" s="21"/>
       <c r="C801" s="21"/>
@@ -8061,7 +7931,7 @@
       <c r="F801" s="21"/>
       <c r="H801" s="5"/>
     </row>
-    <row r="802" spans="1:8" ht="13">
+    <row r="802" spans="1:8" ht="12.75">
       <c r="A802" s="20"/>
       <c r="B802" s="21"/>
       <c r="C802" s="21"/>
@@ -8070,7 +7940,7 @@
       <c r="F802" s="21"/>
       <c r="H802" s="5"/>
     </row>
-    <row r="803" spans="1:8" ht="13">
+    <row r="803" spans="1:8" ht="12.75">
       <c r="A803" s="20"/>
       <c r="B803" s="21"/>
       <c r="C803" s="21"/>
@@ -8079,7 +7949,7 @@
       <c r="F803" s="21"/>
       <c r="H803" s="5"/>
     </row>
-    <row r="804" spans="1:8" ht="13">
+    <row r="804" spans="1:8" ht="12.75">
       <c r="A804" s="20"/>
       <c r="B804" s="21"/>
       <c r="C804" s="21"/>
@@ -8088,7 +7958,7 @@
       <c r="F804" s="21"/>
       <c r="H804" s="5"/>
     </row>
-    <row r="805" spans="1:8" ht="13">
+    <row r="805" spans="1:8" ht="12.75">
       <c r="A805" s="20"/>
       <c r="B805" s="21"/>
       <c r="C805" s="21"/>
@@ -8097,7 +7967,7 @@
       <c r="F805" s="21"/>
       <c r="H805" s="5"/>
     </row>
-    <row r="806" spans="1:8" ht="13">
+    <row r="806" spans="1:8" ht="12.75">
       <c r="A806" s="20"/>
       <c r="B806" s="21"/>
       <c r="C806" s="21"/>
@@ -8106,7 +7976,7 @@
       <c r="F806" s="21"/>
       <c r="H806" s="5"/>
     </row>
-    <row r="807" spans="1:8" ht="13">
+    <row r="807" spans="1:8" ht="12.75">
       <c r="A807" s="20"/>
       <c r="B807" s="21"/>
       <c r="C807" s="21"/>
@@ -8115,7 +7985,7 @@
       <c r="F807" s="21"/>
       <c r="H807" s="5"/>
     </row>
-    <row r="808" spans="1:8" ht="13">
+    <row r="808" spans="1:8" ht="12.75">
       <c r="A808" s="20"/>
       <c r="B808" s="21"/>
       <c r="C808" s="21"/>
@@ -8124,7 +7994,7 @@
       <c r="F808" s="21"/>
       <c r="H808" s="5"/>
     </row>
-    <row r="809" spans="1:8" ht="13">
+    <row r="809" spans="1:8" ht="12.75">
       <c r="A809" s="20"/>
       <c r="B809" s="21"/>
       <c r="C809" s="21"/>
@@ -8133,7 +8003,7 @@
       <c r="F809" s="21"/>
       <c r="H809" s="5"/>
     </row>
-    <row r="810" spans="1:8" ht="13">
+    <row r="810" spans="1:8" ht="12.75">
       <c r="A810" s="20"/>
       <c r="B810" s="21"/>
       <c r="C810" s="21"/>
@@ -8142,7 +8012,7 @@
       <c r="F810" s="21"/>
       <c r="H810" s="5"/>
     </row>
-    <row r="811" spans="1:8" ht="13">
+    <row r="811" spans="1:8" ht="12.75">
       <c r="A811" s="20"/>
       <c r="B811" s="21"/>
       <c r="C811" s="21"/>
@@ -8151,7 +8021,7 @@
       <c r="F811" s="21"/>
       <c r="H811" s="5"/>
     </row>
-    <row r="812" spans="1:8" ht="13">
+    <row r="812" spans="1:8" ht="12.75">
       <c r="A812" s="20"/>
       <c r="B812" s="21"/>
       <c r="C812" s="21"/>
@@ -8160,7 +8030,7 @@
       <c r="F812" s="21"/>
       <c r="H812" s="5"/>
     </row>
-    <row r="813" spans="1:8" ht="13">
+    <row r="813" spans="1:8" ht="12.75">
       <c r="A813" s="20"/>
       <c r="B813" s="21"/>
       <c r="C813" s="21"/>
@@ -8169,7 +8039,7 @@
       <c r="F813" s="21"/>
       <c r="H813" s="5"/>
     </row>
-    <row r="814" spans="1:8" ht="13">
+    <row r="814" spans="1:8" ht="12.75">
       <c r="A814" s="20"/>
       <c r="B814" s="21"/>
       <c r="C814" s="21"/>
@@ -8178,7 +8048,7 @@
       <c r="F814" s="21"/>
       <c r="H814" s="5"/>
     </row>
-    <row r="815" spans="1:8" ht="13">
+    <row r="815" spans="1:8" ht="12.75">
       <c r="A815" s="20"/>
       <c r="B815" s="21"/>
       <c r="C815" s="21"/>
@@ -8187,7 +8057,7 @@
       <c r="F815" s="21"/>
       <c r="H815" s="5"/>
     </row>
-    <row r="816" spans="1:8" ht="13">
+    <row r="816" spans="1:8" ht="12.75">
       <c r="A816" s="20"/>
       <c r="B816" s="21"/>
       <c r="C816" s="21"/>
@@ -8196,7 +8066,7 @@
       <c r="F816" s="21"/>
       <c r="H816" s="5"/>
     </row>
-    <row r="817" spans="1:8" ht="13">
+    <row r="817" spans="1:8" ht="12.75">
       <c r="A817" s="20"/>
       <c r="B817" s="21"/>
       <c r="C817" s="21"/>
@@ -8205,7 +8075,7 @@
       <c r="F817" s="21"/>
       <c r="H817" s="5"/>
     </row>
-    <row r="818" spans="1:8" ht="13">
+    <row r="818" spans="1:8" ht="12.75">
       <c r="A818" s="20"/>
       <c r="B818" s="21"/>
       <c r="C818" s="21"/>
@@ -8214,7 +8084,7 @@
       <c r="F818" s="21"/>
       <c r="H818" s="5"/>
     </row>
-    <row r="819" spans="1:8" ht="13">
+    <row r="819" spans="1:8" ht="12.75">
       <c r="A819" s="20"/>
       <c r="B819" s="21"/>
       <c r="C819" s="21"/>
@@ -8223,7 +8093,7 @@
       <c r="F819" s="21"/>
       <c r="H819" s="5"/>
     </row>
-    <row r="820" spans="1:8" ht="13">
+    <row r="820" spans="1:8" ht="12.75">
       <c r="A820" s="20"/>
       <c r="B820" s="21"/>
       <c r="C820" s="21"/>
@@ -8232,7 +8102,7 @@
       <c r="F820" s="21"/>
       <c r="H820" s="5"/>
     </row>
-    <row r="821" spans="1:8" ht="13">
+    <row r="821" spans="1:8" ht="12.75">
       <c r="A821" s="20"/>
       <c r="B821" s="21"/>
       <c r="C821" s="21"/>
@@ -8241,7 +8111,7 @@
       <c r="F821" s="21"/>
       <c r="H821" s="5"/>
     </row>
-    <row r="822" spans="1:8" ht="13">
+    <row r="822" spans="1:8" ht="12.75">
       <c r="A822" s="20"/>
       <c r="B822" s="21"/>
       <c r="C822" s="21"/>
@@ -8250,7 +8120,7 @@
       <c r="F822" s="21"/>
       <c r="H822" s="5"/>
     </row>
-    <row r="823" spans="1:8" ht="13">
+    <row r="823" spans="1:8" ht="12.75">
       <c r="A823" s="20"/>
       <c r="B823" s="21"/>
       <c r="C823" s="21"/>
@@ -8259,7 +8129,7 @@
       <c r="F823" s="21"/>
       <c r="H823" s="5"/>
     </row>
-    <row r="824" spans="1:8" ht="13">
+    <row r="824" spans="1:8" ht="12.75">
       <c r="A824" s="20"/>
       <c r="B824" s="21"/>
       <c r="C824" s="21"/>
@@ -8268,7 +8138,7 @@
       <c r="F824" s="21"/>
       <c r="H824" s="5"/>
     </row>
-    <row r="825" spans="1:8" ht="13">
+    <row r="825" spans="1:8" ht="12.75">
       <c r="A825" s="20"/>
       <c r="B825" s="21"/>
       <c r="C825" s="21"/>
@@ -8277,7 +8147,7 @@
       <c r="F825" s="21"/>
       <c r="H825" s="5"/>
     </row>
-    <row r="826" spans="1:8" ht="13">
+    <row r="826" spans="1:8" ht="12.75">
       <c r="A826" s="20"/>
       <c r="B826" s="21"/>
       <c r="C826" s="21"/>
@@ -8286,7 +8156,7 @@
       <c r="F826" s="21"/>
       <c r="H826" s="5"/>
     </row>
-    <row r="827" spans="1:8" ht="13">
+    <row r="827" spans="1:8" ht="12.75">
       <c r="A827" s="20"/>
       <c r="B827" s="21"/>
       <c r="C827" s="21"/>
@@ -8295,7 +8165,7 @@
       <c r="F827" s="21"/>
       <c r="H827" s="5"/>
     </row>
-    <row r="828" spans="1:8" ht="13">
+    <row r="828" spans="1:8" ht="12.75">
       <c r="A828" s="20"/>
       <c r="B828" s="21"/>
       <c r="C828" s="21"/>
@@ -8304,7 +8174,7 @@
       <c r="F828" s="21"/>
       <c r="H828" s="5"/>
     </row>
-    <row r="829" spans="1:8" ht="13">
+    <row r="829" spans="1:8" ht="12.75">
       <c r="A829" s="20"/>
       <c r="B829" s="21"/>
       <c r="C829" s="21"/>
@@ -8313,7 +8183,7 @@
       <c r="F829" s="21"/>
       <c r="H829" s="5"/>
     </row>
-    <row r="830" spans="1:8" ht="13">
+    <row r="830" spans="1:8" ht="12.75">
       <c r="A830" s="20"/>
       <c r="B830" s="21"/>
       <c r="C830" s="21"/>
@@ -8322,7 +8192,7 @@
       <c r="F830" s="21"/>
       <c r="H830" s="5"/>
     </row>
-    <row r="831" spans="1:8" ht="13">
+    <row r="831" spans="1:8" ht="12.75">
       <c r="A831" s="20"/>
       <c r="B831" s="21"/>
       <c r="C831" s="21"/>
@@ -8331,7 +8201,7 @@
       <c r="F831" s="21"/>
       <c r="H831" s="5"/>
     </row>
-    <row r="832" spans="1:8" ht="13">
+    <row r="832" spans="1:8" ht="12.75">
       <c r="A832" s="20"/>
       <c r="B832" s="21"/>
       <c r="C832" s="21"/>
@@ -8340,7 +8210,7 @@
       <c r="F832" s="21"/>
       <c r="H832" s="5"/>
     </row>
-    <row r="833" spans="1:8" ht="13">
+    <row r="833" spans="1:8" ht="12.75">
       <c r="A833" s="20"/>
       <c r="B833" s="21"/>
       <c r="C833" s="21"/>
@@ -8349,7 +8219,7 @@
       <c r="F833" s="21"/>
       <c r="H833" s="5"/>
     </row>
-    <row r="834" spans="1:8" ht="13">
+    <row r="834" spans="1:8" ht="12.75">
       <c r="A834" s="20"/>
       <c r="B834" s="21"/>
       <c r="C834" s="21"/>
@@ -8358,7 +8228,7 @@
       <c r="F834" s="21"/>
       <c r="H834" s="5"/>
     </row>
-    <row r="835" spans="1:8" ht="13">
+    <row r="835" spans="1:8" ht="12.75">
       <c r="A835" s="20"/>
       <c r="B835" s="21"/>
       <c r="C835" s="21"/>
@@ -8367,7 +8237,7 @@
       <c r="F835" s="21"/>
       <c r="H835" s="5"/>
     </row>
-    <row r="836" spans="1:8" ht="13">
+    <row r="836" spans="1:8" ht="12.75">
       <c r="A836" s="20"/>
       <c r="B836" s="21"/>
       <c r="C836" s="21"/>
@@ -8376,7 +8246,7 @@
       <c r="F836" s="21"/>
       <c r="H836" s="5"/>
     </row>
-    <row r="837" spans="1:8" ht="13">
+    <row r="837" spans="1:8" ht="12.75">
       <c r="A837" s="20"/>
       <c r="B837" s="21"/>
       <c r="C837" s="21"/>
@@ -8385,7 +8255,7 @@
       <c r="F837" s="21"/>
       <c r="H837" s="5"/>
     </row>
-    <row r="838" spans="1:8" ht="13">
+    <row r="838" spans="1:8" ht="12.75">
       <c r="A838" s="20"/>
       <c r="B838" s="21"/>
       <c r="C838" s="21"/>
@@ -8394,7 +8264,7 @@
       <c r="F838" s="21"/>
       <c r="H838" s="5"/>
     </row>
-    <row r="839" spans="1:8" ht="13">
+    <row r="839" spans="1:8" ht="12.75">
       <c r="A839" s="20"/>
       <c r="B839" s="21"/>
       <c r="C839" s="21"/>
@@ -8403,7 +8273,7 @@
       <c r="F839" s="21"/>
       <c r="H839" s="5"/>
     </row>
-    <row r="840" spans="1:8" ht="13">
+    <row r="840" spans="1:8" ht="12.75">
       <c r="A840" s="20"/>
       <c r="B840" s="21"/>
       <c r="C840" s="21"/>
@@ -8412,7 +8282,7 @@
       <c r="F840" s="21"/>
       <c r="H840" s="5"/>
     </row>
-    <row r="841" spans="1:8" ht="13">
+    <row r="841" spans="1:8" ht="12.75">
       <c r="A841" s="20"/>
       <c r="B841" s="21"/>
       <c r="C841" s="21"/>
@@ -8421,7 +8291,7 @@
       <c r="F841" s="21"/>
       <c r="H841" s="5"/>
     </row>
-    <row r="842" spans="1:8" ht="13">
+    <row r="842" spans="1:8" ht="12.75">
       <c r="A842" s="20"/>
       <c r="B842" s="21"/>
       <c r="C842" s="21"/>
@@ -8430,7 +8300,7 @@
       <c r="F842" s="21"/>
       <c r="H842" s="5"/>
     </row>
-    <row r="843" spans="1:8" ht="13">
+    <row r="843" spans="1:8" ht="12.75">
       <c r="A843" s="20"/>
       <c r="B843" s="21"/>
       <c r="C843" s="21"/>
@@ -8439,7 +8309,7 @@
       <c r="F843" s="21"/>
       <c r="H843" s="5"/>
     </row>
-    <row r="844" spans="1:8" ht="13">
+    <row r="844" spans="1:8" ht="12.75">
       <c r="A844" s="20"/>
       <c r="B844" s="21"/>
       <c r="C844" s="21"/>
@@ -8448,7 +8318,7 @@
       <c r="F844" s="21"/>
       <c r="H844" s="5"/>
     </row>
-    <row r="845" spans="1:8" ht="13">
+    <row r="845" spans="1:8" ht="12.75">
       <c r="A845" s="20"/>
       <c r="B845" s="21"/>
       <c r="C845" s="21"/>
@@ -8457,7 +8327,7 @@
       <c r="F845" s="21"/>
       <c r="H845" s="5"/>
     </row>
-    <row r="846" spans="1:8" ht="13">
+    <row r="846" spans="1:8" ht="12.75">
       <c r="A846" s="20"/>
       <c r="B846" s="21"/>
       <c r="C846" s="21"/>
@@ -8466,7 +8336,7 @@
       <c r="F846" s="21"/>
       <c r="H846" s="5"/>
     </row>
-    <row r="847" spans="1:8" ht="13">
+    <row r="847" spans="1:8" ht="12.75">
       <c r="A847" s="20"/>
       <c r="B847" s="21"/>
       <c r="C847" s="21"/>
@@ -8475,7 +8345,7 @@
       <c r="F847" s="21"/>
       <c r="H847" s="5"/>
     </row>
-    <row r="848" spans="1:8" ht="13">
+    <row r="848" spans="1:8" ht="12.75">
       <c r="A848" s="20"/>
       <c r="B848" s="21"/>
       <c r="C848" s="21"/>
@@ -8484,7 +8354,7 @@
       <c r="F848" s="21"/>
       <c r="H848" s="5"/>
     </row>
-    <row r="849" spans="1:8" ht="13">
+    <row r="849" spans="1:8" ht="12.75">
       <c r="A849" s="20"/>
       <c r="B849" s="21"/>
       <c r="C849" s="21"/>
@@ -8493,7 +8363,7 @@
       <c r="F849" s="21"/>
       <c r="H849" s="5"/>
     </row>
-    <row r="850" spans="1:8" ht="13">
+    <row r="850" spans="1:8" ht="12.75">
       <c r="A850" s="20"/>
       <c r="B850" s="21"/>
       <c r="C850" s="21"/>
@@ -8502,7 +8372,7 @@
       <c r="F850" s="21"/>
       <c r="H850" s="5"/>
     </row>
-    <row r="851" spans="1:8" ht="13">
+    <row r="851" spans="1:8" ht="12.75">
       <c r="A851" s="20"/>
       <c r="B851" s="21"/>
       <c r="C851" s="21"/>
@@ -8511,7 +8381,7 @@
       <c r="F851" s="21"/>
       <c r="H851" s="5"/>
     </row>
-    <row r="852" spans="1:8" ht="13">
+    <row r="852" spans="1:8" ht="12.75">
       <c r="A852" s="20"/>
       <c r="B852" s="21"/>
       <c r="C852" s="21"/>
@@ -8520,7 +8390,7 @@
       <c r="F852" s="21"/>
       <c r="H852" s="5"/>
     </row>
-    <row r="853" spans="1:8" ht="13">
+    <row r="853" spans="1:8" ht="12.75">
       <c r="A853" s="20"/>
       <c r="B853" s="21"/>
       <c r="C853" s="21"/>
@@ -8529,7 +8399,7 @@
       <c r="F853" s="21"/>
       <c r="H853" s="5"/>
     </row>
-    <row r="854" spans="1:8" ht="13">
+    <row r="854" spans="1:8" ht="12.75">
       <c r="A854" s="20"/>
       <c r="B854" s="21"/>
       <c r="C854" s="21"/>
@@ -8538,7 +8408,7 @@
       <c r="F854" s="21"/>
       <c r="H854" s="5"/>
     </row>
-    <row r="855" spans="1:8" ht="13">
+    <row r="855" spans="1:8" ht="12.75">
       <c r="A855" s="20"/>
       <c r="B855" s="21"/>
       <c r="C855" s="21"/>
@@ -8547,7 +8417,7 @@
       <c r="F855" s="21"/>
       <c r="H855" s="5"/>
     </row>
-    <row r="856" spans="1:8" ht="13">
+    <row r="856" spans="1:8" ht="12.75">
       <c r="A856" s="20"/>
       <c r="B856" s="21"/>
       <c r="C856" s="21"/>
@@ -8556,7 +8426,7 @@
       <c r="F856" s="21"/>
       <c r="H856" s="5"/>
     </row>
-    <row r="857" spans="1:8" ht="13">
+    <row r="857" spans="1:8" ht="12.75">
       <c r="A857" s="20"/>
       <c r="B857" s="21"/>
       <c r="C857" s="21"/>
@@ -8565,7 +8435,7 @@
       <c r="F857" s="21"/>
       <c r="H857" s="5"/>
     </row>
-    <row r="858" spans="1:8" ht="13">
+    <row r="858" spans="1:8" ht="12.75">
       <c r="A858" s="20"/>
       <c r="B858" s="21"/>
       <c r="C858" s="21"/>
@@ -8574,7 +8444,7 @@
       <c r="F858" s="21"/>
       <c r="H858" s="5"/>
     </row>
-    <row r="859" spans="1:8" ht="13">
+    <row r="859" spans="1:8" ht="12.75">
       <c r="A859" s="20"/>
       <c r="B859" s="21"/>
       <c r="C859" s="21"/>
@@ -8583,7 +8453,7 @@
       <c r="F859" s="21"/>
       <c r="H859" s="5"/>
     </row>
-    <row r="860" spans="1:8" ht="13">
+    <row r="860" spans="1:8" ht="12.75">
       <c r="A860" s="20"/>
       <c r="B860" s="21"/>
       <c r="C860" s="21"/>
@@ -8592,7 +8462,7 @@
       <c r="F860" s="21"/>
       <c r="H860" s="5"/>
     </row>
-    <row r="861" spans="1:8" ht="13">
+    <row r="861" spans="1:8" ht="12.75">
       <c r="A861" s="20"/>
       <c r="B861" s="21"/>
       <c r="C861" s="21"/>
@@ -8601,7 +8471,7 @@
       <c r="F861" s="21"/>
       <c r="H861" s="5"/>
     </row>
-    <row r="862" spans="1:8" ht="13">
+    <row r="862" spans="1:8" ht="12.75">
       <c r="A862" s="20"/>
       <c r="B862" s="21"/>
       <c r="C862" s="21"/>
@@ -8610,7 +8480,7 @@
       <c r="F862" s="21"/>
       <c r="H862" s="5"/>
     </row>
-    <row r="863" spans="1:8" ht="13">
+    <row r="863" spans="1:8" ht="12.75">
       <c r="A863" s="20"/>
       <c r="B863" s="21"/>
       <c r="C863" s="21"/>
@@ -8619,7 +8489,7 @@
       <c r="F863" s="21"/>
       <c r="H863" s="5"/>
     </row>
-    <row r="864" spans="1:8" ht="13">
+    <row r="864" spans="1:8" ht="12.75">
       <c r="A864" s="20"/>
       <c r="B864" s="21"/>
       <c r="C864" s="21"/>
@@ -8628,7 +8498,7 @@
       <c r="F864" s="21"/>
       <c r="H864" s="5"/>
     </row>
-    <row r="865" spans="1:8" ht="13">
+    <row r="865" spans="1:8" ht="12.75">
       <c r="A865" s="20"/>
       <c r="B865" s="21"/>
       <c r="C865" s="21"/>
@@ -8637,7 +8507,7 @@
       <c r="F865" s="21"/>
       <c r="H865" s="5"/>
     </row>
-    <row r="866" spans="1:8" ht="13">
+    <row r="866" spans="1:8" ht="12.75">
       <c r="A866" s="20"/>
       <c r="B866" s="21"/>
       <c r="C866" s="21"/>
@@ -8646,7 +8516,7 @@
       <c r="F866" s="21"/>
       <c r="H866" s="5"/>
     </row>
-    <row r="867" spans="1:8" ht="13">
+    <row r="867" spans="1:8" ht="12.75">
       <c r="A867" s="20"/>
       <c r="B867" s="21"/>
       <c r="C867" s="21"/>
@@ -8655,7 +8525,7 @@
       <c r="F867" s="21"/>
       <c r="H867" s="5"/>
     </row>
-    <row r="868" spans="1:8" ht="13">
+    <row r="868" spans="1:8" ht="12.75">
       <c r="A868" s="20"/>
       <c r="B868" s="21"/>
       <c r="C868" s="21"/>
@@ -8664,7 +8534,7 @@
       <c r="F868" s="21"/>
       <c r="H868" s="5"/>
     </row>
-    <row r="869" spans="1:8" ht="13">
+    <row r="869" spans="1:8" ht="12.75">
       <c r="A869" s="20"/>
       <c r="B869" s="21"/>
       <c r="C869" s="21"/>
@@ -8673,7 +8543,7 @@
       <c r="F869" s="21"/>
       <c r="H869" s="5"/>
     </row>
-    <row r="870" spans="1:8" ht="13">
+    <row r="870" spans="1:8" ht="12.75">
       <c r="A870" s="20"/>
       <c r="B870" s="21"/>
       <c r="C870" s="21"/>
@@ -8682,7 +8552,7 @@
       <c r="F870" s="21"/>
       <c r="H870" s="5"/>
     </row>
-    <row r="871" spans="1:8" ht="13">
+    <row r="871" spans="1:8" ht="12.75">
       <c r="A871" s="20"/>
       <c r="B871" s="21"/>
       <c r="C871" s="21"/>
@@ -8691,7 +8561,7 @@
       <c r="F871" s="21"/>
       <c r="H871" s="5"/>
     </row>
-    <row r="872" spans="1:8" ht="13">
+    <row r="872" spans="1:8" ht="12.75">
       <c r="A872" s="20"/>
       <c r="B872" s="21"/>
       <c r="C872" s="21"/>
@@ -8700,7 +8570,7 @@
       <c r="F872" s="21"/>
       <c r="H872" s="5"/>
     </row>
-    <row r="873" spans="1:8" ht="13">
+    <row r="873" spans="1:8" ht="12.75">
       <c r="A873" s="20"/>
       <c r="B873" s="21"/>
       <c r="C873" s="21"/>
@@ -8709,7 +8579,7 @@
       <c r="F873" s="21"/>
       <c r="H873" s="5"/>
     </row>
-    <row r="874" spans="1:8" ht="13">
+    <row r="874" spans="1:8" ht="12.75">
       <c r="A874" s="20"/>
       <c r="B874" s="21"/>
       <c r="C874" s="21"/>
@@ -8718,7 +8588,7 @@
       <c r="F874" s="21"/>
       <c r="H874" s="5"/>
     </row>
-    <row r="875" spans="1:8" ht="13">
+    <row r="875" spans="1:8" ht="12.75">
       <c r="A875" s="20"/>
       <c r="B875" s="21"/>
       <c r="C875" s="21"/>
@@ -8727,7 +8597,7 @@
       <c r="F875" s="21"/>
       <c r="H875" s="5"/>
     </row>
-    <row r="876" spans="1:8" ht="13">
+    <row r="876" spans="1:8" ht="12.75">
       <c r="A876" s="20"/>
       <c r="B876" s="21"/>
       <c r="C876" s="21"/>
@@ -8736,7 +8606,7 @@
       <c r="F876" s="21"/>
       <c r="H876" s="5"/>
     </row>
-    <row r="877" spans="1:8" ht="13">
+    <row r="877" spans="1:8" ht="12.75">
       <c r="A877" s="20"/>
       <c r="B877" s="21"/>
       <c r="C877" s="21"/>
@@ -8745,7 +8615,7 @@
       <c r="F877" s="21"/>
       <c r="H877" s="5"/>
     </row>
-    <row r="878" spans="1:8" ht="13">
+    <row r="878" spans="1:8" ht="12.75">
       <c r="A878" s="20"/>
       <c r="B878" s="21"/>
       <c r="C878" s="21"/>
@@ -8754,7 +8624,7 @@
       <c r="F878" s="21"/>
       <c r="H878" s="5"/>
     </row>
-    <row r="879" spans="1:8" ht="13">
+    <row r="879" spans="1:8" ht="12.75">
       <c r="A879" s="20"/>
       <c r="B879" s="21"/>
       <c r="C879" s="21"/>
@@ -8763,7 +8633,7 @@
       <c r="F879" s="21"/>
       <c r="H879" s="5"/>
     </row>
-    <row r="880" spans="1:8" ht="13">
+    <row r="880" spans="1:8" ht="12.75">
       <c r="A880" s="20"/>
       <c r="B880" s="21"/>
       <c r="C880" s="21"/>
@@ -8772,7 +8642,7 @@
       <c r="F880" s="21"/>
       <c r="H880" s="5"/>
     </row>
-    <row r="881" spans="1:8" ht="13">
+    <row r="881" spans="1:8" ht="12.75">
       <c r="A881" s="20"/>
       <c r="B881" s="21"/>
       <c r="C881" s="21"/>
@@ -8781,7 +8651,7 @@
       <c r="F881" s="21"/>
       <c r="H881" s="5"/>
     </row>
-    <row r="882" spans="1:8" ht="13">
+    <row r="882" spans="1:8" ht="12.75">
       <c r="A882" s="20"/>
       <c r="B882" s="21"/>
       <c r="C882" s="21"/>
@@ -8790,7 +8660,7 @@
       <c r="F882" s="21"/>
       <c r="H882" s="5"/>
     </row>
-    <row r="883" spans="1:8" ht="13">
+    <row r="883" spans="1:8" ht="12.75">
       <c r="A883" s="20"/>
       <c r="B883" s="21"/>
       <c r="C883" s="21"/>
@@ -8799,7 +8669,7 @@
       <c r="F883" s="21"/>
       <c r="H883" s="5"/>
     </row>
-    <row r="884" spans="1:8" ht="13">
+    <row r="884" spans="1:8" ht="12.75">
       <c r="A884" s="20"/>
       <c r="B884" s="21"/>
       <c r="C884" s="21"/>
@@ -8808,7 +8678,7 @@
       <c r="F884" s="21"/>
       <c r="H884" s="5"/>
     </row>
-    <row r="885" spans="1:8" ht="13">
+    <row r="885" spans="1:8" ht="12.75">
       <c r="A885" s="20"/>
       <c r="B885" s="21"/>
       <c r="C885" s="21"/>
@@ -8817,7 +8687,7 @@
       <c r="F885" s="21"/>
       <c r="H885" s="5"/>
     </row>
-    <row r="886" spans="1:8" ht="13">
+    <row r="886" spans="1:8" ht="12.75">
       <c r="A886" s="20"/>
       <c r="B886" s="21"/>
       <c r="C886" s="21"/>
@@ -8826,7 +8696,7 @@
       <c r="F886" s="21"/>
       <c r="H886" s="5"/>
     </row>
-    <row r="887" spans="1:8" ht="13">
+    <row r="887" spans="1:8" ht="12.75">
       <c r="A887" s="20"/>
       <c r="B887" s="21"/>
       <c r="C887" s="21"/>
@@ -8835,7 +8705,7 @@
       <c r="F887" s="21"/>
       <c r="H887" s="5"/>
     </row>
-    <row r="888" spans="1:8" ht="13">
+    <row r="888" spans="1:8" ht="12.75">
       <c r="A888" s="20"/>
       <c r="B888" s="21"/>
       <c r="C888" s="21"/>
@@ -8844,7 +8714,7 @@
       <c r="F888" s="21"/>
       <c r="H888" s="5"/>
     </row>
-    <row r="889" spans="1:8" ht="13">
+    <row r="889" spans="1:8" ht="12.75">
       <c r="A889" s="20"/>
       <c r="B889" s="21"/>
       <c r="C889" s="21"/>
@@ -8853,7 +8723,7 @@
       <c r="F889" s="21"/>
       <c r="H889" s="5"/>
     </row>
-    <row r="890" spans="1:8" ht="13">
+    <row r="890" spans="1:8" ht="12.75">
       <c r="A890" s="20"/>
       <c r="B890" s="21"/>
       <c r="C890" s="21"/>
@@ -8862,7 +8732,7 @@
       <c r="F890" s="21"/>
       <c r="H890" s="5"/>
     </row>
-    <row r="891" spans="1:8" ht="13">
+    <row r="891" spans="1:8" ht="12.75">
       <c r="A891" s="20"/>
       <c r="B891" s="21"/>
       <c r="C891" s="21"/>
@@ -8871,7 +8741,7 @@
       <c r="F891" s="21"/>
       <c r="H891" s="5"/>
     </row>
-    <row r="892" spans="1:8" ht="13">
+    <row r="892" spans="1:8" ht="12.75">
       <c r="A892" s="20"/>
       <c r="B892" s="21"/>
       <c r="C892" s="21"/>
@@ -8880,7 +8750,7 @@
       <c r="F892" s="21"/>
       <c r="H892" s="5"/>
     </row>
-    <row r="893" spans="1:8" ht="13">
+    <row r="893" spans="1:8" ht="12.75">
       <c r="A893" s="20"/>
       <c r="B893" s="21"/>
       <c r="C893" s="21"/>
@@ -8889,7 +8759,7 @@
       <c r="F893" s="21"/>
       <c r="H893" s="5"/>
     </row>
-    <row r="894" spans="1:8" ht="13">
+    <row r="894" spans="1:8" ht="12.75">
       <c r="A894" s="20"/>
       <c r="B894" s="21"/>
       <c r="C894" s="21"/>
@@ -8898,7 +8768,7 @@
       <c r="F894" s="21"/>
       <c r="H894" s="5"/>
     </row>
-    <row r="895" spans="1:8" ht="13">
+    <row r="895" spans="1:8" ht="12.75">
       <c r="A895" s="20"/>
       <c r="B895" s="21"/>
       <c r="C895" s="21"/>
@@ -8907,7 +8777,7 @@
       <c r="F895" s="21"/>
       <c r="H895" s="5"/>
     </row>
-    <row r="896" spans="1:8" ht="13">
+    <row r="896" spans="1:8" ht="12.75">
       <c r="A896" s="20"/>
       <c r="B896" s="21"/>
       <c r="C896" s="21"/>
@@ -8916,7 +8786,7 @@
       <c r="F896" s="21"/>
       <c r="H896" s="5"/>
     </row>
-    <row r="897" spans="1:8" ht="13">
+    <row r="897" spans="1:8" ht="12.75">
       <c r="A897" s="20"/>
       <c r="B897" s="21"/>
       <c r="C897" s="21"/>
@@ -8925,7 +8795,7 @@
       <c r="F897" s="21"/>
       <c r="H897" s="5"/>
     </row>
-    <row r="898" spans="1:8" ht="13">
+    <row r="898" spans="1:8" ht="12.75">
       <c r="A898" s="20"/>
       <c r="B898" s="21"/>
       <c r="C898" s="21"/>
@@ -8934,7 +8804,7 @@
       <c r="F898" s="21"/>
       <c r="H898" s="5"/>
     </row>
-    <row r="899" spans="1:8" ht="13">
+    <row r="899" spans="1:8" ht="12.75">
       <c r="A899" s="20"/>
       <c r="B899" s="21"/>
       <c r="C899" s="21"/>
@@ -8943,7 +8813,7 @@
       <c r="F899" s="21"/>
       <c r="H899" s="5"/>
     </row>
-    <row r="900" spans="1:8" ht="13">
+    <row r="900" spans="1:8" ht="12.75">
       <c r="A900" s="20"/>
       <c r="B900" s="21"/>
       <c r="C900" s="21"/>
@@ -8952,7 +8822,7 @@
       <c r="F900" s="21"/>
       <c r="H900" s="5"/>
     </row>
-    <row r="901" spans="1:8" ht="13">
+    <row r="901" spans="1:8" ht="12.75">
       <c r="A901" s="20"/>
       <c r="B901" s="21"/>
       <c r="C901" s="21"/>
@@ -8961,7 +8831,7 @@
       <c r="F901" s="21"/>
       <c r="H901" s="5"/>
     </row>
-    <row r="902" spans="1:8" ht="13">
+    <row r="902" spans="1:8" ht="12.75">
       <c r="A902" s="20"/>
       <c r="B902" s="21"/>
       <c r="C902" s="21"/>
@@ -8970,7 +8840,7 @@
       <c r="F902" s="21"/>
       <c r="H902" s="5"/>
     </row>
-    <row r="903" spans="1:8" ht="13">
+    <row r="903" spans="1:8" ht="12.75">
       <c r="A903" s="20"/>
       <c r="B903" s="21"/>
       <c r="C903" s="21"/>
@@ -8979,7 +8849,7 @@
       <c r="F903" s="21"/>
       <c r="H903" s="5"/>
     </row>
-    <row r="904" spans="1:8" ht="13">
+    <row r="904" spans="1:8" ht="12.75">
       <c r="A904" s="20"/>
       <c r="B904" s="21"/>
       <c r="C904" s="21"/>
@@ -8988,7 +8858,7 @@
       <c r="F904" s="21"/>
       <c r="H904" s="5"/>
     </row>
-    <row r="905" spans="1:8" ht="13">
+    <row r="905" spans="1:8" ht="12.75">
       <c r="A905" s="20"/>
       <c r="B905" s="21"/>
       <c r="C905" s="21"/>
@@ -8997,7 +8867,7 @@
       <c r="F905" s="21"/>
       <c r="H905" s="5"/>
     </row>
-    <row r="906" spans="1:8" ht="13">
+    <row r="906" spans="1:8" ht="12.75">
       <c r="A906" s="20"/>
       <c r="B906" s="21"/>
       <c r="C906" s="21"/>
@@ -9006,7 +8876,7 @@
       <c r="F906" s="21"/>
       <c r="H906" s="5"/>
     </row>
-    <row r="907" spans="1:8" ht="13">
+    <row r="907" spans="1:8" ht="12.75">
       <c r="A907" s="20"/>
       <c r="B907" s="21"/>
       <c r="C907" s="21"/>
@@ -9015,7 +8885,7 @@
       <c r="F907" s="21"/>
       <c r="H907" s="5"/>
     </row>
-    <row r="908" spans="1:8" ht="13">
+    <row r="908" spans="1:8" ht="12.75">
       <c r="A908" s="20"/>
       <c r="B908" s="21"/>
       <c r="C908" s="21"/>
@@ -9024,7 +8894,7 @@
       <c r="F908" s="21"/>
       <c r="H908" s="5"/>
     </row>
-    <row r="909" spans="1:8" ht="13">
+    <row r="909" spans="1:8" ht="12.75">
       <c r="A909" s="20"/>
       <c r="B909" s="21"/>
       <c r="C909" s="21"/>
@@ -9033,7 +8903,7 @@
       <c r="F909" s="21"/>
       <c r="H909" s="5"/>
     </row>
-    <row r="910" spans="1:8" ht="13">
+    <row r="910" spans="1:8" ht="12.75">
       <c r="A910" s="20"/>
       <c r="B910" s="21"/>
       <c r="C910" s="21"/>
@@ -9042,7 +8912,7 @@
       <c r="F910" s="21"/>
       <c r="H910" s="5"/>
     </row>
-    <row r="911" spans="1:8" ht="13">
+    <row r="911" spans="1:8" ht="12.75">
       <c r="A911" s="20"/>
       <c r="B911" s="21"/>
       <c r="C911" s="21"/>
@@ -9051,7 +8921,7 @@
       <c r="F911" s="21"/>
       <c r="H911" s="5"/>
     </row>
-    <row r="912" spans="1:8" ht="13">
+    <row r="912" spans="1:8" ht="12.75">
       <c r="A912" s="20"/>
       <c r="B912" s="21"/>
       <c r="C912" s="21"/>
@@ -9060,7 +8930,7 @@
       <c r="F912" s="21"/>
       <c r="H912" s="5"/>
     </row>
-    <row r="913" spans="1:8" ht="13">
+    <row r="913" spans="1:8" ht="12.75">
       <c r="A913" s="20"/>
       <c r="B913" s="21"/>
       <c r="C913" s="21"/>
@@ -9069,7 +8939,7 @@
       <c r="F913" s="21"/>
       <c r="H913" s="5"/>
     </row>
-    <row r="914" spans="1:8" ht="13">
+    <row r="914" spans="1:8" ht="12.75">
       <c r="A914" s="20"/>
       <c r="B914" s="21"/>
       <c r="C914" s="21"/>
@@ -9078,7 +8948,7 @@
       <c r="F914" s="21"/>
       <c r="H914" s="5"/>
     </row>
-    <row r="915" spans="1:8" ht="13">
+    <row r="915" spans="1:8" ht="12.75">
       <c r="A915" s="20"/>
       <c r="B915" s="21"/>
       <c r="C915" s="21"/>
@@ -9087,7 +8957,7 @@
       <c r="F915" s="21"/>
       <c r="H915" s="5"/>
     </row>
-    <row r="916" spans="1:8" ht="13">
+    <row r="916" spans="1:8" ht="12.75">
       <c r="A916" s="20"/>
       <c r="B916" s="21"/>
       <c r="C916" s="21"/>
@@ -9096,7 +8966,7 @@
       <c r="F916" s="21"/>
       <c r="H916" s="5"/>
     </row>
-    <row r="917" spans="1:8" ht="13">
+    <row r="917" spans="1:8" ht="12.75">
       <c r="A917" s="20"/>
       <c r="B917" s="21"/>
       <c r="C917" s="21"/>
@@ -9105,7 +8975,7 @@
       <c r="F917" s="21"/>
       <c r="H917" s="5"/>
     </row>
-    <row r="918" spans="1:8" ht="13">
+    <row r="918" spans="1:8" ht="12.75">
       <c r="A918" s="20"/>
       <c r="B918" s="21"/>
       <c r="C918" s="21"/>
@@ -9114,7 +8984,7 @@
       <c r="F918" s="21"/>
       <c r="H918" s="5"/>
     </row>
-    <row r="919" spans="1:8" ht="13">
+    <row r="919" spans="1:8" ht="12.75">
       <c r="A919" s="20"/>
       <c r="B919" s="21"/>
       <c r="C919" s="21"/>
@@ -9123,7 +8993,7 @@
       <c r="F919" s="21"/>
       <c r="H919" s="5"/>
     </row>
-    <row r="920" spans="1:8" ht="13">
+    <row r="920" spans="1:8" ht="12.75">
       <c r="A920" s="20"/>
       <c r="B920" s="21"/>
       <c r="C920" s="21"/>
@@ -9132,7 +9002,7 @@
       <c r="F920" s="21"/>
       <c r="H920" s="5"/>
     </row>
-    <row r="921" spans="1:8" ht="13">
+    <row r="921" spans="1:8" ht="12.75">
       <c r="A921" s="20"/>
       <c r="B921" s="21"/>
       <c r="C921" s="21"/>
@@ -9141,7 +9011,7 @@
       <c r="F921" s="21"/>
       <c r="H921" s="5"/>
     </row>
-    <row r="922" spans="1:8" ht="13">
+    <row r="922" spans="1:8" ht="12.75">
       <c r="A922" s="20"/>
       <c r="B922" s="21"/>
       <c r="C922" s="21"/>
@@ -9150,7 +9020,7 @@
       <c r="F922" s="21"/>
       <c r="H922" s="5"/>
     </row>
-    <row r="923" spans="1:8" ht="13">
+    <row r="923" spans="1:8" ht="12.75">
       <c r="A923" s="20"/>
       <c r="B923" s="21"/>
       <c r="C923" s="21"/>
@@ -9159,7 +9029,7 @@
       <c r="F923" s="21"/>
       <c r="H923" s="5"/>
     </row>
-    <row r="924" spans="1:8" ht="13">
+    <row r="924" spans="1:8" ht="12.75">
       <c r="A924" s="20"/>
       <c r="B924" s="21"/>
       <c r="C924" s="21"/>
@@ -9168,7 +9038,7 @@
       <c r="F924" s="21"/>
       <c r="H924" s="5"/>
     </row>
-    <row r="925" spans="1:8" ht="13">
+    <row r="925" spans="1:8" ht="12.75">
       <c r="A925" s="20"/>
       <c r="B925" s="21"/>
       <c r="C925" s="21"/>
@@ -9177,7 +9047,7 @@
       <c r="F925" s="21"/>
       <c r="H925" s="5"/>
     </row>
-    <row r="926" spans="1:8" ht="13">
+    <row r="926" spans="1:8" ht="12.75">
       <c r="A926" s="20"/>
       <c r="B926" s="21"/>
       <c r="C926" s="21"/>
@@ -9186,7 +9056,7 @@
       <c r="F926" s="21"/>
       <c r="H926" s="5"/>
     </row>
-    <row r="927" spans="1:8" ht="13">
+    <row r="927" spans="1:8" ht="12.75">
       <c r="A927" s="20"/>
       <c r="B927" s="21"/>
       <c r="C927" s="21"/>
@@ -9195,7 +9065,7 @@
       <c r="F927" s="21"/>
       <c r="H927" s="5"/>
     </row>
-    <row r="928" spans="1:8" ht="13">
+    <row r="928" spans="1:8" ht="12.75">
       <c r="A928" s="20"/>
       <c r="B928" s="21"/>
       <c r="C928" s="21"/>
@@ -9204,7 +9074,7 @@
       <c r="F928" s="21"/>
       <c r="H928" s="5"/>
     </row>
-    <row r="929" spans="1:8" ht="13">
+    <row r="929" spans="1:8" ht="12.75">
       <c r="A929" s="20"/>
       <c r="B929" s="21"/>
       <c r="C929" s="21"/>
@@ -9213,7 +9083,7 @@
       <c r="F929" s="21"/>
       <c r="H929" s="5"/>
     </row>
-    <row r="930" spans="1:8" ht="13">
+    <row r="930" spans="1:8" ht="12.75">
       <c r="A930" s="20"/>
       <c r="B930" s="21"/>
       <c r="C930" s="21"/>
@@ -9222,7 +9092,7 @@
       <c r="F930" s="21"/>
       <c r="H930" s="5"/>
     </row>
-    <row r="931" spans="1:8" ht="13">
+    <row r="931" spans="1:8" ht="12.75">
       <c r="A931" s="20"/>
       <c r="B931" s="21"/>
       <c r="C931" s="21"/>
@@ -9231,7 +9101,7 @@
       <c r="F931" s="21"/>
       <c r="H931" s="5"/>
     </row>
-    <row r="932" spans="1:8" ht="13">
+    <row r="932" spans="1:8" ht="12.75">
       <c r="A932" s="20"/>
       <c r="B932" s="21"/>
       <c r="C932" s="21"/>
@@ -9240,7 +9110,7 @@
       <c r="F932" s="21"/>
       <c r="H932" s="5"/>
     </row>
-    <row r="933" spans="1:8" ht="13">
+    <row r="933" spans="1:8" ht="12.75">
       <c r="A933" s="20"/>
       <c r="B933" s="21"/>
       <c r="C933" s="21"/>
@@ -9249,7 +9119,7 @@
       <c r="F933" s="21"/>
       <c r="H933" s="5"/>
     </row>
-    <row r="934" spans="1:8" ht="13">
+    <row r="934" spans="1:8" ht="12.75">
       <c r="A934" s="20"/>
       <c r="B934" s="21"/>
       <c r="C934" s="21"/>
@@ -9258,7 +9128,7 @@
       <c r="F934" s="21"/>
       <c r="H934" s="5"/>
     </row>
-    <row r="935" spans="1:8" ht="13">
+    <row r="935" spans="1:8" ht="12.75">
       <c r="A935" s="20"/>
       <c r="B935" s="21"/>
       <c r="C935" s="21"/>
@@ -9267,7 +9137,7 @@
       <c r="F935" s="21"/>
       <c r="H935" s="5"/>
     </row>
-    <row r="936" spans="1:8" ht="13">
+    <row r="936" spans="1:8" ht="12.75">
       <c r="A936" s="20"/>
       <c r="B936" s="21"/>
       <c r="C936" s="21"/>
@@ -9276,7 +9146,7 @@
       <c r="F936" s="21"/>
       <c r="H936" s="5"/>
     </row>
-    <row r="937" spans="1:8" ht="13">
+    <row r="937" spans="1:8" ht="12.75">
       <c r="A937" s="20"/>
       <c r="B937" s="21"/>
       <c r="C937" s="21"/>
@@ -9285,7 +9155,7 @@
       <c r="F937" s="21"/>
       <c r="H937" s="5"/>
     </row>
-    <row r="938" spans="1:8" ht="13">
+    <row r="938" spans="1:8" ht="12.75">
       <c r="A938" s="20"/>
       <c r="B938" s="21"/>
       <c r="C938" s="21"/>
@@ -9294,7 +9164,7 @@
       <c r="F938" s="21"/>
       <c r="H938" s="5"/>
     </row>
-    <row r="939" spans="1:8" ht="13">
+    <row r="939" spans="1:8" ht="12.75">
       <c r="A939" s="20"/>
       <c r="B939" s="21"/>
       <c r="C939" s="21"/>
@@ -9303,7 +9173,7 @@
       <c r="F939" s="21"/>
       <c r="H939" s="5"/>
     </row>
-    <row r="940" spans="1:8" ht="13">
+    <row r="940" spans="1:8" ht="12.75">
       <c r="A940" s="20"/>
       <c r="B940" s="21"/>
       <c r="C940" s="21"/>
@@ -9312,7 +9182,7 @@
       <c r="F940" s="21"/>
       <c r="H940" s="5"/>
     </row>
-    <row r="941" spans="1:8" ht="13">
+    <row r="941" spans="1:8" ht="12.75">
       <c r="A941" s="20"/>
       <c r="B941" s="21"/>
       <c r="C941" s="21"/>
@@ -9321,7 +9191,7 @@
       <c r="F941" s="21"/>
       <c r="H941" s="5"/>
     </row>
-    <row r="942" spans="1:8" ht="13">
+    <row r="942" spans="1:8" ht="12.75">
       <c r="A942" s="20"/>
       <c r="B942" s="21"/>
       <c r="C942" s="21"/>
@@ -9330,7 +9200,7 @@
       <c r="F942" s="21"/>
       <c r="H942" s="5"/>
     </row>
-    <row r="943" spans="1:8" ht="13">
+    <row r="943" spans="1:8" ht="12.75">
       <c r="A943" s="20"/>
       <c r="B943" s="21"/>
       <c r="C943" s="21"/>
@@ -9339,7 +9209,7 @@
       <c r="F943" s="21"/>
       <c r="H943" s="5"/>
     </row>
-    <row r="944" spans="1:8" ht="13">
+    <row r="944" spans="1:8" ht="12.75">
       <c r="A944" s="20"/>
       <c r="B944" s="21"/>
       <c r="C944" s="21"/>
@@ -9348,7 +9218,7 @@
       <c r="F944" s="21"/>
       <c r="H944" s="5"/>
     </row>
-    <row r="945" spans="1:8" ht="13">
+    <row r="945" spans="1:8" ht="12.75">
       <c r="A945" s="20"/>
       <c r="B945" s="21"/>
       <c r="C945" s="21"/>
@@ -9357,7 +9227,7 @@
       <c r="F945" s="21"/>
       <c r="H945" s="5"/>
     </row>
-    <row r="946" spans="1:8" ht="13">
+    <row r="946" spans="1:8" ht="12.75">
       <c r="A946" s="20"/>
       <c r="B946" s="21"/>
       <c r="C946" s="21"/>
@@ -9366,7 +9236,7 @@
       <c r="F946" s="21"/>
       <c r="H946" s="5"/>
     </row>
-    <row r="947" spans="1:8" ht="13">
+    <row r="947" spans="1:8" ht="12.75">
       <c r="A947" s="20"/>
       <c r="B947" s="21"/>
       <c r="C947" s="21"/>
@@ -9375,7 +9245,7 @@
       <c r="F947" s="21"/>
       <c r="H947" s="5"/>
     </row>
-    <row r="948" spans="1:8" ht="13">
+    <row r="948" spans="1:8" ht="12.75">
       <c r="A948" s="20"/>
       <c r="B948" s="21"/>
       <c r="C948" s="21"/>
@@ -9384,7 +9254,7 @@
       <c r="F948" s="21"/>
       <c r="H948" s="5"/>
     </row>
-    <row r="949" spans="1:8" ht="13">
+    <row r="949" spans="1:8" ht="12.75">
       <c r="A949" s="20"/>
       <c r="B949" s="21"/>
       <c r="C949" s="21"/>
@@ -9393,7 +9263,7 @@
       <c r="F949" s="21"/>
       <c r="H949" s="5"/>
     </row>
-    <row r="950" spans="1:8" ht="13">
+    <row r="950" spans="1:8" ht="12.75">
       <c r="A950" s="20"/>
       <c r="B950" s="21"/>
       <c r="C950" s="21"/>
@@ -9402,7 +9272,7 @@
       <c r="F950" s="21"/>
       <c r="H950" s="5"/>
     </row>
-    <row r="951" spans="1:8" ht="13">
+    <row r="951" spans="1:8" ht="12.75">
       <c r="A951" s="20"/>
       <c r="B951" s="21"/>
       <c r="C951" s="21"/>
@@ -9411,7 +9281,7 @@
       <c r="F951" s="21"/>
       <c r="H951" s="5"/>
     </row>
-    <row r="952" spans="1:8" ht="13">
+    <row r="952" spans="1:8" ht="12.75">
       <c r="A952" s="20"/>
       <c r="B952" s="21"/>
       <c r="C952" s="21"/>
@@ -9420,7 +9290,7 @@
       <c r="F952" s="21"/>
       <c r="H952" s="5"/>
     </row>
-    <row r="953" spans="1:8" ht="13">
+    <row r="953" spans="1:8" ht="12.75">
       <c r="A953" s="20"/>
       <c r="B953" s="21"/>
       <c r="C953" s="21"/>
@@ -9429,7 +9299,7 @@
       <c r="F953" s="21"/>
       <c r="H953" s="5"/>
     </row>
-    <row r="954" spans="1:8" ht="13">
+    <row r="954" spans="1:8" ht="12.75">
       <c r="A954" s="20"/>
       <c r="B954" s="21"/>
       <c r="C954" s="21"/>
@@ -9438,7 +9308,7 @@
       <c r="F954" s="21"/>
       <c r="H954" s="5"/>
     </row>
-    <row r="955" spans="1:8" ht="13">
+    <row r="955" spans="1:8" ht="12.75">
       <c r="A955" s="20"/>
       <c r="B955" s="21"/>
       <c r="C955" s="21"/>
@@ -9447,7 +9317,7 @@
       <c r="F955" s="21"/>
       <c r="H955" s="5"/>
     </row>
-    <row r="956" spans="1:8" ht="13">
+    <row r="956" spans="1:8" ht="12.75">
       <c r="A956" s="20"/>
       <c r="B956" s="21"/>
       <c r="C956" s="21"/>
@@ -9456,7 +9326,7 @@
       <c r="F956" s="21"/>
       <c r="H956" s="5"/>
     </row>
-    <row r="957" spans="1:8" ht="13">
+    <row r="957" spans="1:8" ht="12.75">
       <c r="A957" s="20"/>
       <c r="B957" s="21"/>
       <c r="C957" s="21"/>
@@ -9465,7 +9335,7 @@
       <c r="F957" s="21"/>
       <c r="H957" s="5"/>
     </row>
-    <row r="958" spans="1:8" ht="13">
+    <row r="958" spans="1:8" ht="12.75">
       <c r="A958" s="20"/>
       <c r="B958" s="21"/>
       <c r="C958" s="21"/>
@@ -9474,7 +9344,7 @@
       <c r="F958" s="21"/>
       <c r="H958" s="5"/>
     </row>
-    <row r="959" spans="1:8" ht="13">
+    <row r="959" spans="1:8" ht="12.75">
       <c r="A959" s="20"/>
       <c r="B959" s="21"/>
       <c r="C959" s="21"/>
@@ -9483,7 +9353,7 @@
       <c r="F959" s="21"/>
       <c r="H959" s="5"/>
     </row>
-    <row r="960" spans="1:8" ht="13">
+    <row r="960" spans="1:8" ht="12.75">
       <c r="A960" s="20"/>
       <c r="B960" s="21"/>
       <c r="C960" s="21"/>
@@ -9492,7 +9362,7 @@
       <c r="F960" s="21"/>
       <c r="H960" s="5"/>
     </row>
-    <row r="961" spans="1:8" ht="13">
+    <row r="961" spans="1:8" ht="12.75">
       <c r="A961" s="20"/>
       <c r="B961" s="21"/>
       <c r="C961" s="21"/>
@@ -9501,7 +9371,7 @@
       <c r="F961" s="21"/>
       <c r="H961" s="5"/>
     </row>
-    <row r="962" spans="1:8" ht="13">
+    <row r="962" spans="1:8" ht="12.75">
       <c r="A962" s="20"/>
       <c r="B962" s="21"/>
       <c r="C962" s="21"/>
@@ -9510,7 +9380,7 @@
       <c r="F962" s="21"/>
       <c r="H962" s="5"/>
     </row>
-    <row r="963" spans="1:8" ht="13">
+    <row r="963" spans="1:8" ht="12.75">
       <c r="A963" s="20"/>
       <c r="B963" s="21"/>
       <c r="C963" s="21"/>
@@ -9519,7 +9389,7 @@
       <c r="F963" s="21"/>
       <c r="H963" s="5"/>
     </row>
-    <row r="964" spans="1:8" ht="13">
+    <row r="964" spans="1:8" ht="12.75">
       <c r="A964" s="20"/>
       <c r="B964" s="21"/>
       <c r="C964" s="21"/>
@@ -9528,7 +9398,7 @@
       <c r="F964" s="21"/>
       <c r="H964" s="5"/>
     </row>
-    <row r="965" spans="1:8" ht="13">
+    <row r="965" spans="1:8" ht="12.75">
       <c r="A965" s="20"/>
       <c r="B965" s="21"/>
       <c r="C965" s="21"/>
@@ -9537,7 +9407,7 @@
       <c r="F965" s="21"/>
       <c r="H965" s="5"/>
     </row>
-    <row r="966" spans="1:8" ht="13">
+    <row r="966" spans="1:8" ht="12.75">
       <c r="A966" s="20"/>
       <c r="B966" s="21"/>
       <c r="C966" s="21"/>
@@ -9546,7 +9416,7 @@
       <c r="F966" s="21"/>
       <c r="H966" s="5"/>
     </row>
-    <row r="967" spans="1:8" ht="13">
+    <row r="967" spans="1:8" ht="12.75">
       <c r="A967" s="20"/>
       <c r="B967" s="21"/>
       <c r="C967" s="21"/>
@@ -9555,7 +9425,7 @@
       <c r="F967" s="21"/>
       <c r="H967" s="5"/>
     </row>
-    <row r="968" spans="1:8" ht="13">
+    <row r="968" spans="1:8" ht="12.75">
       <c r="A968" s="20"/>
       <c r="B968" s="21"/>
       <c r="C968" s="21"/>
@@ -9564,7 +9434,7 @@
       <c r="F968" s="21"/>
       <c r="H968" s="5"/>
     </row>
-    <row r="969" spans="1:8" ht="13">
+    <row r="969" spans="1:8" ht="12.75">
       <c r="A969" s="20"/>
       <c r="B969" s="21"/>
       <c r="C969" s="21"/>
@@ -9573,7 +9443,7 @@
       <c r="F969" s="21"/>
       <c r="H969" s="5"/>
     </row>
-    <row r="970" spans="1:8" ht="13">
+    <row r="970" spans="1:8" ht="12.75">
       <c r="A970" s="20"/>
       <c r="B970" s="21"/>
       <c r="C970" s="21"/>
@@ -9582,7 +9452,7 @@
       <c r="F970" s="21"/>
       <c r="H970" s="5"/>
     </row>
-    <row r="971" spans="1:8" ht="13">
+    <row r="971" spans="1:8" ht="12.75">
       <c r="A971" s="20"/>
       <c r="B971" s="21"/>
       <c r="C971" s="21"/>
@@ -9591,7 +9461,7 @@
       <c r="F971" s="21"/>
       <c r="H971" s="5"/>
     </row>
-    <row r="972" spans="1:8" ht="13">
+    <row r="972" spans="1:8" ht="12.75">
       <c r="A972" s="20"/>
       <c r="B972" s="21"/>
       <c r="C972" s="21"/>
@@ -9600,7 +9470,7 @@
       <c r="F972" s="21"/>
       <c r="H972" s="5"/>
     </row>
-    <row r="973" spans="1:8" ht="13">
+    <row r="973" spans="1:8" ht="12.75">
       <c r="A973" s="20"/>
       <c r="B973" s="21"/>
       <c r="C973" s="21"/>
@@ -9609,7 +9479,7 @@
       <c r="F973" s="21"/>
       <c r="H973" s="5"/>
     </row>
-    <row r="974" spans="1:8" ht="13">
+    <row r="974" spans="1:8" ht="12.75">
       <c r="A974" s="20"/>
       <c r="B974" s="21"/>
       <c r="C974" s="21"/>
@@ -9618,7 +9488,7 @@
       <c r="F974" s="21"/>
       <c r="H974" s="5"/>
     </row>
-    <row r="975" spans="1:8" ht="13">
+    <row r="975" spans="1:8" ht="12.75">
       <c r="A975" s="20"/>
       <c r="B975" s="21"/>
       <c r="C975" s="21"/>
@@ -9627,7 +9497,7 @@
       <c r="F975" s="21"/>
       <c r="H975" s="5"/>
     </row>
-    <row r="976" spans="1:8" ht="13">
+    <row r="976" spans="1:8" ht="12.75">
       <c r="A976" s="20"/>
       <c r="B976" s="21"/>
       <c r="C976" s="21"/>
@@ -9636,7 +9506,7 @@
       <c r="F976" s="21"/>
       <c r="H976" s="5"/>
     </row>
-    <row r="977" spans="1:8" ht="13">
+    <row r="977" spans="1:8" ht="12.75">
       <c r="A977" s="20"/>
       <c r="B977" s="21"/>
       <c r="C977" s="21"/>
@@ -9645,7 +9515,7 @@
       <c r="F977" s="21"/>
       <c r="H977" s="5"/>
     </row>
-    <row r="978" spans="1:8" ht="13">
+    <row r="978" spans="1:8" ht="12.75">
       <c r="A978" s="20"/>
       <c r="B978" s="21"/>
       <c r="C978" s="21"/>
@@ -9654,7 +9524,7 @@
       <c r="F978" s="21"/>
       <c r="H978" s="5"/>
     </row>
-    <row r="979" spans="1:8" ht="13">
+    <row r="979" spans="1:8" ht="12.75">
       <c r="A979" s="20"/>
       <c r="B979" s="21"/>
       <c r="C979" s="21"/>
@@ -9663,7 +9533,7 @@
       <c r="F979" s="21"/>
       <c r="H979" s="5"/>
     </row>
-    <row r="980" spans="1:8" ht="13">
+    <row r="980" spans="1:8" ht="12.75">
       <c r="A980" s="20"/>
       <c r="B980" s="21"/>
       <c r="C980" s="21"/>
@@ -9672,7 +9542,7 @@
       <c r="F980" s="21"/>
       <c r="H980" s="5"/>
     </row>
-    <row r="981" spans="1:8" ht="13">
+    <row r="981" spans="1:8" ht="12.75">
       <c r="A981" s="20"/>
       <c r="B981" s="21"/>
       <c r="C981" s="21"/>
@@ -9681,7 +9551,7 @@
       <c r="F981" s="21"/>
       <c r="H981" s="5"/>
     </row>
-    <row r="982" spans="1:8" ht="13">
+    <row r="982" spans="1:8" ht="12.75">
       <c r="A982" s="20"/>
       <c r="B982" s="21"/>
       <c r="C982" s="21"/>
@@ -9690,7 +9560,7 @@
       <c r="F982" s="21"/>
       <c r="H982" s="5"/>
     </row>
-    <row r="983" spans="1:8" ht="13">
+    <row r="983" spans="1:8" ht="12.75">
       <c r="A983" s="20"/>
       <c r="B983" s="21"/>
       <c r="C983" s="21"/>
@@ -9699,7 +9569,7 @@
       <c r="F983" s="21"/>
       <c r="H983" s="5"/>
     </row>
-    <row r="984" spans="1:8" ht="13">
+    <row r="984" spans="1:8" ht="12.75">
       <c r="A984" s="20"/>
       <c r="B984" s="21"/>
       <c r="C984" s="21"/>
@@ -9708,7 +9578,7 @@
       <c r="F984" s="21"/>
       <c r="H984" s="5"/>
     </row>
-    <row r="985" spans="1:8" ht="13">
+    <row r="985" spans="1:8" ht="12.75">
       <c r="A985" s="20"/>
       <c r="B985" s="21"/>
       <c r="C985" s="21"/>
@@ -9717,7 +9587,7 @@
       <c r="F985" s="21"/>
       <c r="H985" s="5"/>
     </row>
-    <row r="986" spans="1:8" ht="13">
+    <row r="986" spans="1:8" ht="12.75">
       <c r="A986" s="20"/>
       <c r="B986" s="21"/>
       <c r="C986" s="21"/>
@@ -9726,7 +9596,7 @@
       <c r="F986" s="21"/>
       <c r="H986" s="5"/>
     </row>
-    <row r="987" spans="1:8" ht="13">
+    <row r="987" spans="1:8" ht="12.75">
       <c r="A987" s="20"/>
       <c r="B987" s="21"/>
       <c r="C987" s="21"/>
@@ -9735,7 +9605,7 @@
       <c r="F987" s="21"/>
       <c r="H987" s="5"/>
     </row>
-    <row r="988" spans="1:8" ht="13">
+    <row r="988" spans="1:8" ht="12.75">
       <c r="A988" s="20"/>
       <c r="B988" s="21"/>
       <c r="C988" s="21"/>
@@ -9744,7 +9614,7 @@
       <c r="F988" s="21"/>
       <c r="H988" s="5"/>
     </row>
-    <row r="989" spans="1:8" ht="13">
+    <row r="989" spans="1:8" ht="12.75">
       <c r="A989" s="20"/>
       <c r="B989" s="21"/>
       <c r="C989" s="21"/>
@@ -9753,7 +9623,7 @@
       <c r="F989" s="21"/>
       <c r="H989" s="5"/>
     </row>
-    <row r="990" spans="1:8" ht="13">
+    <row r="990" spans="1:8" ht="12.75">
       <c r="A990" s="20"/>
       <c r="B990" s="21"/>
       <c r="C990" s="21"/>
@@ -9762,7 +9632,7 @@
       <c r="F990" s="21"/>
       <c r="H990" s="5"/>
     </row>
-    <row r="991" spans="1:8" ht="13">
+    <row r="991" spans="1:8" ht="12.75">
       <c r="A991" s="20"/>
       <c r="B991" s="21"/>
       <c r="C991" s="21"/>
@@ -9771,7 +9641,7 @@
       <c r="F991" s="21"/>
       <c r="H991" s="5"/>
     </row>
-    <row r="992" spans="1:8" ht="13">
+    <row r="992" spans="1:8" ht="12.75">
       <c r="A992" s="20"/>
       <c r="B992" s="21"/>
       <c r="C992" s="21"/>
@@ -9780,7 +9650,7 @@
       <c r="F992" s="21"/>
       <c r="H992" s="5"/>
     </row>
-    <row r="993" spans="1:8" ht="13">
+    <row r="993" spans="1:8" ht="12.75">
       <c r="A993" s="20"/>
       <c r="B993" s="21"/>
       <c r="C993" s="21"/>
@@ -9789,7 +9659,7 @@
       <c r="F993" s="21"/>
       <c r="H993" s="5"/>
     </row>
-    <row r="994" spans="1:8" ht="13">
+    <row r="994" spans="1:8" ht="12.75">
       <c r="A994" s="20"/>
       <c r="B994" s="21"/>
       <c r="C994" s="21"/>
@@ -9798,7 +9668,7 @@
       <c r="F994" s="21"/>
       <c r="H994" s="5"/>
     </row>
-    <row r="995" spans="1:8" ht="13">
+    <row r="995" spans="1:8" ht="12.75">
       <c r="A995" s="20"/>
       <c r="B995" s="21"/>
       <c r="C995" s="21"/>
@@ -9807,7 +9677,7 @@
       <c r="F995" s="21"/>
       <c r="H995" s="5"/>
     </row>
-    <row r="996" spans="1:8" ht="13">
+    <row r="996" spans="1:8" ht="12.75">
       <c r="A996" s="20"/>
       <c r="B996" s="21"/>
       <c r="C996" s="21"/>
@@ -9816,7 +9686,7 @@
       <c r="F996" s="21"/>
       <c r="H996" s="5"/>
     </row>
-    <row r="997" spans="1:8" ht="13">
+    <row r="997" spans="1:8" ht="12.75">
       <c r="A997" s="20"/>
       <c r="B997" s="21"/>
       <c r="C997" s="21"/>
@@ -9825,7 +9695,7 @@
       <c r="F997" s="21"/>
       <c r="H997" s="5"/>
     </row>
-    <row r="998" spans="1:8" ht="13">
+    <row r="998" spans="1:8" ht="12.75">
       <c r="A998" s="20"/>
       <c r="B998" s="21"/>
       <c r="C998" s="21"/>
@@ -9834,7 +9704,7 @@
       <c r="F998" s="21"/>
       <c r="H998" s="5"/>
     </row>
-    <row r="999" spans="1:8" ht="13">
+    <row r="999" spans="1:8" ht="12.75">
       <c r="A999" s="20"/>
       <c r="B999" s="21"/>
       <c r="C999" s="21"/>
@@ -9843,7 +9713,7 @@
       <c r="F999" s="21"/>
       <c r="H999" s="5"/>
     </row>
-    <row r="1000" spans="1:8" ht="13">
+    <row r="1000" spans="1:8" ht="12.75">
       <c r="A1000" s="20"/>
       <c r="B1000" s="21"/>
       <c r="C1000" s="21"/>
@@ -9852,7 +9722,7 @@
       <c r="F1000" s="21"/>
       <c r="H1000" s="5"/>
     </row>
-    <row r="1001" spans="1:8" ht="13">
+    <row r="1001" spans="1:8" ht="12.75">
       <c r="A1001" s="20"/>
       <c r="B1001" s="21"/>
       <c r="C1001" s="21"/>
@@ -9861,7 +9731,7 @@
       <c r="F1001" s="21"/>
       <c r="H1001" s="5"/>
     </row>
-    <row r="1002" spans="1:8" ht="13">
+    <row r="1002" spans="1:8" ht="12.75">
       <c r="A1002" s="20"/>
       <c r="B1002" s="21"/>
       <c r="C1002" s="21"/>
@@ -9870,7 +9740,7 @@
       <c r="F1002" s="21"/>
       <c r="H1002" s="5"/>
     </row>
-    <row r="1003" spans="1:8" ht="13">
+    <row r="1003" spans="1:8" ht="12.75">
       <c r="A1003" s="20"/>
       <c r="B1003" s="21"/>
       <c r="C1003" s="21"/>

--- a/Stundenprotokoll_Prochoc.xlsx
+++ b/Stundenprotokoll_Prochoc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basti\Desktop\HTL-Leonding\Prochoc-Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54731FFF-73E2-4BE5-8FA4-5FE0177E9A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84289FD0-0383-444F-9A7C-4299EFC910EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -60,16 +60,19 @@
     <t>Bastian</t>
   </si>
   <si>
-    <t>Bugs in Deployment (refresh)</t>
+    <t>Fabio Lehner</t>
   </si>
   <si>
-    <t>PayPal Sandbox auskunft</t>
+    <t>Bugs in Deployment (refresh)</t>
   </si>
   <si>
     <t>Basket Id in Mail, Routing, OrderDate</t>
   </si>
   <si>
-    <t>Paypal API</t>
+    <t>Paypal API integrierung in Frontend</t>
+  </si>
+  <si>
+    <t>PayPal Sandbox Test in Demoprojekt</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <dimension ref="A1:H1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -484,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="15">
         <f t="shared" ref="F2:F41" si="0">$C2-$B2</f>
@@ -506,7 +509,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="15">
         <f t="shared" si="0"/>
@@ -559,26 +562,46 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="6">
+        <v>44591</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.875</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="11">
+        <v>44593</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C7" s="12">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F7" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333326</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -725,7 +748,7 @@
       </c>
       <c r="H19" s="5">
         <f>SUMIF($D2:$D1003,"Fabio Lehner",$F2:$F1003)</f>
-        <v>0</v>
+        <v>0.27083333333333326</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
